--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soroush\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E98982-A14B-4060-9B42-CD3FEA8B3308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A5F7F5-227D-47FE-92FD-8EB8D2E98AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورودی" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="187">
   <si>
     <t>a1</t>
   </si>
@@ -593,6 +602,9 @@
   </si>
   <si>
     <t>کلید 50</t>
+  </si>
+  <si>
+    <t>برگزیدگان کل</t>
   </si>
 </sst>
 </file>
@@ -1245,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA4" sqref="BA4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2970,7 +2982,9 @@
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3952,11 +3966,11 @@
       </c>
       <c r="I2" s="8">
         <f>AVERAGE($G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J2" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K2" s="9">
         <f>COUNTIF(INDEX(خروجی!D2:BA2,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D2:BA2,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -4148,7 +4162,7 @@
       </c>
       <c r="BF2" s="22">
         <f>AVERAGE($BD$2:$BD$26)</f>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG2" s="22">
         <f>AVERAGEIF($BE$2:$BE$26,"&lt;=10",$BD$2:$BD$26)</f>
@@ -4590,11 +4604,11 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I26" si="2">AVERAGE($G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J3" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K3" s="9">
         <f>COUNTIF(INDEX(خروجی!D3:BA3,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D3:BA3,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -4786,7 +4800,7 @@
       </c>
       <c r="BF3" s="22">
         <f t="shared" ref="BF3:BF26" si="24">AVERAGE($BD$2:$BD$26)</f>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG3" s="22">
         <f t="shared" ref="BG3:BG26" si="25">AVERAGEIF($BE$2:$BE$26,"&lt;=10",$BD$2:$BD$26)</f>
@@ -5228,11 +5242,11 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J4" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K4" s="9">
         <f>COUNTIF(INDEX(خروجی!D4:BA4,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D4:BA4,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -5424,7 +5438,7 @@
       </c>
       <c r="BF4" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG4" s="22">
         <f t="shared" si="25"/>
@@ -5866,11 +5880,11 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J5" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K5" s="9">
         <f>COUNTIF(INDEX(خروجی!D5:BA5,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D5:BA5,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -6062,7 +6076,7 @@
       </c>
       <c r="BF5" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG5" s="22">
         <f t="shared" si="25"/>
@@ -6504,11 +6518,11 @@
       </c>
       <c r="I6" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J6" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K6" s="9">
         <f>COUNTIF(INDEX(خروجی!D6:BA6,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D6:BA6,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -6700,7 +6714,7 @@
       </c>
       <c r="BF6" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG6" s="22">
         <f t="shared" si="25"/>
@@ -7142,11 +7156,11 @@
       </c>
       <c r="I7" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J7" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K7" s="9">
         <f>COUNTIF(INDEX(خروجی!D7:BA7,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D7:BA7,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -7338,7 +7352,7 @@
       </c>
       <c r="BF7" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG7" s="22">
         <f t="shared" si="25"/>
@@ -7780,11 +7794,11 @@
       </c>
       <c r="I8" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J8" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K8" s="9">
         <f>COUNTIF(INDEX(خروجی!D8:BA8,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D8:BA8,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -7976,7 +7990,7 @@
       </c>
       <c r="BF8" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG8" s="22">
         <f t="shared" si="25"/>
@@ -8418,11 +8432,11 @@
       </c>
       <c r="I9" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J9" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K9" s="9">
         <f>COUNTIF(INDEX(خروجی!D9:BA9,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D9:BA9,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -8614,7 +8628,7 @@
       </c>
       <c r="BF9" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG9" s="22">
         <f t="shared" si="25"/>
@@ -9056,11 +9070,11 @@
       </c>
       <c r="I10" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J10" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K10" s="9">
         <f>COUNTIF(INDEX(خروجی!D10:BA10,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D10:BA10,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -9252,7 +9266,7 @@
       </c>
       <c r="BF10" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG10" s="22">
         <f t="shared" si="25"/>
@@ -9694,11 +9708,11 @@
       </c>
       <c r="I11" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J11" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K11" s="9">
         <f>COUNTIF(INDEX(خروجی!D11:BA11,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D11:BA11,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -9890,7 +9904,7 @@
       </c>
       <c r="BF11" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG11" s="22">
         <f t="shared" si="25"/>
@@ -10332,11 +10346,11 @@
       </c>
       <c r="I12" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J12" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K12" s="9">
         <f>COUNTIF(INDEX(خروجی!D12:BA12,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D12:BA12,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -10528,7 +10542,7 @@
       </c>
       <c r="BF12" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG12" s="22">
         <f t="shared" si="25"/>
@@ -10970,11 +10984,11 @@
       </c>
       <c r="I13" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J13" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K13" s="9">
         <f>COUNTIF(INDEX(خروجی!D13:BA13,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D13:BA13,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -11166,7 +11180,7 @@
       </c>
       <c r="BF13" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG13" s="22">
         <f t="shared" si="25"/>
@@ -11608,11 +11622,11 @@
       </c>
       <c r="I14" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J14" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K14" s="9">
         <f>COUNTIF(INDEX(خروجی!D14:BA14,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D14:BA14,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -11804,7 +11818,7 @@
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG14" s="22">
         <f t="shared" si="25"/>
@@ -12246,11 +12260,11 @@
       </c>
       <c r="I15" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J15" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K15" s="9">
         <f>COUNTIF(INDEX(خروجی!D15:BA15,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D15:BA15,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -12442,7 +12456,7 @@
       </c>
       <c r="BF15" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG15" s="22">
         <f t="shared" si="25"/>
@@ -12884,11 +12898,11 @@
       </c>
       <c r="I16" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J16" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K16" s="9">
         <f>COUNTIF(INDEX(خروجی!D16:BA16,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D16:BA16,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -13080,7 +13094,7 @@
       </c>
       <c r="BF16" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG16" s="22">
         <f t="shared" si="25"/>
@@ -13522,11 +13536,11 @@
       </c>
       <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J17" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K17" s="9">
         <f>COUNTIF(INDEX(خروجی!D17:BA17,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D17:BA17,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -13718,7 +13732,7 @@
       </c>
       <c r="BF17" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG17" s="22">
         <f t="shared" si="25"/>
@@ -14160,11 +14174,11 @@
       </c>
       <c r="I18" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J18" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K18" s="9">
         <f>COUNTIF(INDEX(خروجی!D18:BA18,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D18:BA18,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -14356,7 +14370,7 @@
       </c>
       <c r="BF18" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG18" s="22">
         <f t="shared" si="25"/>
@@ -14798,11 +14812,11 @@
       </c>
       <c r="I19" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J19" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K19" s="9">
         <f>COUNTIF(INDEX(خروجی!D19:BA19,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D19:BA19,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -14994,7 +15008,7 @@
       </c>
       <c r="BF19" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG19" s="22">
         <f t="shared" si="25"/>
@@ -15436,11 +15450,11 @@
       </c>
       <c r="I20" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J20" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K20" s="9">
         <f>COUNTIF(INDEX(خروجی!D20:BA20,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D20:BA20,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -15632,7 +15646,7 @@
       </c>
       <c r="BF20" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG20" s="22">
         <f t="shared" si="25"/>
@@ -16074,11 +16088,11 @@
       </c>
       <c r="I21" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J21" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K21" s="9">
         <f>COUNTIF(INDEX(خروجی!D21:BA21,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D21:BA21,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -16270,7 +16284,7 @@
       </c>
       <c r="BF21" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG21" s="22">
         <f t="shared" si="25"/>
@@ -16712,11 +16726,11 @@
       </c>
       <c r="I22" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J22" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K22" s="9">
         <f>COUNTIF(INDEX(خروجی!D22:BA22,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D22:BA22,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -16908,7 +16922,7 @@
       </c>
       <c r="BF22" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG22" s="22">
         <f t="shared" si="25"/>
@@ -17350,11 +17364,11 @@
       </c>
       <c r="I23" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J23" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K23" s="9">
         <f>COUNTIF(INDEX(خروجی!D23:BA23,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D23:BA23,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -17546,7 +17560,7 @@
       </c>
       <c r="BF23" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG23" s="22">
         <f t="shared" si="25"/>
@@ -17972,27 +17986,27 @@
       </c>
       <c r="E24" s="7">
         <f>COUNTIF(INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$B$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$B$4,خروجی!$D$1:$BA$1)),-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="7">
         <f>COUNTIF(INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$B$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$B$4,خروجی!$D$1:$BA$1)),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J24" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K24" s="9">
         <f>COUNTIF(INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -18168,23 +18182,23 @@
       </c>
       <c r="BB24" s="18">
         <f t="shared" si="21"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC24" s="18">
         <f t="shared" si="21"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD24" s="22">
         <f t="shared" si="22"/>
-        <v>-4.761904761904761</v>
+        <v>-5.7142857142857135</v>
       </c>
       <c r="BE24" s="23">
         <f t="shared" si="23"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BF24" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG24" s="22">
         <f t="shared" si="25"/>
@@ -18192,7 +18206,7 @@
       </c>
       <c r="BH24" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BI24" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
@@ -18626,11 +18640,11 @@
       </c>
       <c r="I25" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J25" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K25" s="9">
         <f>COUNTIF(INDEX(خروجی!D25:BA25,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D25:BA25,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -18822,7 +18836,7 @@
       </c>
       <c r="BF25" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG25" s="22">
         <f t="shared" si="25"/>
@@ -19264,11 +19278,11 @@
       </c>
       <c r="I26" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J26" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K26" s="9">
         <f>COUNTIF(INDEX(خروجی!D26:BA26,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D26:BA26,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -19460,7 +19474,7 @@
       </c>
       <c r="BF26" s="22">
         <f t="shared" si="24"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG26" s="22">
         <f t="shared" si="25"/>
@@ -25094,7 +25108,7 @@
       </c>
       <c r="D24" s="2">
         <f>IF(ورودی!D24=کلید!B$2,3,IF(ورودی!D24="",0,-1))</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="2">
         <f>IF(ورودی!E24=کلید!C$2,3,IF(ورودی!E24="",0,-1))</f>
@@ -25823,11 +25837,11 @@
       </c>
       <c r="G5" s="8">
         <f>INDEX('کارنامه فردی'!I2:I26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="H5" s="8">
         <f>INDEX('کارنامه فردی'!J2:J26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -26060,7 +26074,7 @@
       </c>
       <c r="G12" s="27">
         <f>INDEX('کارنامه فردی'!BF2:BF26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="H12" s="27">
         <f>INDEX('کارنامه فردی'!BG2:BG26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
@@ -26171,11 +26185,11 @@
       </c>
       <c r="I2" s="6">
         <f>AVERAGE($H$2:$H$26)</f>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J2" s="6">
         <f>AVERAGEIF($A$2:$A$26,_xlfn.CONCAT("&lt;=",$D$31),$H$2:$H$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -26213,11 +26227,11 @@
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3:I25" si="2">AVERAGE($H$2:$H$26)</f>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J26" si="3">AVERAGEIF($A$2:$A$26,_xlfn.CONCAT("&lt;=",$D$31),$H$2:$H$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -26255,11 +26269,11 @@
       </c>
       <c r="I4" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -26297,11 +26311,11 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -26339,11 +26353,11 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -26381,11 +26395,11 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -26423,11 +26437,11 @@
       </c>
       <c r="I8" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -26465,11 +26479,11 @@
       </c>
       <c r="I9" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -26507,11 +26521,11 @@
       </c>
       <c r="I10" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -26549,11 +26563,11 @@
       </c>
       <c r="I11" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -26591,11 +26605,11 @@
       </c>
       <c r="I12" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -26633,11 +26647,11 @@
       </c>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -26675,11 +26689,11 @@
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -26717,11 +26731,11 @@
       </c>
       <c r="I15" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -26759,11 +26773,11 @@
       </c>
       <c r="I16" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J16" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -26801,11 +26815,11 @@
       </c>
       <c r="I17" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -26843,11 +26857,11 @@
       </c>
       <c r="I18" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -26885,11 +26899,11 @@
       </c>
       <c r="I19" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -26927,11 +26941,11 @@
       </c>
       <c r="I20" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J20" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -26969,11 +26983,11 @@
       </c>
       <c r="I21" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -27011,11 +27025,11 @@
       </c>
       <c r="I22" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J22" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -27053,17 +27067,17 @@
       </c>
       <c r="I23" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J23" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <f>ورودی!A24</f>
@@ -27083,23 +27097,23 @@
       </c>
       <c r="F24" s="5">
         <f>COUNTIF(INDEX(خروجی!D24:BA24,MATCH($D$29,خروجی!$D$1:$BA$1)):INDEX(خروجی!D24:BA24,MATCH($D$30,خروجی!$D$1:$BA$1)),-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5">
         <f>COUNTIF(INDEX(خروجی!D24:BA24,MATCH($D$29,خروجی!$D$1:$BA$1)):INDEX(خروجی!D24:BA24,MATCH($D$30,خروجی!$D$1:$BA$1)),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J24" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -27137,11 +27151,11 @@
       </c>
       <c r="I25" s="6">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -27179,11 +27193,11 @@
       </c>
       <c r="I26" s="6">
         <f>AVERAGE($H$2:$H$26)</f>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J26" s="6">
         <f t="shared" si="3"/>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -28086,8 +28100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19EB35-4242-47CC-89DF-F15C85E8058A}">
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28352,7 +28366,7 @@
         <v>71</v>
       </c>
       <c r="BG1" s="18" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
@@ -28390,11 +28404,11 @@
       </c>
       <c r="I2" s="8">
         <f>AVERAGE($G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J2" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K2" s="9">
         <f>COUNTIF(INDEX(خروجی!D2:BA2,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D2:BA2,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -28586,7 +28600,7 @@
       </c>
       <c r="BF2" s="22">
         <f>AVERAGE($BD$2:$BD$26)</f>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG2" s="22">
         <f>AVERAGEIF($BE$2:$BE$26,"&lt;=10",$BD$2:$BD$26)</f>
@@ -28628,11 +28642,11 @@
       </c>
       <c r="I3" s="8">
         <f t="shared" ref="I3:I26" si="2">AVERAGE($G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J3" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K3" s="9">
         <f>COUNTIF(INDEX(خروجی!D3:BA3,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D3:BA3,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -28824,7 +28838,7 @@
       </c>
       <c r="BF3" s="22">
         <f t="shared" ref="BF3:BF26" si="26">AVERAGE($BD$2:$BD$26)</f>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG3" s="22">
         <f t="shared" ref="BG3:BG26" si="27">AVERAGEIF($BE$2:$BE$26,"&lt;=10",$BD$2:$BD$26)</f>
@@ -28866,11 +28880,11 @@
       </c>
       <c r="I4" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J4" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K4" s="9">
         <f>COUNTIF(INDEX(خروجی!D4:BA4,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D4:BA4,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -29062,7 +29076,7 @@
       </c>
       <c r="BF4" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG4" s="22">
         <f t="shared" si="27"/>
@@ -29104,11 +29118,11 @@
       </c>
       <c r="I5" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J5" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K5" s="9">
         <f>COUNTIF(INDEX(خروجی!D5:BA5,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D5:BA5,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -29300,7 +29314,7 @@
       </c>
       <c r="BF5" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG5" s="22">
         <f t="shared" si="27"/>
@@ -29342,11 +29356,11 @@
       </c>
       <c r="I6" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J6" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K6" s="9">
         <f>COUNTIF(INDEX(خروجی!D6:BA6,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D6:BA6,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -29538,7 +29552,7 @@
       </c>
       <c r="BF6" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG6" s="22">
         <f t="shared" si="27"/>
@@ -29580,11 +29594,11 @@
       </c>
       <c r="I7" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J7" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K7" s="9">
         <f>COUNTIF(INDEX(خروجی!D7:BA7,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D7:BA7,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -29776,7 +29790,7 @@
       </c>
       <c r="BF7" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG7" s="22">
         <f t="shared" si="27"/>
@@ -29818,11 +29832,11 @@
       </c>
       <c r="I8" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J8" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K8" s="9">
         <f>COUNTIF(INDEX(خروجی!D8:BA8,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D8:BA8,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -30014,7 +30028,7 @@
       </c>
       <c r="BF8" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG8" s="22">
         <f t="shared" si="27"/>
@@ -30056,11 +30070,11 @@
       </c>
       <c r="I9" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J9" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K9" s="9">
         <f>COUNTIF(INDEX(خروجی!D9:BA9,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D9:BA9,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -30252,7 +30266,7 @@
       </c>
       <c r="BF9" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG9" s="22">
         <f t="shared" si="27"/>
@@ -30294,11 +30308,11 @@
       </c>
       <c r="I10" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J10" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K10" s="9">
         <f>COUNTIF(INDEX(خروجی!D10:BA10,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D10:BA10,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -30490,7 +30504,7 @@
       </c>
       <c r="BF10" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG10" s="22">
         <f t="shared" si="27"/>
@@ -30532,11 +30546,11 @@
       </c>
       <c r="I11" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J11" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K11" s="9">
         <f>COUNTIF(INDEX(خروجی!D11:BA11,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D11:BA11,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -30728,7 +30742,7 @@
       </c>
       <c r="BF11" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG11" s="22">
         <f t="shared" si="27"/>
@@ -30770,11 +30784,11 @@
       </c>
       <c r="I12" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J12" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K12" s="9">
         <f>COUNTIF(INDEX(خروجی!D12:BA12,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D12:BA12,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -30966,7 +30980,7 @@
       </c>
       <c r="BF12" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG12" s="22">
         <f t="shared" si="27"/>
@@ -31008,11 +31022,11 @@
       </c>
       <c r="I13" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J13" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K13" s="9">
         <f>COUNTIF(INDEX(خروجی!D13:BA13,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D13:BA13,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -31204,7 +31218,7 @@
       </c>
       <c r="BF13" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG13" s="22">
         <f t="shared" si="27"/>
@@ -31246,11 +31260,11 @@
       </c>
       <c r="I14" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J14" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K14" s="9">
         <f>COUNTIF(INDEX(خروجی!D14:BA14,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D14:BA14,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -31442,7 +31456,7 @@
       </c>
       <c r="BF14" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG14" s="22">
         <f t="shared" si="27"/>
@@ -31484,11 +31498,11 @@
       </c>
       <c r="I15" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J15" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K15" s="9">
         <f>COUNTIF(INDEX(خروجی!D15:BA15,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D15:BA15,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -31680,7 +31694,7 @@
       </c>
       <c r="BF15" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG15" s="22">
         <f t="shared" si="27"/>
@@ -31722,11 +31736,11 @@
       </c>
       <c r="I16" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J16" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K16" s="9">
         <f>COUNTIF(INDEX(خروجی!D16:BA16,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D16:BA16,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -31918,7 +31932,7 @@
       </c>
       <c r="BF16" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG16" s="22">
         <f t="shared" si="27"/>
@@ -31960,11 +31974,11 @@
       </c>
       <c r="I17" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J17" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K17" s="9">
         <f>COUNTIF(INDEX(خروجی!D17:BA17,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D17:BA17,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -32156,7 +32170,7 @@
       </c>
       <c r="BF17" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG17" s="22">
         <f t="shared" si="27"/>
@@ -32198,11 +32212,11 @@
       </c>
       <c r="I18" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J18" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K18" s="9">
         <f>COUNTIF(INDEX(خروجی!D18:BA18,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D18:BA18,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -32394,7 +32408,7 @@
       </c>
       <c r="BF18" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG18" s="22">
         <f t="shared" si="27"/>
@@ -32436,11 +32450,11 @@
       </c>
       <c r="I19" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J19" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K19" s="9">
         <f>COUNTIF(INDEX(خروجی!D19:BA19,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D19:BA19,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -32632,7 +32646,7 @@
       </c>
       <c r="BF19" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG19" s="22">
         <f t="shared" si="27"/>
@@ -32674,11 +32688,11 @@
       </c>
       <c r="I20" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J20" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K20" s="9">
         <f>COUNTIF(INDEX(خروجی!D20:BA20,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D20:BA20,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -32870,7 +32884,7 @@
       </c>
       <c r="BF20" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG20" s="22">
         <f t="shared" si="27"/>
@@ -32912,11 +32926,11 @@
       </c>
       <c r="I21" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J21" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K21" s="9">
         <f>COUNTIF(INDEX(خروجی!D21:BA21,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D21:BA21,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -33108,7 +33122,7 @@
       </c>
       <c r="BF21" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG21" s="22">
         <f t="shared" si="27"/>
@@ -33150,11 +33164,11 @@
       </c>
       <c r="I22" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J22" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K22" s="9">
         <f>COUNTIF(INDEX(خروجی!D22:BA22,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D22:BA22,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -33346,7 +33360,7 @@
       </c>
       <c r="BF22" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG22" s="22">
         <f t="shared" si="27"/>
@@ -33388,11 +33402,11 @@
       </c>
       <c r="I23" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J23" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K23" s="9">
         <f>COUNTIF(INDEX(خروجی!D23:BA23,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D23:BA23,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -33584,7 +33598,7 @@
       </c>
       <c r="BF23" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG23" s="22">
         <f t="shared" si="27"/>
@@ -33610,27 +33624,27 @@
       </c>
       <c r="E24" s="7">
         <f>COUNTIF(INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$B$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$B$4,خروجی!$D$1:$BA$1)),-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="7">
         <f>COUNTIF(INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$B$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$B$4,خروجی!$D$1:$BA$1)),0)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I24" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J24" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K24" s="9">
         <f>COUNTIF(INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D24:BA24,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -33806,23 +33820,23 @@
       </c>
       <c r="BB24" s="18">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC24" s="18">
         <f t="shared" si="23"/>
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD24" s="22">
         <f t="shared" si="24"/>
-        <v>-4.761904761904761</v>
+        <v>-5.7142857142857135</v>
       </c>
       <c r="BE24" s="23">
         <f t="shared" si="25"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BF24" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG24" s="22">
         <f t="shared" si="27"/>
@@ -33864,11 +33878,11 @@
       </c>
       <c r="I25" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J25" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K25" s="9">
         <f>COUNTIF(INDEX(خروجی!D25:BA25,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D25:BA25,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -34060,7 +34074,7 @@
       </c>
       <c r="BF25" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG25" s="22">
         <f t="shared" si="27"/>
@@ -34102,11 +34116,11 @@
       </c>
       <c r="I26" s="8">
         <f t="shared" si="2"/>
-        <v>6.9333333333333327</v>
+        <v>6.6666666666666661</v>
       </c>
       <c r="J26" s="8">
         <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
-        <v>6.9333333333333327</v>
+        <v>7.2222222222222214</v>
       </c>
       <c r="K26" s="9">
         <f>COUNTIF(INDEX(خروجی!D26:BA26,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BA$1)):INDEX(خروجی!D26:BA26,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BA$1)),3)</f>
@@ -34298,7 +34312,7 @@
       </c>
       <c r="BF26" s="22">
         <f t="shared" si="26"/>
-        <v>3.8857142857142875</v>
+        <v>3.8476190476190495</v>
       </c>
       <c r="BG26" s="22">
         <f t="shared" si="27"/>
@@ -39208,7 +39222,7 @@
       </c>
       <c r="D24" s="24">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="24">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
@@ -41044,7 +41058,7 @@
       </c>
       <c r="B24" s="7">
         <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>ورودی!B24</f>
@@ -41056,7 +41070,7 @@
       </c>
       <c r="E24" s="8">
         <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="F24" s="8">
         <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
@@ -41084,7 +41098,7 @@
       </c>
       <c r="L24" s="8">
         <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>-4.761904761904761</v>
+        <v>-5.7142857142857135</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A5F7F5-227D-47FE-92FD-8EB8D2E98AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F0E3A-0029-4EC9-A63F-B4B71E4BF1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورودی" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="186">
   <si>
     <t>a1</t>
   </si>
@@ -260,9 +260,6 @@
   </si>
   <si>
     <t>میانگین کل</t>
-  </si>
-  <si>
-    <t>برگزیده کل</t>
   </si>
   <si>
     <t>شروع سوال</t>
@@ -1265,7 +1262,7 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -3210,7 +3207,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" s="7">
         <v>1</v>
@@ -3236,7 +3233,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>59</v>
@@ -3262,7 +3259,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -3288,7 +3285,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="9">
         <v>5</v>
@@ -3314,7 +3311,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" ref="B5:H5" si="0">B4-B3+1</f>
@@ -3347,7 +3344,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="29">
         <v>10</v>
@@ -3362,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870EDC5F-CEDA-4DBA-9C4F-7BF96CA64137}">
   <dimension ref="A1:FC26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3405,7 +3402,7 @@
   <sheetData>
     <row r="1" spans="1:159" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>31</v>
@@ -3628,307 +3625,307 @@
         <v>71</v>
       </c>
       <c r="BG1" s="18" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="BH1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="BI1" s="7" t="s">
+      <c r="BJ1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="BJ1" s="7" t="s">
+      <c r="BK1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="BK1" s="7" t="s">
+      <c r="BL1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="BL1" s="7" t="s">
+      <c r="BM1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BM1" s="7" t="s">
+      <c r="BN1" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="BN1" s="7" t="s">
+      <c r="BO1" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="BO1" s="7" t="s">
+      <c r="BP1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="BP1" s="7" t="s">
+      <c r="BQ1" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="BQ1" s="7" t="s">
+      <c r="BR1" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="BR1" s="7" t="s">
+      <c r="BS1" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="BS1" s="7" t="s">
+      <c r="BT1" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="BT1" s="7" t="s">
+      <c r="BU1" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="BU1" s="7" t="s">
+      <c r="BV1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="BV1" s="7" t="s">
+      <c r="BW1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="BW1" s="7" t="s">
+      <c r="BX1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="BX1" s="7" t="s">
+      <c r="BY1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="BY1" s="7" t="s">
+      <c r="BZ1" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="BZ1" s="7" t="s">
+      <c r="CA1" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="CA1" s="7" t="s">
+      <c r="CB1" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="CB1" s="7" t="s">
+      <c r="CC1" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="CC1" s="7" t="s">
+      <c r="CD1" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CE1" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CF1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CG1" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CH1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CI1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CK1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="CO1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="CP1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="CQ1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="CR1" s="7" t="s">
+      <c r="CS1" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="CS1" s="7" t="s">
+      <c r="CT1" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="CT1" s="7" t="s">
+      <c r="CU1" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="CU1" s="7" t="s">
+      <c r="CV1" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="CW1" s="7" t="s">
+      <c r="CX1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="CX1" s="7" t="s">
+      <c r="CY1" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="CY1" s="7" t="s">
+      <c r="CZ1" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="CZ1" s="7" t="s">
+      <c r="DA1" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="DA1" s="7" t="s">
+      <c r="DB1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="DB1" s="7" t="s">
+      <c r="DC1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="DC1" s="7" t="s">
+      <c r="DD1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="DD1" s="7" t="s">
+      <c r="DE1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="DE1" s="7" t="s">
+      <c r="DF1" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="DF1" s="30" t="s">
+      <c r="DG1" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="DG1" s="30" t="s">
+      <c r="DH1" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="DH1" s="30" t="s">
+      <c r="DI1" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="DI1" s="30" t="s">
+      <c r="DJ1" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="DJ1" s="30" t="s">
+      <c r="DK1" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="DK1" s="30" t="s">
+      <c r="DL1" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="DL1" s="30" t="s">
+      <c r="DM1" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="DM1" s="30" t="s">
+      <c r="DN1" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="DN1" s="30" t="s">
+      <c r="DO1" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="DO1" s="30" t="s">
+      <c r="DP1" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="DP1" s="30" t="s">
+      <c r="DQ1" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="DQ1" s="30" t="s">
+      <c r="DR1" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="DR1" s="30" t="s">
+      <c r="DS1" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="DS1" s="30" t="s">
+      <c r="DT1" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="DT1" s="30" t="s">
+      <c r="DU1" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="DU1" s="30" t="s">
+      <c r="DV1" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="DV1" s="30" t="s">
+      <c r="DW1" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="DW1" s="30" t="s">
+      <c r="DX1" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="DX1" s="30" t="s">
+      <c r="DY1" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="DY1" s="30" t="s">
+      <c r="DZ1" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="DZ1" s="30" t="s">
+      <c r="EA1" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="EA1" s="30" t="s">
+      <c r="EB1" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="EB1" s="30" t="s">
+      <c r="EC1" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="EC1" s="30" t="s">
+      <c r="ED1" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="ED1" s="30" t="s">
+      <c r="EE1" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="EE1" s="30" t="s">
+      <c r="EF1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="EF1" s="30" t="s">
+      <c r="EG1" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="EG1" s="30" t="s">
+      <c r="EH1" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="EH1" s="30" t="s">
+      <c r="EI1" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="EI1" s="30" t="s">
+      <c r="EJ1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="EJ1" s="30" t="s">
+      <c r="EK1" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="EK1" s="30" t="s">
+      <c r="EL1" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="EL1" s="30" t="s">
+      <c r="EM1" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="EM1" s="30" t="s">
+      <c r="EN1" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="EN1" s="30" t="s">
+      <c r="EO1" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="EO1" s="30" t="s">
+      <c r="EP1" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="EP1" s="30" t="s">
+      <c r="EQ1" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="EQ1" s="30" t="s">
+      <c r="ER1" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="ER1" s="30" t="s">
+      <c r="ES1" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="ES1" s="30" t="s">
+      <c r="ET1" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="ET1" s="30" t="s">
+      <c r="EU1" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="EU1" s="30" t="s">
+      <c r="EV1" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="EV1" s="30" t="s">
+      <c r="EW1" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="EW1" s="30" t="s">
+      <c r="EX1" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="EX1" s="30" t="s">
+      <c r="EY1" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="EY1" s="30" t="s">
+      <c r="EZ1" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="EZ1" s="30" t="s">
+      <c r="FA1" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="FA1" s="30" t="s">
+      <c r="FB1" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="FB1" s="30" t="s">
+      <c r="FC1" s="30" t="s">
         <v>184</v>
-      </c>
-      <c r="FC1" s="30" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:159" x14ac:dyDescent="0.3">
@@ -20226,7 +20223,7 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -25764,7 +25761,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="24">
         <v>1001</v>
@@ -25807,7 +25804,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -26050,7 +26047,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="26">
         <f>INDEX('کارنامه فردی'!BA2:BA26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
@@ -26122,7 +26119,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -27202,7 +27199,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>59</v>
@@ -27210,7 +27207,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2">
         <f>INDEX(تنظیمات!B3:H3,MATCH(D28,تنظیمات!B2:H2,0))</f>
@@ -27219,7 +27216,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="2">
         <f>INDEX(تنظیمات!B4:H4,MATCH(D28,تنظیمات!B2:H2,0))</f>
@@ -27228,7 +27225,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2">
         <f>تنظیمات!B6</f>
@@ -27276,7 +27273,7 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="24">
         <v>1001</v>
@@ -27300,7 +27297,7 @@
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -27455,7 +27452,7 @@
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="30">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
@@ -27865,7 +27862,7 @@
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2">
         <f>INDEX(خروجی!D$2:D$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
@@ -28100,7 +28097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19EB35-4242-47CC-89DF-F15C85E8058A}">
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+    <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
@@ -28143,7 +28140,7 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>31</v>
@@ -28366,7 +28363,7 @@
         <v>71</v>
       </c>
       <c r="BG1" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
@@ -34340,7 +34337,7 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -39908,7 +39905,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>30</v>
@@ -39948,7 +39945,7 @@
         <v>شیمی</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914F0E3A-0029-4EC9-A63F-B4B71E4BF1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97820F2A-930E-4EEC-9B2A-F3E919F5F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورودی" sheetId="1" r:id="rId1"/>
@@ -3359,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870EDC5F-CEDA-4DBA-9C4F-7BF96CA64137}">
   <dimension ref="A1:FC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
@@ -28097,7 +28097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19EB35-4242-47CC-89DF-F15C85E8058A}">
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
+    <sheetView topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
@@ -39891,8 +39891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB41A8D-0B93-49FE-95E5-C3D124D28FCE}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39950,1251 +39950,1251 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <f>ورودی!A2</f>
+        <f>'کارنامه فردی'!A2</f>
         <v>1001</v>
       </c>
       <c r="B2" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>RANK(L2,$L$2:$L$26)</f>
         <v>19</v>
       </c>
       <c r="C2" s="9" t="str">
-        <f>ورودی!B2</f>
+        <f>'کارنامه فردی'!B2</f>
         <v>a1</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f>ورودی!C2</f>
+        <f>'کارنامه فردی'!C2</f>
         <v>b1</v>
       </c>
       <c r="E2" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G2</f>
         <v>20</v>
       </c>
       <c r="F2" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N2</f>
         <v>-33.333333333333329</v>
       </c>
       <c r="G2" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U2</f>
         <v>-6.666666666666667</v>
       </c>
       <c r="H2" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB2</f>
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI2</f>
         <v>0</v>
       </c>
       <c r="J2" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP2</f>
         <v>0</v>
       </c>
       <c r="K2" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW2</f>
         <v>-3.3333333333333335</v>
       </c>
       <c r="L2" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A2,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>AVERAGE(E2:K2)</f>
         <v>-3.3333333333333326</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <f>ورودی!A3</f>
+        <f>'کارنامه فردی'!A3</f>
         <v>1002</v>
       </c>
       <c r="B3" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" ref="B3:B26" si="0">RANK(L3,$L$2:$L$26)</f>
         <v>9</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f>ورودی!B3</f>
+        <f>'کارنامه فردی'!B3</f>
         <v>a2</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f>ورودی!C3</f>
+        <f>'کارنامه فردی'!C3</f>
         <v>b2</v>
       </c>
       <c r="E3" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G3</f>
         <v>20</v>
       </c>
       <c r="F3" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N3</f>
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U3</f>
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB3</f>
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI3</f>
         <v>0</v>
       </c>
       <c r="J3" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP3</f>
         <v>0</v>
       </c>
       <c r="K3" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW3</f>
         <v>10</v>
       </c>
       <c r="L3" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A3,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" ref="L3:L26" si="1">AVERAGE(E3:K3)</f>
         <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <f>ورودی!A4</f>
+        <f>'کارنامه فردی'!A4</f>
         <v>1003</v>
       </c>
       <c r="B4" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f>ورودی!B4</f>
+        <f>'کارنامه فردی'!B4</f>
         <v>a3</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f>ورودی!C4</f>
+        <f>'کارنامه فردی'!C4</f>
         <v>b3</v>
       </c>
       <c r="E4" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G4</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N4</f>
         <v>100</v>
       </c>
       <c r="G4" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U4</f>
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB4</f>
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI4</f>
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP4</f>
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW4</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A4,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>14.285714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <f>ورودی!A5</f>
+        <f>'کارنامه فردی'!A5</f>
         <v>1004</v>
       </c>
       <c r="B5" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="9" t="str">
-        <f>ورودی!B5</f>
+        <f>'کارنامه فردی'!B5</f>
         <v>a4</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f>ورودی!C5</f>
+        <f>'کارنامه فردی'!C5</f>
         <v>b4</v>
       </c>
       <c r="E5" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G5</f>
         <v>0</v>
       </c>
       <c r="F5" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N5</f>
         <v>100</v>
       </c>
       <c r="G5" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U5</f>
         <v>0</v>
       </c>
       <c r="H5" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB5</f>
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI5</f>
         <v>0</v>
       </c>
       <c r="J5" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP5</f>
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW5</f>
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A5,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>14.285714285714286</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <f>ورودی!A6</f>
+        <f>'کارنامه فردی'!A6</f>
         <v>1005</v>
       </c>
       <c r="B6" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
-        <f>ورودی!B6</f>
+        <f>'کارنامه فردی'!B6</f>
         <v>a5</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f>ورودی!C6</f>
+        <f>'کارنامه فردی'!C6</f>
         <v>b5</v>
       </c>
       <c r="E6" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G6</f>
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N6</f>
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U6</f>
         <v>-33.333333333333329</v>
       </c>
       <c r="H6" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB6</f>
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI6</f>
         <v>0</v>
       </c>
       <c r="J6" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP6</f>
         <v>0</v>
       </c>
       <c r="K6" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW6</f>
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A6,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>-4.761904761904761</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <f>ورودی!A7</f>
+        <f>'کارنامه فردی'!A7</f>
         <v>1006</v>
       </c>
       <c r="B7" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f>ورودی!B7</f>
+        <f>'کارنامه فردی'!B7</f>
         <v>a6</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f>ورودی!C7</f>
+        <f>'کارنامه فردی'!C7</f>
         <v>b6</v>
       </c>
       <c r="E7" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G7</f>
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N7</f>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U7</f>
         <v>-33.333333333333329</v>
       </c>
       <c r="H7" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB7</f>
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI7</f>
         <v>0</v>
       </c>
       <c r="J7" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP7</f>
         <v>0</v>
       </c>
       <c r="K7" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW7</f>
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A7,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>-4.761904761904761</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <f>ورودی!A8</f>
+        <f>'کارنامه فردی'!A8</f>
         <v>1007</v>
       </c>
       <c r="B8" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f>ورودی!B8</f>
+        <f>'کارنامه فردی'!B8</f>
         <v>a7</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f>ورودی!C8</f>
+        <f>'کارنامه فردی'!C8</f>
         <v>b7</v>
       </c>
       <c r="E8" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G8</f>
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N8</f>
         <v>0</v>
       </c>
       <c r="G8" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U8</f>
         <v>0</v>
       </c>
       <c r="H8" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB8</f>
         <v>100</v>
       </c>
       <c r="I8" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI8</f>
         <v>50</v>
       </c>
       <c r="J8" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP8</f>
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW8</f>
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A8,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>21.428571428571427</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <f>ورودی!A9</f>
+        <f>'کارنامه فردی'!A9</f>
         <v>1008</v>
       </c>
       <c r="B9" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f>ورودی!B9</f>
+        <f>'کارنامه فردی'!B9</f>
         <v>a8</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f>ورودی!C9</f>
+        <f>'کارنامه فردی'!C9</f>
         <v>b8</v>
       </c>
       <c r="E9" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G9</f>
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N9</f>
         <v>0</v>
       </c>
       <c r="G9" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U9</f>
         <v>0</v>
       </c>
       <c r="H9" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB9</f>
         <v>100</v>
       </c>
       <c r="I9" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI9</f>
         <v>0</v>
       </c>
       <c r="J9" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP9</f>
         <v>33.333333333333329</v>
       </c>
       <c r="K9" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW9</f>
         <v>50</v>
       </c>
       <c r="L9" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A9,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>26.190476190476186</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <f>ورودی!A10</f>
+        <f>'کارنامه فردی'!A10</f>
         <v>1009</v>
       </c>
       <c r="B10" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C10" s="9" t="str">
-        <f>ورودی!B10</f>
+        <f>'کارنامه فردی'!B10</f>
         <v>a9</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f>ورودی!C10</f>
+        <f>'کارنامه فردی'!C10</f>
         <v>b9</v>
       </c>
       <c r="E10" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G10</f>
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N10</f>
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U10</f>
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB10</f>
         <v>-33.333333333333329</v>
       </c>
       <c r="I10" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI10</f>
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP10</f>
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW10</f>
         <v>0</v>
       </c>
       <c r="L10" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A10,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>-4.761904761904761</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <f>ورودی!A11</f>
+        <f>'کارنامه فردی'!A11</f>
         <v>1010</v>
       </c>
       <c r="B11" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C11" s="9" t="str">
-        <f>ورودی!B11</f>
+        <f>'کارنامه فردی'!B11</f>
         <v>a10</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f>ورودی!C11</f>
+        <f>'کارنامه فردی'!C11</f>
         <v>b10</v>
       </c>
       <c r="E11" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G11</f>
         <v>0</v>
       </c>
       <c r="F11" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N11</f>
         <v>0</v>
       </c>
       <c r="G11" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U11</f>
         <v>0</v>
       </c>
       <c r="H11" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB11</f>
         <v>-33.333333333333329</v>
       </c>
       <c r="I11" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI11</f>
         <v>0</v>
       </c>
       <c r="J11" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP11</f>
         <v>0</v>
       </c>
       <c r="K11" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW11</f>
         <v>0</v>
       </c>
       <c r="L11" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A11,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>-4.761904761904761</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <f>ورودی!A12</f>
+        <f>'کارنامه فردی'!A12</f>
         <v>1011</v>
       </c>
       <c r="B12" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f>ورودی!B12</f>
+        <f>'کارنامه فردی'!B12</f>
         <v>a11</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f>ورودی!C12</f>
+        <f>'کارنامه فردی'!C12</f>
         <v>b11</v>
       </c>
       <c r="E12" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G12</f>
         <v>46.666666666666664</v>
       </c>
       <c r="F12" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N12</f>
         <v>0</v>
       </c>
       <c r="G12" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U12</f>
         <v>0</v>
       </c>
       <c r="H12" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB12</f>
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI12</f>
         <v>0</v>
       </c>
       <c r="J12" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP12</f>
         <v>0</v>
       </c>
       <c r="K12" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW12</f>
         <v>0</v>
       </c>
       <c r="L12" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A12,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <f>ورودی!A13</f>
+        <f>'کارنامه فردی'!A13</f>
         <v>1012</v>
       </c>
       <c r="B13" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f>ورودی!B13</f>
+        <f>'کارنامه فردی'!B13</f>
         <v>a12</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f>ورودی!C13</f>
+        <f>'کارنامه فردی'!C13</f>
         <v>b12</v>
       </c>
       <c r="E13" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G13</f>
         <v>20</v>
       </c>
       <c r="F13" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N13</f>
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U13</f>
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB13</f>
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI13</f>
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP13</f>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW13</f>
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A13,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>2.8571428571428572</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <f>ورودی!A14</f>
+        <f>'کارنامه فردی'!A14</f>
         <v>1013</v>
       </c>
       <c r="B14" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f>ورودی!B14</f>
+        <f>'کارنامه فردی'!B14</f>
         <v>a13</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f>ورودی!C14</f>
+        <f>'کارنامه فردی'!C14</f>
         <v>b13</v>
       </c>
       <c r="E14" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G14</f>
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N14</f>
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U14</f>
         <v>0</v>
       </c>
       <c r="H14" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB14</f>
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI14</f>
         <v>0</v>
       </c>
       <c r="J14" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP14</f>
         <v>0</v>
       </c>
       <c r="K14" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW14</f>
         <v>0</v>
       </c>
       <c r="L14" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A14,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <f>ورودی!A15</f>
+        <f>'کارنامه فردی'!A15</f>
         <v>1014</v>
       </c>
       <c r="B15" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="9" t="str">
-        <f>ورودی!B15</f>
+        <f>'کارنامه فردی'!B15</f>
         <v>a14</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f>ورودی!C15</f>
+        <f>'کارنامه فردی'!C15</f>
         <v>b14</v>
       </c>
       <c r="E15" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G15</f>
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N15</f>
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U15</f>
         <v>0</v>
       </c>
       <c r="H15" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB15</f>
         <v>0</v>
       </c>
       <c r="I15" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI15</f>
         <v>0</v>
       </c>
       <c r="J15" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP15</f>
         <v>0</v>
       </c>
       <c r="K15" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW15</f>
         <v>0</v>
       </c>
       <c r="L15" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A15,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <f>ورودی!A16</f>
+        <f>'کارنامه فردی'!A16</f>
         <v>1015</v>
       </c>
       <c r="B16" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C16" s="9" t="str">
-        <f>ورودی!B16</f>
+        <f>'کارنامه فردی'!B16</f>
         <v>a15</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f>ورودی!C16</f>
+        <f>'کارنامه فردی'!C16</f>
         <v>b15</v>
       </c>
       <c r="E16" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G16</f>
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N16</f>
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U16</f>
         <v>0</v>
       </c>
       <c r="H16" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB16</f>
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI16</f>
         <v>0</v>
       </c>
       <c r="J16" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP16</f>
         <v>0</v>
       </c>
       <c r="K16" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW16</f>
         <v>0</v>
       </c>
       <c r="L16" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A16,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <f>ورودی!A17</f>
+        <f>'کارنامه فردی'!A17</f>
         <v>1016</v>
       </c>
       <c r="B17" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C17" s="9" t="str">
-        <f>ورودی!B17</f>
+        <f>'کارنامه فردی'!B17</f>
         <v>a16</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f>ورودی!C17</f>
+        <f>'کارنامه فردی'!C17</f>
         <v>b16</v>
       </c>
       <c r="E17" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G17</f>
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N17</f>
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U17</f>
         <v>0</v>
       </c>
       <c r="H17" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB17</f>
         <v>0</v>
       </c>
       <c r="I17" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI17</f>
         <v>0</v>
       </c>
       <c r="J17" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP17</f>
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW17</f>
         <v>0</v>
       </c>
       <c r="L17" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A17,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <f>ورودی!A18</f>
+        <f>'کارنامه فردی'!A18</f>
         <v>1017</v>
       </c>
       <c r="B18" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>ورودی!B18</f>
+        <f>'کارنامه فردی'!B18</f>
         <v>a17</v>
       </c>
       <c r="D18" s="9" t="str">
-        <f>ورودی!C18</f>
+        <f>'کارنامه فردی'!C18</f>
         <v>b17</v>
       </c>
       <c r="E18" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G18</f>
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N18</f>
         <v>0</v>
       </c>
       <c r="G18" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U18</f>
         <v>0</v>
       </c>
       <c r="H18" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB18</f>
         <v>0</v>
       </c>
       <c r="I18" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI18</f>
         <v>0</v>
       </c>
       <c r="J18" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP18</f>
         <v>0</v>
       </c>
       <c r="K18" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW18</f>
         <v>0</v>
       </c>
       <c r="L18" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A18,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <f>ورودی!A19</f>
+        <f>'کارنامه فردی'!A19</f>
         <v>1018</v>
       </c>
       <c r="B19" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>ورودی!B19</f>
+        <f>'کارنامه فردی'!B19</f>
         <v>a18</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f>ورودی!C19</f>
+        <f>'کارنامه فردی'!C19</f>
         <v>b18</v>
       </c>
       <c r="E19" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G19</f>
         <v>0</v>
       </c>
       <c r="F19" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N19</f>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U19</f>
         <v>0</v>
       </c>
       <c r="H19" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB19</f>
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI19</f>
         <v>0</v>
       </c>
       <c r="J19" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP19</f>
         <v>0</v>
       </c>
       <c r="K19" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW19</f>
         <v>0</v>
       </c>
       <c r="L19" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A19,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <f>ورودی!A20</f>
+        <f>'کارنامه فردی'!A20</f>
         <v>1019</v>
       </c>
       <c r="B20" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>ورودی!B20</f>
+        <f>'کارنامه فردی'!B20</f>
         <v>a19</v>
       </c>
       <c r="D20" s="9" t="str">
-        <f>ورودی!C20</f>
+        <f>'کارنامه فردی'!C20</f>
         <v>b19</v>
       </c>
       <c r="E20" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G20</f>
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N20</f>
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U20</f>
         <v>0</v>
       </c>
       <c r="H20" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB20</f>
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI20</f>
         <v>0</v>
       </c>
       <c r="J20" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP20</f>
         <v>0</v>
       </c>
       <c r="K20" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW20</f>
         <v>0</v>
       </c>
       <c r="L20" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A20,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <f>ورودی!A21</f>
+        <f>'کارنامه فردی'!A21</f>
         <v>1020</v>
       </c>
       <c r="B21" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>ورودی!B21</f>
+        <f>'کارنامه فردی'!B21</f>
         <v>a20</v>
       </c>
       <c r="D21" s="9" t="str">
-        <f>ورودی!C21</f>
+        <f>'کارنامه فردی'!C21</f>
         <v>b20</v>
       </c>
       <c r="E21" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G21</f>
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N21</f>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U21</f>
         <v>100</v>
       </c>
       <c r="H21" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB21</f>
         <v>0</v>
       </c>
       <c r="I21" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI21</f>
         <v>0</v>
       </c>
       <c r="J21" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP21</f>
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW21</f>
         <v>0</v>
       </c>
       <c r="L21" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A21,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>14.285714285714286</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <f>ورودی!A22</f>
+        <f>'کارنامه فردی'!A22</f>
         <v>1021</v>
       </c>
       <c r="B22" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>ورودی!B22</f>
+        <f>'کارنامه فردی'!B22</f>
         <v>a21</v>
       </c>
       <c r="D22" s="9" t="str">
-        <f>ورودی!C22</f>
+        <f>'کارنامه فردی'!C22</f>
         <v>b21</v>
       </c>
       <c r="E22" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G22</f>
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N22</f>
         <v>0</v>
       </c>
       <c r="G22" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U22</f>
         <v>100</v>
       </c>
       <c r="H22" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB22</f>
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI22</f>
         <v>0</v>
       </c>
       <c r="J22" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP22</f>
         <v>0</v>
       </c>
       <c r="K22" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW22</f>
         <v>0</v>
       </c>
       <c r="L22" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A22,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>14.285714285714286</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <f>ورودی!A23</f>
+        <f>'کارنامه فردی'!A23</f>
         <v>1022</v>
       </c>
       <c r="B23" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>ورودی!B23</f>
+        <f>'کارنامه فردی'!B23</f>
         <v>a22</v>
       </c>
       <c r="D23" s="9" t="str">
-        <f>ورودی!C23</f>
+        <f>'کارنامه فردی'!C23</f>
         <v>b22</v>
       </c>
       <c r="E23" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G23</f>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N23</f>
         <v>-33.333333333333329</v>
       </c>
       <c r="G23" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U23</f>
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB23</f>
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI23</f>
         <v>0</v>
       </c>
       <c r="J23" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP23</f>
         <v>0</v>
       </c>
       <c r="K23" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW23</f>
         <v>0</v>
       </c>
       <c r="L23" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A23,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>-4.761904761904761</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <f>ورودی!A24</f>
+        <f>'کارنامه فردی'!A24</f>
         <v>1023</v>
       </c>
       <c r="B24" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>ورودی!B24</f>
+        <f>'کارنامه فردی'!B24</f>
         <v>a23</v>
       </c>
       <c r="D24" s="9" t="str">
-        <f>ورودی!C24</f>
+        <f>'کارنامه فردی'!C24</f>
         <v>b23</v>
       </c>
       <c r="E24" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G24</f>
         <v>-6.666666666666667</v>
       </c>
       <c r="F24" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N24</f>
         <v>-33.333333333333329</v>
       </c>
       <c r="G24" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U24</f>
         <v>0</v>
       </c>
       <c r="H24" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB24</f>
         <v>0</v>
       </c>
       <c r="I24" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI24</f>
         <v>0</v>
       </c>
       <c r="J24" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP24</f>
         <v>0</v>
       </c>
       <c r="K24" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW24</f>
         <v>0</v>
       </c>
       <c r="L24" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A24,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>-5.7142857142857135</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <f>ورودی!A25</f>
+        <f>'کارنامه فردی'!A25</f>
         <v>1024</v>
       </c>
       <c r="B25" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>ورودی!B25</f>
+        <f>'کارنامه فردی'!B25</f>
         <v>a24</v>
       </c>
       <c r="D25" s="9" t="str">
-        <f>ورودی!C25</f>
+        <f>'کارنامه فردی'!C25</f>
         <v>b24</v>
       </c>
       <c r="E25" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G25</f>
         <v>20</v>
       </c>
       <c r="F25" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N25</f>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U25</f>
         <v>0</v>
       </c>
       <c r="H25" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB25</f>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI25</f>
         <v>0</v>
       </c>
       <c r="J25" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP25</f>
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW25</f>
         <v>10</v>
       </c>
       <c r="L25" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A25,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <f>ورودی!A26</f>
+        <f>'کارنامه فردی'!A26</f>
         <v>1025</v>
       </c>
       <c r="B26" s="7">
-        <f>INDEX('کارنامه فردی'!$BE$2:$BE$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C26" s="9" t="str">
-        <f>ورودی!B26</f>
+        <f>'کارنامه فردی'!B26</f>
         <v>a25</v>
       </c>
       <c r="D26" s="9" t="str">
-        <f>ورودی!C26</f>
+        <f>'کارنامه فردی'!C26</f>
         <v>b25</v>
       </c>
       <c r="E26" s="8">
-        <f>INDEX('کارنامه فردی'!$G$2:$G$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!G26</f>
         <v>46.666666666666664</v>
       </c>
       <c r="F26" s="8">
-        <f>INDEX('کارنامه فردی'!$N$2:$N$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!N26</f>
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <f>INDEX('کارنامه فردی'!$U$2:$U$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!U26</f>
         <v>0</v>
       </c>
       <c r="H26" s="8">
-        <f>INDEX('کارنامه فردی'!$AB$2:$AB$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AB26</f>
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <f>INDEX('کارنامه فردی'!$AI$2:$AI$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AI26</f>
         <v>0</v>
       </c>
       <c r="J26" s="8">
-        <f>INDEX('کارنامه فردی'!$AP$2:$AP$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AP26</f>
         <v>0</v>
       </c>
       <c r="K26" s="8">
-        <f>INDEX('کارنامه فردی'!$AW$2:$AW$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f>'کارنامه فردی'!AW26</f>
         <v>-3.3333333333333335</v>
       </c>
       <c r="L26" s="8">
-        <f>INDEX('کارنامه فردی'!$BD$2:$BD$26,MATCH('کارنامه کل'!$A26,'کارنامه فردی'!$A$2:$A$26,0))</f>
+        <f t="shared" si="1"/>
         <v>6.1904761904761898</v>
       </c>
     </row>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97820F2A-930E-4EEC-9B2A-F3E919F5F40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58596EF-ACF1-40B9-A506-BF008AB792DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,6 +879,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -28097,7 +28100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19EB35-4242-47CC-89DF-F15C85E8058A}">
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
+    <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
@@ -39892,7 +39895,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39953,8 +39956,8 @@
         <f>'کارنامه فردی'!A2</f>
         <v>1001</v>
       </c>
-      <c r="B2" s="7">
-        <f>RANK(L2,$L$2:$L$26)</f>
+      <c r="B2" s="31">
+        <f>'کارنامه فردی'!BE2</f>
         <v>19</v>
       </c>
       <c r="C2" s="9" t="str">
@@ -39994,7 +39997,7 @@
         <v>-3.3333333333333335</v>
       </c>
       <c r="L2" s="8">
-        <f>AVERAGE(E2:K2)</f>
+        <f>'کارنامه فردی'!BD2</f>
         <v>-3.3333333333333326</v>
       </c>
     </row>
@@ -40003,8 +40006,8 @@
         <f>'کارنامه فردی'!A3</f>
         <v>1002</v>
       </c>
-      <c r="B3" s="7">
-        <f t="shared" ref="B3:B26" si="0">RANK(L3,$L$2:$L$26)</f>
+      <c r="B3" s="31">
+        <f>'کارنامه فردی'!BE3</f>
         <v>9</v>
       </c>
       <c r="C3" s="9" t="str">
@@ -40044,7 +40047,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="8">
-        <f t="shared" ref="L3:L26" si="1">AVERAGE(E3:K3)</f>
+        <f>'کارنامه فردی'!BD3</f>
         <v>4.2857142857142856</v>
       </c>
     </row>
@@ -40053,8 +40056,8 @@
         <f>'کارنامه فردی'!A4</f>
         <v>1003</v>
       </c>
-      <c r="B4" s="7">
-        <f t="shared" si="0"/>
+      <c r="B4" s="31">
+        <f>'کارنامه فردی'!BE4</f>
         <v>3</v>
       </c>
       <c r="C4" s="9" t="str">
@@ -40094,7 +40097,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD4</f>
         <v>14.285714285714286</v>
       </c>
     </row>
@@ -40103,8 +40106,8 @@
         <f>'کارنامه فردی'!A5</f>
         <v>1004</v>
       </c>
-      <c r="B5" s="7">
-        <f t="shared" si="0"/>
+      <c r="B5" s="31">
+        <f>'کارنامه فردی'!BE5</f>
         <v>3</v>
       </c>
       <c r="C5" s="9" t="str">
@@ -40144,7 +40147,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD5</f>
         <v>14.285714285714286</v>
       </c>
     </row>
@@ -40153,8 +40156,8 @@
         <f>'کارنامه فردی'!A6</f>
         <v>1005</v>
       </c>
-      <c r="B6" s="7">
-        <f t="shared" si="0"/>
+      <c r="B6" s="31">
+        <f>'کارنامه فردی'!BE6</f>
         <v>20</v>
       </c>
       <c r="C6" s="9" t="str">
@@ -40194,7 +40197,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD6</f>
         <v>-4.761904761904761</v>
       </c>
     </row>
@@ -40203,8 +40206,8 @@
         <f>'کارنامه فردی'!A7</f>
         <v>1006</v>
       </c>
-      <c r="B7" s="7">
-        <f t="shared" si="0"/>
+      <c r="B7" s="31">
+        <f>'کارنامه فردی'!BE7</f>
         <v>20</v>
       </c>
       <c r="C7" s="9" t="str">
@@ -40244,7 +40247,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD7</f>
         <v>-4.761904761904761</v>
       </c>
     </row>
@@ -40253,8 +40256,8 @@
         <f>'کارنامه فردی'!A8</f>
         <v>1007</v>
       </c>
-      <c r="B8" s="7">
-        <f t="shared" si="0"/>
+      <c r="B8" s="31">
+        <f>'کارنامه فردی'!BE8</f>
         <v>2</v>
       </c>
       <c r="C8" s="9" t="str">
@@ -40294,7 +40297,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD8</f>
         <v>21.428571428571427</v>
       </c>
     </row>
@@ -40303,8 +40306,8 @@
         <f>'کارنامه فردی'!A9</f>
         <v>1008</v>
       </c>
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
+      <c r="B9" s="31">
+        <f>'کارنامه فردی'!BE9</f>
         <v>1</v>
       </c>
       <c r="C9" s="9" t="str">
@@ -40344,7 +40347,7 @@
         <v>50</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD9</f>
         <v>26.190476190476186</v>
       </c>
     </row>
@@ -40353,8 +40356,8 @@
         <f>'کارنامه فردی'!A10</f>
         <v>1009</v>
       </c>
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
+      <c r="B10" s="31">
+        <f>'کارنامه فردی'!BE10</f>
         <v>20</v>
       </c>
       <c r="C10" s="9" t="str">
@@ -40394,7 +40397,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD10</f>
         <v>-4.761904761904761</v>
       </c>
     </row>
@@ -40403,8 +40406,8 @@
         <f>'کارنامه فردی'!A11</f>
         <v>1010</v>
       </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
+      <c r="B11" s="31">
+        <f>'کارنامه فردی'!BE11</f>
         <v>20</v>
       </c>
       <c r="C11" s="9" t="str">
@@ -40444,7 +40447,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD11</f>
         <v>-4.761904761904761</v>
       </c>
     </row>
@@ -40453,8 +40456,8 @@
         <f>'کارنامه فردی'!A12</f>
         <v>1011</v>
       </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
+      <c r="B12" s="31">
+        <f>'کارنامه فردی'!BE12</f>
         <v>7</v>
       </c>
       <c r="C12" s="9" t="str">
@@ -40494,7 +40497,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD12</f>
         <v>6.6666666666666661</v>
       </c>
     </row>
@@ -40503,8 +40506,8 @@
         <f>'کارنامه فردی'!A13</f>
         <v>1012</v>
       </c>
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
+      <c r="B13" s="31">
+        <f>'کارنامه فردی'!BE13</f>
         <v>11</v>
       </c>
       <c r="C13" s="9" t="str">
@@ -40544,7 +40547,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD13</f>
         <v>2.8571428571428572</v>
       </c>
     </row>
@@ -40553,8 +40556,8 @@
         <f>'کارنامه فردی'!A14</f>
         <v>1013</v>
       </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
+      <c r="B14" s="31">
+        <f>'کارنامه فردی'!BE14</f>
         <v>12</v>
       </c>
       <c r="C14" s="9" t="str">
@@ -40594,7 +40597,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD14</f>
         <v>0</v>
       </c>
     </row>
@@ -40603,8 +40606,8 @@
         <f>'کارنامه فردی'!A15</f>
         <v>1014</v>
       </c>
-      <c r="B15" s="7">
-        <f t="shared" si="0"/>
+      <c r="B15" s="31">
+        <f>'کارنامه فردی'!BE15</f>
         <v>12</v>
       </c>
       <c r="C15" s="9" t="str">
@@ -40644,7 +40647,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD15</f>
         <v>0</v>
       </c>
     </row>
@@ -40653,8 +40656,8 @@
         <f>'کارنامه فردی'!A16</f>
         <v>1015</v>
       </c>
-      <c r="B16" s="7">
-        <f t="shared" si="0"/>
+      <c r="B16" s="31">
+        <f>'کارنامه فردی'!BE16</f>
         <v>12</v>
       </c>
       <c r="C16" s="9" t="str">
@@ -40694,7 +40697,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD16</f>
         <v>0</v>
       </c>
     </row>
@@ -40703,8 +40706,8 @@
         <f>'کارنامه فردی'!A17</f>
         <v>1016</v>
       </c>
-      <c r="B17" s="7">
-        <f t="shared" si="0"/>
+      <c r="B17" s="31">
+        <f>'کارنامه فردی'!BE17</f>
         <v>12</v>
       </c>
       <c r="C17" s="9" t="str">
@@ -40744,7 +40747,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD17</f>
         <v>0</v>
       </c>
     </row>
@@ -40753,8 +40756,8 @@
         <f>'کارنامه فردی'!A18</f>
         <v>1017</v>
       </c>
-      <c r="B18" s="7">
-        <f t="shared" si="0"/>
+      <c r="B18" s="31">
+        <f>'کارنامه فردی'!BE18</f>
         <v>12</v>
       </c>
       <c r="C18" s="9" t="str">
@@ -40794,7 +40797,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD18</f>
         <v>0</v>
       </c>
     </row>
@@ -40803,8 +40806,8 @@
         <f>'کارنامه فردی'!A19</f>
         <v>1018</v>
       </c>
-      <c r="B19" s="7">
-        <f t="shared" si="0"/>
+      <c r="B19" s="31">
+        <f>'کارنامه فردی'!BE19</f>
         <v>12</v>
       </c>
       <c r="C19" s="9" t="str">
@@ -40844,7 +40847,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD19</f>
         <v>0</v>
       </c>
     </row>
@@ -40853,8 +40856,8 @@
         <f>'کارنامه فردی'!A20</f>
         <v>1019</v>
       </c>
-      <c r="B20" s="7">
-        <f t="shared" si="0"/>
+      <c r="B20" s="31">
+        <f>'کارنامه فردی'!BE20</f>
         <v>12</v>
       </c>
       <c r="C20" s="9" t="str">
@@ -40894,7 +40897,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD20</f>
         <v>0</v>
       </c>
     </row>
@@ -40903,8 +40906,8 @@
         <f>'کارنامه فردی'!A21</f>
         <v>1020</v>
       </c>
-      <c r="B21" s="7">
-        <f t="shared" si="0"/>
+      <c r="B21" s="31">
+        <f>'کارنامه فردی'!BE21</f>
         <v>3</v>
       </c>
       <c r="C21" s="9" t="str">
@@ -40944,7 +40947,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD21</f>
         <v>14.285714285714286</v>
       </c>
     </row>
@@ -40953,8 +40956,8 @@
         <f>'کارنامه فردی'!A22</f>
         <v>1021</v>
       </c>
-      <c r="B22" s="7">
-        <f t="shared" si="0"/>
+      <c r="B22" s="31">
+        <f>'کارنامه فردی'!BE22</f>
         <v>3</v>
       </c>
       <c r="C22" s="9" t="str">
@@ -40994,7 +40997,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD22</f>
         <v>14.285714285714286</v>
       </c>
     </row>
@@ -41003,8 +41006,8 @@
         <f>'کارنامه فردی'!A23</f>
         <v>1022</v>
       </c>
-      <c r="B23" s="7">
-        <f t="shared" si="0"/>
+      <c r="B23" s="31">
+        <f>'کارنامه فردی'!BE23</f>
         <v>20</v>
       </c>
       <c r="C23" s="9" t="str">
@@ -41044,7 +41047,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD23</f>
         <v>-4.761904761904761</v>
       </c>
     </row>
@@ -41053,8 +41056,8 @@
         <f>'کارنامه فردی'!A24</f>
         <v>1023</v>
       </c>
-      <c r="B24" s="7">
-        <f t="shared" si="0"/>
+      <c r="B24" s="31">
+        <f>'کارنامه فردی'!BE24</f>
         <v>25</v>
       </c>
       <c r="C24" s="9" t="str">
@@ -41094,7 +41097,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD24</f>
         <v>-5.7142857142857135</v>
       </c>
     </row>
@@ -41103,8 +41106,8 @@
         <f>'کارنامه فردی'!A25</f>
         <v>1024</v>
       </c>
-      <c r="B25" s="7">
-        <f t="shared" si="0"/>
+      <c r="B25" s="31">
+        <f>'کارنامه فردی'!BE25</f>
         <v>9</v>
       </c>
       <c r="C25" s="9" t="str">
@@ -41144,7 +41147,7 @@
         <v>10</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD25</f>
         <v>4.2857142857142856</v>
       </c>
     </row>
@@ -41153,8 +41156,8 @@
         <f>'کارنامه فردی'!A26</f>
         <v>1025</v>
       </c>
-      <c r="B26" s="7">
-        <f t="shared" si="0"/>
+      <c r="B26" s="31">
+        <f>'کارنامه فردی'!BE26</f>
         <v>8</v>
       </c>
       <c r="C26" s="9" t="str">
@@ -41194,7 +41197,7 @@
         <v>-3.3333333333333335</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="1"/>
+        <f>'کارنامه فردی'!BD26</f>
         <v>6.1904761904761898</v>
       </c>
     </row>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58596EF-ACF1-40B9-A506-BF008AB792DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3C7126-A517-4CD4-8419-17CEC96766E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورودی" sheetId="1" r:id="rId1"/>
@@ -34329,8 +34329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79788A46-0F56-43BF-AE3C-BD5CD37EF9BD}">
   <dimension ref="A1:BA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34513,203 +34513,203 @@
         <v>b1</v>
       </c>
       <c r="D2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="E2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="F2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>3</v>
       </c>
       <c r="G2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>4</v>
       </c>
       <c r="H2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="I2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="J2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="K2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="L2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="M2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="N2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="O2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA2" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A2)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A2,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
     </row>
@@ -34727,203 +34727,203 @@
         <v>b2</v>
       </c>
       <c r="D3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="E3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="F3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="G3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="H3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="I3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA3" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A3)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A3,ورودی!$A$2:$A$26,0)),0)</f>
         <v>4</v>
       </c>
     </row>
@@ -34941,203 +34941,203 @@
         <v>b3</v>
       </c>
       <c r="D4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="J4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="K4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="L4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="M4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="N4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA4" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A4)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A4,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -35155,203 +35155,203 @@
         <v>b4</v>
       </c>
       <c r="D5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="J5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="K5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="L5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="M5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="N5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA5" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A5)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A5,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -35369,203 +35369,203 @@
         <v>b5</v>
       </c>
       <c r="D6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="O6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="P6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="Q6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="R6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="S6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA6" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A6)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A6,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -35583,203 +35583,203 @@
         <v>b6</v>
       </c>
       <c r="D7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="O7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="P7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="Q7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="R7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="S7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA7" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A7)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A7,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -35797,203 +35797,203 @@
         <v>b7</v>
       </c>
       <c r="D8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="T8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="U8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="V8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="X8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="Y8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="Z8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AA8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AB8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AC8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA8" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A8)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A8,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -36011,203 +36011,203 @@
         <v>b8</v>
       </c>
       <c r="D9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="T9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="U9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="V9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="W9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="X9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AI9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AJ9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AK9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AL9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="AM9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AN9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AO9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AP9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AQ9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AR9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AS9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AT9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AU9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AV9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="AW9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA9" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A9)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A9,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -36225,203 +36225,203 @@
         <v>b9</v>
       </c>
       <c r="D10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="T10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="U10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="V10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="X10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA10" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A10)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A10,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -36439,203 +36439,203 @@
         <v>b10</v>
       </c>
       <c r="D11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="T11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="U11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="V11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="W11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="X11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA11" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A11)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A11,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -36653,203 +36653,203 @@
         <v>b11</v>
       </c>
       <c r="D12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="E12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="F12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="G12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="H12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="I12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA12" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A12)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A12,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -36867,203 +36867,203 @@
         <v>b12</v>
       </c>
       <c r="D13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="E13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="F13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="G13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="H13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="I13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA13" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A13)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A13,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -37081,203 +37081,203 @@
         <v>b13</v>
       </c>
       <c r="D14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA14" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A14)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A14,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -37295,203 +37295,203 @@
         <v>b14</v>
       </c>
       <c r="D15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA15" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A15)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A15,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -37509,203 +37509,203 @@
         <v>b15</v>
       </c>
       <c r="D16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA16" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A16)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A16,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -37723,203 +37723,203 @@
         <v>b16</v>
       </c>
       <c r="D17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA17" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A17)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A17,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -37937,203 +37937,203 @@
         <v>b17</v>
       </c>
       <c r="D18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA18" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A18)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A18,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -38151,203 +38151,203 @@
         <v>b18</v>
       </c>
       <c r="D19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA19" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A19)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A19,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -38365,203 +38365,203 @@
         <v>b19</v>
       </c>
       <c r="D20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA20" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A20)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A20,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -38579,203 +38579,203 @@
         <v>b20</v>
       </c>
       <c r="D21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="O21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="P21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="Q21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="R21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="S21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA21" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A21)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A21,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -38793,203 +38793,203 @@
         <v>b21</v>
       </c>
       <c r="D22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="O22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="P22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="Q22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="R22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="S22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA22" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A22)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A22,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -39007,203 +39007,203 @@
         <v>b22</v>
       </c>
       <c r="D23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="E23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="J23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="K23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="L23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="M23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="N23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA23" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A23)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A23,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -39221,203 +39221,203 @@
         <v>b23</v>
       </c>
       <c r="D24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>3</v>
       </c>
       <c r="E24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="F24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="G24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="I24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="J24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="K24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="L24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="M24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="N24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA24" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A24)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A24,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -39435,203 +39435,203 @@
         <v>b24</v>
       </c>
       <c r="D25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="E25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="F25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="G25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="H25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>2</v>
       </c>
       <c r="I25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA25" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A25)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A25,ورودی!$A$2:$A$26,0)),0)</f>
         <v>4</v>
       </c>
     </row>
@@ -39649,203 +39649,203 @@
         <v>b25</v>
       </c>
       <c r="D26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!D$2:D$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="E26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!E$2:E$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="F26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!F$2:F$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="G26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!G$2:G$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="H26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!H$2:H$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
       <c r="I26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!I$2:I$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="J26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!J$2:J$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="K26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!K$2:K$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="L26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!L$2:L$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="M26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!M$2:M$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="N26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!N$2:N$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="O26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!O$2:O$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="P26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!P$2:P$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="R26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!R$2:R$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="S26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!S$2:S$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="T26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!T$2:T$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="U26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!U$2:U$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="V26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!V$2:V$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="W26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!W$2:W$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="X26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!X$2:X$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Y26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="Z26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AA26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AB26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AC26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AD26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AE26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AG26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AH26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AI26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AJ26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AK26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AL26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AM26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AN26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AO26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AP26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AR26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AS26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AT26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AU26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AV26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AW26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AX26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AY26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="AZ26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>0</v>
       </c>
       <c r="BA26" s="24">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,ورودی!$A26)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH(ورودی!$A26,ورودی!$A$2:$A$26,0)),0)</f>
         <v>1</v>
       </c>
     </row>
@@ -39894,7 +39894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB41A8D-0B93-49FE-95E5-C3D124D28FCE}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47ED3CFD-8077-4000-AE4D-1617B3C1F457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B17957-7CD8-4B0D-9343-8BC25591202E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="208">
   <si>
     <t>a1</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>کلید 60</t>
+  </si>
+  <si>
+    <t>ضریب</t>
   </si>
 </sst>
 </file>
@@ -3589,7 +3592,7 @@
   <dimension ref="A1:GD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="FX11" sqref="FX11"/>
+      <selection activeCell="BK27" sqref="BK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4283,7 +4286,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J2" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K2" s="9">
@@ -4311,7 +4314,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q2" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R2" s="11">
@@ -4339,7 +4342,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X2" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y2" s="13">
@@ -4367,7 +4370,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE2" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF2" s="15">
@@ -4395,7 +4398,7 @@
         <v>2</v>
       </c>
       <c r="AL2" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM2" s="32">
@@ -4423,7 +4426,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS2" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT2" s="16">
@@ -4451,7 +4454,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ2" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA2" s="17">
@@ -4479,7 +4482,7 @@
         <v>4</v>
       </c>
       <c r="BG2" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH2" s="18">
@@ -4495,20 +4498,20 @@
         <v>28</v>
       </c>
       <c r="BK2" s="22">
-        <f>AVERAGE(BD2,AW2,AI2,AB2,U2,N2,G2)</f>
-        <v>10.952380952380953</v>
+        <f>SUM(G2*تنظیمات!$B$6,N2*تنظیمات!$C$6,U2*تنظیمات!$D$6,AB2*تنظیمات!E6,AI2*تنظیمات!$F$6,AP2*تنظیمات!$G$6,AW2*تنظیمات!$H$6,BD2*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>13.75</v>
       </c>
       <c r="BL2" s="23">
         <f>RANK(BK2,$BK$2:$BK$26)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BM2" s="22">
         <f>AVERAGE($BK$2:$BK$26)</f>
-        <v>4.2285714285714304</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="BN2" s="22">
         <f>AVERAGEIF($BL$2:$BL$26,"&lt;=10",$BK$2:$BK$26)</f>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO2" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A2)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A2,ورودی!$A$2:$A$26,0)),0)</f>
@@ -5029,7 +5032,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J3" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K3" s="9">
@@ -5057,7 +5060,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q3" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R3" s="11">
@@ -5085,7 +5088,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X3" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y3" s="13">
@@ -5113,7 +5116,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE3" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF3" s="15">
@@ -5141,7 +5144,7 @@
         <v>2</v>
       </c>
       <c r="AL3" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM3" s="32">
@@ -5169,7 +5172,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS3" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT3" s="16">
@@ -5197,7 +5200,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ3" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA3" s="17">
@@ -5225,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="BG3" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH3" s="18">
@@ -5241,20 +5244,20 @@
         <v>44</v>
       </c>
       <c r="BK3" s="22">
-        <f t="shared" ref="BK3:BK26" si="25">AVERAGE(BD3,AW3,AI3,AB3,U3,N3,G3)</f>
-        <v>4.2857142857142856</v>
+        <f>SUM(G3*تنظیمات!$B$6,N3*تنظیمات!$C$6,U3*تنظیمات!$D$6,AB3*تنظیمات!E7,AI3*تنظیمات!$F$6,AP3*تنظیمات!$G$6,AW3*تنظیمات!$H$6,BD3*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>3.75</v>
       </c>
       <c r="BL3" s="23">
-        <f t="shared" ref="BL3:BL26" si="26">RANK(BK3,$BK$2:$BK$26)</f>
+        <f t="shared" ref="BL3:BL26" si="25">RANK(BK3,$BK$2:$BK$26)</f>
         <v>10</v>
       </c>
       <c r="BM3" s="22">
-        <f t="shared" ref="BM3:BM26" si="27">AVERAGE($BK$2:$BK$26)</f>
-        <v>4.2285714285714304</v>
+        <f t="shared" ref="BM3:BM26" si="26">AVERAGE($BK$2:$BK$26)</f>
+        <v>3.3666666666666667</v>
       </c>
       <c r="BN3" s="22">
-        <f t="shared" ref="BN3:BN26" si="28">AVERAGEIF($BL$2:$BL$26,"&lt;=10",$BK$2:$BK$26)</f>
-        <v>12.034632034632038</v>
+        <f t="shared" ref="BN3:BN26" si="27">AVERAGEIF($BL$2:$BL$26,"&lt;=10",$BK$2:$BK$26)</f>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO3" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A3)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A3,ورودی!$A$2:$A$26,0)),0)</f>
@@ -5775,7 +5778,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J4" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K4" s="9">
@@ -5803,7 +5806,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q4" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R4" s="11">
@@ -5831,7 +5834,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X4" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y4" s="13">
@@ -5859,7 +5862,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE4" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF4" s="15">
@@ -5887,7 +5890,7 @@
         <v>2</v>
       </c>
       <c r="AL4" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM4" s="32">
@@ -5915,7 +5918,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS4" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT4" s="16">
@@ -5943,7 +5946,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ4" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA4" s="17">
@@ -5971,7 +5974,7 @@
         <v>4</v>
       </c>
       <c r="BG4" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH4" s="18">
@@ -5987,20 +5990,20 @@
         <v>45</v>
       </c>
       <c r="BK4" s="22">
+        <f>SUM(G4*تنظیمات!$B$6,N4*تنظیمات!$C$6,U4*تنظیمات!$D$6,AB4*تنظیمات!E8,AI4*تنظیمات!$F$6,AP4*تنظیمات!$G$6,AW4*تنظیمات!$H$6,BD4*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>12.5</v>
+      </c>
+      <c r="BL4" s="23">
         <f t="shared" si="25"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="BL4" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="22">
         <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="BM4" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN4" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN4" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO4" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A4)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A4,ورودی!$A$2:$A$26,0)),0)</f>
@@ -6521,7 +6524,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J5" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K5" s="9">
@@ -6549,7 +6552,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q5" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R5" s="11">
@@ -6577,7 +6580,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X5" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y5" s="13">
@@ -6605,7 +6608,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE5" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF5" s="15">
@@ -6633,7 +6636,7 @@
         <v>2</v>
       </c>
       <c r="AL5" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM5" s="32">
@@ -6661,7 +6664,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS5" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT5" s="16">
@@ -6689,7 +6692,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ5" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA5" s="17">
@@ -6717,7 +6720,7 @@
         <v>4</v>
       </c>
       <c r="BG5" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH5" s="18">
@@ -6733,20 +6736,20 @@
         <v>45</v>
       </c>
       <c r="BK5" s="22">
+        <f>SUM(G5*تنظیمات!$B$6,N5*تنظیمات!$C$6,U5*تنظیمات!$D$6,AB5*تنظیمات!E9,AI5*تنظیمات!$F$6,AP5*تنظیمات!$G$6,AW5*تنظیمات!$H$6,BD5*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>12.5</v>
+      </c>
+      <c r="BL5" s="23">
         <f t="shared" si="25"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="BL5" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="22">
         <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="BM5" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN5" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN5" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO5" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A5)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A5,ورودی!$A$2:$A$26,0)),0)</f>
@@ -7267,7 +7270,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J6" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K6" s="9">
@@ -7295,7 +7298,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q6" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R6" s="11">
@@ -7323,7 +7326,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X6" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y6" s="13">
@@ -7351,7 +7354,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE6" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF6" s="15">
@@ -7379,7 +7382,7 @@
         <v>2</v>
       </c>
       <c r="AL6" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM6" s="32">
@@ -7407,7 +7410,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS6" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT6" s="16">
@@ -7435,7 +7438,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ6" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA6" s="17">
@@ -7463,7 +7466,7 @@
         <v>4</v>
       </c>
       <c r="BG6" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH6" s="18">
@@ -7479,20 +7482,20 @@
         <v>45</v>
       </c>
       <c r="BK6" s="22">
+        <f>SUM(G6*تنظیمات!$B$6,N6*تنظیمات!$C$6,U6*تنظیمات!$D$6,AB6*تنظیمات!E10,AI6*تنظیمات!$F$6,AP6*تنظیمات!$G$6,AW6*تنظیمات!$H$6,BD6*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>-4.1666666666666661</v>
+      </c>
+      <c r="BL6" s="23">
         <f t="shared" si="25"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL6" s="23">
+        <v>22</v>
+      </c>
+      <c r="BM6" s="22">
         <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="BM6" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN6" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN6" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO6" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A6)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A6,ورودی!$A$2:$A$26,0)),0)</f>
@@ -8013,7 +8016,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J7" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K7" s="9">
@@ -8041,7 +8044,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q7" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R7" s="11">
@@ -8069,7 +8072,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X7" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y7" s="13">
@@ -8097,7 +8100,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE7" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF7" s="15">
@@ -8125,7 +8128,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM7" s="32">
@@ -8153,7 +8156,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS7" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT7" s="16">
@@ -8181,7 +8184,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ7" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA7" s="17">
@@ -8209,7 +8212,7 @@
         <v>4</v>
       </c>
       <c r="BG7" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH7" s="18">
@@ -8225,20 +8228,20 @@
         <v>45</v>
       </c>
       <c r="BK7" s="22">
+        <f>SUM(G7*تنظیمات!$B$6,N7*تنظیمات!$C$6,U7*تنظیمات!$D$6,AB7*تنظیمات!E11,AI7*تنظیمات!$F$6,AP7*تنظیمات!$G$6,AW7*تنظیمات!$H$6,BD7*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>-4.1666666666666661</v>
+      </c>
+      <c r="BL7" s="23">
         <f t="shared" si="25"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL7" s="23">
+        <v>22</v>
+      </c>
+      <c r="BM7" s="22">
         <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="BM7" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN7" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN7" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO7" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A7)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A7,ورودی!$A$2:$A$26,0)),0)</f>
@@ -8759,7 +8762,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J8" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K8" s="9">
@@ -8787,7 +8790,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q8" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R8" s="11">
@@ -8815,7 +8818,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X8" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y8" s="13">
@@ -8843,7 +8846,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE8" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF8" s="15">
@@ -8871,7 +8874,7 @@
         <v>2</v>
       </c>
       <c r="AL8" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM8" s="32">
@@ -8899,7 +8902,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS8" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT8" s="16">
@@ -8927,7 +8930,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ8" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA8" s="17">
@@ -8955,7 +8958,7 @@
         <v>4</v>
       </c>
       <c r="BG8" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH8" s="18">
@@ -8971,20 +8974,20 @@
         <v>40</v>
       </c>
       <c r="BK8" s="22">
+        <f>SUM(G8*تنظیمات!$B$6,N8*تنظیمات!$C$6,U8*تنظیمات!$D$6,AB8*تنظیمات!E12,AI8*تنظیمات!$F$6,AP8*تنظیمات!$G$6,AW8*تنظیمات!$H$6,BD8*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>6.25</v>
+      </c>
+      <c r="BL8" s="23">
         <f t="shared" si="25"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="BL8" s="23">
+        <v>7</v>
+      </c>
+      <c r="BM8" s="22">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BM8" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN8" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN8" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO8" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A8)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A8,ورودی!$A$2:$A$26,0)),0)</f>
@@ -9505,7 +9508,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J9" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K9" s="9">
@@ -9533,7 +9536,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q9" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R9" s="11">
@@ -9561,7 +9564,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X9" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y9" s="13">
@@ -9589,7 +9592,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE9" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF9" s="15">
@@ -9617,7 +9620,7 @@
         <v>2</v>
       </c>
       <c r="AL9" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM9" s="32">
@@ -9645,7 +9648,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS9" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT9" s="16">
@@ -9673,7 +9676,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ9" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA9" s="17">
@@ -9701,7 +9704,7 @@
         <v>4</v>
       </c>
       <c r="BG9" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH9" s="18">
@@ -9717,20 +9720,20 @@
         <v>40</v>
       </c>
       <c r="BK9" s="22">
+        <f>SUM(G9*تنظیمات!$B$6,N9*تنظیمات!$C$6,U9*تنظیمات!$D$6,AB9*تنظیمات!E13,AI9*تنظیمات!$F$6,AP9*تنظیمات!$G$6,AW9*تنظیمات!$H$6,BD9*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="BL9" s="23">
         <f t="shared" si="25"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="BL9" s="23">
+        <v>6</v>
+      </c>
+      <c r="BM9" s="22">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="BM9" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN9" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN9" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO9" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A9)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A9,ورودی!$A$2:$A$26,0)),0)</f>
@@ -10251,7 +10254,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J10" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K10" s="9">
@@ -10279,7 +10282,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q10" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R10" s="11">
@@ -10307,7 +10310,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X10" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y10" s="13">
@@ -10335,7 +10338,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE10" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF10" s="15">
@@ -10363,7 +10366,7 @@
         <v>2</v>
       </c>
       <c r="AL10" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM10" s="32">
@@ -10391,7 +10394,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS10" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT10" s="16">
@@ -10419,7 +10422,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ10" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA10" s="17">
@@ -10447,7 +10450,7 @@
         <v>4</v>
       </c>
       <c r="BG10" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH10" s="18">
@@ -10463,20 +10466,20 @@
         <v>45</v>
       </c>
       <c r="BK10" s="22">
+        <f>SUM(G10*تنظیمات!$B$6,N10*تنظیمات!$C$6,U10*تنظیمات!$D$6,AB10*تنظیمات!E14,AI10*تنظیمات!$F$6,AP10*تنظیمات!$G$6,AW10*تنظیمات!$H$6,BD10*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL10" s="23">
         <f t="shared" si="25"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL10" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM10" s="22">
         <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="BM10" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN10" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN10" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO10" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A10)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A10,ورودی!$A$2:$A$26,0)),0)</f>
@@ -10997,7 +11000,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J11" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K11" s="9">
@@ -11025,7 +11028,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q11" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R11" s="11">
@@ -11053,7 +11056,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X11" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y11" s="13">
@@ -11081,7 +11084,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE11" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF11" s="15">
@@ -11109,7 +11112,7 @@
         <v>2</v>
       </c>
       <c r="AL11" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM11" s="32">
@@ -11137,7 +11140,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS11" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT11" s="16">
@@ -11165,7 +11168,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ11" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA11" s="17">
@@ -11193,7 +11196,7 @@
         <v>4</v>
       </c>
       <c r="BG11" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH11" s="18">
@@ -11209,20 +11212,20 @@
         <v>45</v>
       </c>
       <c r="BK11" s="22">
+        <f>SUM(G11*تنظیمات!$B$6,N11*تنظیمات!$C$6,U11*تنظیمات!$D$6,AB11*تنظیمات!E15,AI11*تنظیمات!$F$6,AP11*تنظیمات!$G$6,AW11*تنظیمات!$H$6,BD11*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL11" s="23">
         <f t="shared" si="25"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL11" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM11" s="22">
         <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="BM11" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN11" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN11" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO11" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A11)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A11,ورودی!$A$2:$A$26,0)),0)</f>
@@ -11743,7 +11746,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J12" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K12" s="9">
@@ -11771,7 +11774,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q12" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R12" s="11">
@@ -11799,7 +11802,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X12" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y12" s="13">
@@ -11827,7 +11830,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE12" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF12" s="15">
@@ -11855,7 +11858,7 @@
         <v>2</v>
       </c>
       <c r="AL12" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM12" s="32">
@@ -11883,7 +11886,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS12" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT12" s="16">
@@ -11911,7 +11914,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ12" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA12" s="17">
@@ -11939,7 +11942,7 @@
         <v>4</v>
       </c>
       <c r="BG12" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH12" s="18">
@@ -11955,20 +11958,20 @@
         <v>45</v>
       </c>
       <c r="BK12" s="22">
+        <f>SUM(G12*تنظیمات!$B$6,N12*تنظیمات!$C$6,U12*تنظیمات!$D$6,AB12*تنظیمات!E16,AI12*تنظیمات!$F$6,AP12*تنظیمات!$G$6,AW12*تنظیمات!$H$6,BD12*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="BL12" s="23">
         <f t="shared" si="25"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="BL12" s="23">
+        <v>8</v>
+      </c>
+      <c r="BM12" s="22">
         <f t="shared" si="26"/>
-        <v>8</v>
-      </c>
-      <c r="BM12" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN12" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN12" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO12" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A12)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A12,ورودی!$A$2:$A$26,0)),0)</f>
@@ -12489,7 +12492,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J13" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K13" s="9">
@@ -12517,7 +12520,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q13" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R13" s="11">
@@ -12545,7 +12548,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X13" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y13" s="13">
@@ -12573,7 +12576,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE13" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF13" s="15">
@@ -12601,7 +12604,7 @@
         <v>2</v>
       </c>
       <c r="AL13" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM13" s="32">
@@ -12629,7 +12632,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS13" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT13" s="16">
@@ -12657,7 +12660,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ13" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA13" s="17">
@@ -12685,7 +12688,7 @@
         <v>4</v>
       </c>
       <c r="BG13" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH13" s="18">
@@ -12701,20 +12704,20 @@
         <v>45</v>
       </c>
       <c r="BK13" s="22">
+        <f>SUM(G13*تنظیمات!$B$6,N13*تنظیمات!$C$6,U13*تنظیمات!$D$6,AB13*تنظیمات!E17,AI13*تنظیمات!$F$6,AP13*تنظیمات!$G$6,AW13*تنظیمات!$H$6,BD13*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BL13" s="23">
         <f t="shared" si="25"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="BL13" s="23">
+        <v>12</v>
+      </c>
+      <c r="BM13" s="22">
         <f t="shared" si="26"/>
-        <v>12</v>
-      </c>
-      <c r="BM13" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN13" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN13" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO13" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A13)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A13,ورودی!$A$2:$A$26,0)),0)</f>
@@ -13235,7 +13238,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J14" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K14" s="9">
@@ -13263,7 +13266,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q14" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R14" s="11">
@@ -13291,7 +13294,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X14" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y14" s="13">
@@ -13319,7 +13322,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE14" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF14" s="15">
@@ -13347,7 +13350,7 @@
         <v>2</v>
       </c>
       <c r="AL14" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM14" s="32">
@@ -13375,7 +13378,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS14" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT14" s="16">
@@ -13403,7 +13406,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ14" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA14" s="17">
@@ -13431,7 +13434,7 @@
         <v>4</v>
       </c>
       <c r="BG14" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH14" s="18">
@@ -13447,20 +13450,20 @@
         <v>50</v>
       </c>
       <c r="BK14" s="22">
+        <f>SUM(G14*تنظیمات!$B$6,N14*تنظیمات!$C$6,U14*تنظیمات!$D$6,AB14*تنظیمات!E18,AI14*تنظیمات!$F$6,AP14*تنظیمات!$G$6,AW14*تنظیمات!$H$6,BD14*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL14" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BL14" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM14" s="22">
         <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="BM14" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN14" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN14" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO14" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A14)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A14,ورودی!$A$2:$A$26,0)),0)</f>
@@ -13981,7 +13984,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J15" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K15" s="9">
@@ -14009,7 +14012,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q15" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R15" s="11">
@@ -14037,7 +14040,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X15" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y15" s="13">
@@ -14065,7 +14068,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE15" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF15" s="15">
@@ -14093,7 +14096,7 @@
         <v>2</v>
       </c>
       <c r="AL15" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM15" s="32">
@@ -14121,7 +14124,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS15" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT15" s="16">
@@ -14149,7 +14152,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ15" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA15" s="17">
@@ -14177,7 +14180,7 @@
         <v>4</v>
       </c>
       <c r="BG15" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH15" s="18">
@@ -14193,20 +14196,20 @@
         <v>50</v>
       </c>
       <c r="BK15" s="22">
+        <f>SUM(G15*تنظیمات!$B$6,N15*تنظیمات!$C$6,U15*تنظیمات!$D$6,AB15*تنظیمات!E19,AI15*تنظیمات!$F$6,AP15*تنظیمات!$G$6,AW15*تنظیمات!$H$6,BD15*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM15" s="22">
         <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="BM15" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN15" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN15" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO15" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A15)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A15,ورودی!$A$2:$A$26,0)),0)</f>
@@ -14727,7 +14730,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J16" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K16" s="9">
@@ -14755,7 +14758,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q16" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R16" s="11">
@@ -14783,7 +14786,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X16" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y16" s="13">
@@ -14811,7 +14814,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE16" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF16" s="15">
@@ -14839,7 +14842,7 @@
         <v>2</v>
       </c>
       <c r="AL16" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM16" s="32">
@@ -14867,7 +14870,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS16" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT16" s="16">
@@ -14895,7 +14898,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ16" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA16" s="17">
@@ -14923,7 +14926,7 @@
         <v>4</v>
       </c>
       <c r="BG16" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH16" s="18">
@@ -14939,20 +14942,20 @@
         <v>50</v>
       </c>
       <c r="BK16" s="22">
+        <f>SUM(G16*تنظیمات!$B$6,N16*تنظیمات!$C$6,U16*تنظیمات!$D$6,AB16*تنظیمات!E20,AI16*تنظیمات!$F$6,AP16*تنظیمات!$G$6,AW16*تنظیمات!$H$6,BD16*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BL16" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM16" s="22">
         <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="BM16" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN16" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN16" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO16" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A16)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A16,ورودی!$A$2:$A$26,0)),0)</f>
@@ -15473,7 +15476,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J17" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K17" s="9">
@@ -15501,7 +15504,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q17" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R17" s="11">
@@ -15529,7 +15532,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X17" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y17" s="13">
@@ -15557,7 +15560,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE17" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF17" s="15">
@@ -15585,7 +15588,7 @@
         <v>2</v>
       </c>
       <c r="AL17" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM17" s="32">
@@ -15613,7 +15616,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS17" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT17" s="16">
@@ -15641,7 +15644,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ17" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA17" s="17">
@@ -15669,7 +15672,7 @@
         <v>4</v>
       </c>
       <c r="BG17" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH17" s="18">
@@ -15685,20 +15688,20 @@
         <v>50</v>
       </c>
       <c r="BK17" s="22">
+        <f>SUM(G17*تنظیمات!$B$6,N17*تنظیمات!$C$6,U17*تنظیمات!$D$6,AB17*تنظیمات!E21,AI17*تنظیمات!$F$6,AP17*تنظیمات!$G$6,AW17*تنظیمات!$H$6,BD17*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BL17" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM17" s="22">
         <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="BM17" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN17" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN17" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO17" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A17)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A17,ورودی!$A$2:$A$26,0)),0)</f>
@@ -16219,7 +16222,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J18" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K18" s="9">
@@ -16247,7 +16250,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q18" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R18" s="11">
@@ -16275,7 +16278,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X18" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y18" s="13">
@@ -16303,7 +16306,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE18" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF18" s="15">
@@ -16331,7 +16334,7 @@
         <v>2</v>
       </c>
       <c r="AL18" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM18" s="32">
@@ -16359,7 +16362,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS18" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT18" s="16">
@@ -16387,7 +16390,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ18" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA18" s="17">
@@ -16415,7 +16418,7 @@
         <v>4</v>
       </c>
       <c r="BG18" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH18" s="18">
@@ -16431,20 +16434,20 @@
         <v>50</v>
       </c>
       <c r="BK18" s="22">
+        <f>SUM(G18*تنظیمات!$B$6,N18*تنظیمات!$C$6,U18*تنظیمات!$D$6,AB18*تنظیمات!E22,AI18*تنظیمات!$F$6,AP18*تنظیمات!$G$6,AW18*تنظیمات!$H$6,BD18*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BL18" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM18" s="22">
         <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="BM18" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN18" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN18" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO18" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A18)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A18,ورودی!$A$2:$A$26,0)),0)</f>
@@ -16965,7 +16968,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J19" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K19" s="9">
@@ -16993,7 +16996,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q19" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R19" s="11">
@@ -17021,7 +17024,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X19" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y19" s="13">
@@ -17049,7 +17052,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE19" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF19" s="15">
@@ -17077,7 +17080,7 @@
         <v>2</v>
       </c>
       <c r="AL19" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM19" s="32">
@@ -17105,7 +17108,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS19" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT19" s="16">
@@ -17133,7 +17136,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ19" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA19" s="17">
@@ -17161,7 +17164,7 @@
         <v>4</v>
       </c>
       <c r="BG19" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH19" s="18">
@@ -17177,20 +17180,20 @@
         <v>50</v>
       </c>
       <c r="BK19" s="22">
+        <f>SUM(G19*تنظیمات!$B$6,N19*تنظیمات!$C$6,U19*تنظیمات!$D$6,AB19*تنظیمات!E23,AI19*تنظیمات!$F$6,AP19*تنظیمات!$G$6,AW19*تنظیمات!$H$6,BD19*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BL19" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM19" s="22">
         <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="BM19" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN19" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN19" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO19" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A19)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A19,ورودی!$A$2:$A$26,0)),0)</f>
@@ -17711,7 +17714,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J20" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K20" s="9">
@@ -17739,7 +17742,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q20" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R20" s="11">
@@ -17767,7 +17770,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X20" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y20" s="13">
@@ -17795,7 +17798,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE20" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF20" s="15">
@@ -17823,7 +17826,7 @@
         <v>2</v>
       </c>
       <c r="AL20" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM20" s="32">
@@ -17851,7 +17854,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS20" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT20" s="16">
@@ -17879,7 +17882,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ20" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA20" s="17">
@@ -17907,7 +17910,7 @@
         <v>4</v>
       </c>
       <c r="BG20" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH20" s="18">
@@ -17923,20 +17926,20 @@
         <v>50</v>
       </c>
       <c r="BK20" s="22">
+        <f>SUM(G20*تنظیمات!$B$6,N20*تنظیمات!$C$6,U20*تنظیمات!$D$6,AB20*تنظیمات!E24,AI20*تنظیمات!$F$6,AP20*تنظیمات!$G$6,AW20*تنظیمات!$H$6,BD20*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL20" s="23">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="BL20" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM20" s="22">
         <f t="shared" si="26"/>
-        <v>13</v>
-      </c>
-      <c r="BM20" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN20" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN20" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO20" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A20)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A20,ورودی!$A$2:$A$26,0)),0)</f>
@@ -18457,7 +18460,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J21" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K21" s="9">
@@ -18485,7 +18488,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q21" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R21" s="11">
@@ -18513,7 +18516,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X21" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y21" s="13">
@@ -18541,7 +18544,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE21" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF21" s="15">
@@ -18569,7 +18572,7 @@
         <v>2</v>
       </c>
       <c r="AL21" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM21" s="32">
@@ -18597,7 +18600,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS21" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT21" s="16">
@@ -18625,7 +18628,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ21" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA21" s="17">
@@ -18653,7 +18656,7 @@
         <v>4</v>
       </c>
       <c r="BG21" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH21" s="18">
@@ -18669,20 +18672,20 @@
         <v>45</v>
       </c>
       <c r="BK21" s="22">
+        <f>SUM(G21*تنظیمات!$B$6,N21*تنظیمات!$C$6,U21*تنظیمات!$D$6,AB21*تنظیمات!E25,AI21*تنظیمات!$F$6,AP21*تنظیمات!$G$6,AW21*تنظیمات!$H$6,BD21*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>12.5</v>
+      </c>
+      <c r="BL21" s="23">
         <f t="shared" si="25"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="BL21" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM21" s="22">
         <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="BM21" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN21" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN21" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO21" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A21)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A21,ورودی!$A$2:$A$26,0)),0)</f>
@@ -19203,7 +19206,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J22" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K22" s="9">
@@ -19231,7 +19234,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q22" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R22" s="11">
@@ -19259,7 +19262,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X22" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y22" s="13">
@@ -19287,7 +19290,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE22" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF22" s="15">
@@ -19315,7 +19318,7 @@
         <v>2</v>
       </c>
       <c r="AL22" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM22" s="32">
@@ -19343,7 +19346,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS22" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT22" s="16">
@@ -19371,7 +19374,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ22" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA22" s="17">
@@ -19399,7 +19402,7 @@
         <v>4</v>
       </c>
       <c r="BG22" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH22" s="18">
@@ -19415,20 +19418,20 @@
         <v>45</v>
       </c>
       <c r="BK22" s="22">
+        <f>SUM(G22*تنظیمات!$B$6,N22*تنظیمات!$C$6,U22*تنظیمات!$D$6,AB22*تنظیمات!E26,AI22*تنظیمات!$F$6,AP22*تنظیمات!$G$6,AW22*تنظیمات!$H$6,BD22*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>12.5</v>
+      </c>
+      <c r="BL22" s="23">
         <f t="shared" si="25"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="BL22" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM22" s="22">
         <f t="shared" si="26"/>
-        <v>3</v>
-      </c>
-      <c r="BM22" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN22" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN22" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO22" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A22)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A22,ورودی!$A$2:$A$26,0)),0)</f>
@@ -19949,7 +19952,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J23" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K23" s="9">
@@ -19977,7 +19980,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q23" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R23" s="11">
@@ -20005,7 +20008,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X23" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y23" s="13">
@@ -20033,7 +20036,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE23" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF23" s="15">
@@ -20061,7 +20064,7 @@
         <v>2</v>
       </c>
       <c r="AL23" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM23" s="32">
@@ -20089,7 +20092,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS23" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT23" s="16">
@@ -20117,7 +20120,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ23" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA23" s="17">
@@ -20145,7 +20148,7 @@
         <v>4</v>
       </c>
       <c r="BG23" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH23" s="18">
@@ -20161,20 +20164,20 @@
         <v>45</v>
       </c>
       <c r="BK23" s="22">
+        <f>SUM(G23*تنظیمات!$B$6,N23*تنظیمات!$C$6,U23*تنظیمات!$D$6,AB23*تنظیمات!E27,AI23*تنظیمات!$F$6,AP23*تنظیمات!$G$6,AW23*تنظیمات!$H$6,BD23*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>-4.1666666666666661</v>
+      </c>
+      <c r="BL23" s="23">
         <f t="shared" si="25"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL23" s="23">
+        <v>22</v>
+      </c>
+      <c r="BM23" s="22">
         <f t="shared" si="26"/>
-        <v>20</v>
-      </c>
-      <c r="BM23" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN23" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN23" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO23" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A23)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A23,ورودی!$A$2:$A$26,0)),0)</f>
@@ -20695,7 +20698,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J24" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K24" s="9">
@@ -20723,7 +20726,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q24" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R24" s="11">
@@ -20751,7 +20754,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X24" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y24" s="13">
@@ -20779,7 +20782,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE24" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF24" s="15">
@@ -20807,7 +20810,7 @@
         <v>2</v>
       </c>
       <c r="AL24" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM24" s="32">
@@ -20835,7 +20838,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS24" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT24" s="16">
@@ -20863,7 +20866,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ24" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA24" s="17">
@@ -20891,7 +20894,7 @@
         <v>4</v>
       </c>
       <c r="BG24" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH24" s="18">
@@ -20907,20 +20910,20 @@
         <v>44</v>
       </c>
       <c r="BK24" s="22">
+        <f>SUM(G24*تنظیمات!$B$6,N24*تنظیمات!$C$6,U24*تنظیمات!$D$6,AB24*تنظیمات!E28,AI24*تنظیمات!$F$6,AP24*تنظیمات!$G$6,AW24*تنظیمات!$H$6,BD24*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>-4.9999999999999991</v>
+      </c>
+      <c r="BL24" s="23">
         <f t="shared" si="25"/>
-        <v>-5.7142857142857135</v>
-      </c>
-      <c r="BL24" s="23">
+        <v>25</v>
+      </c>
+      <c r="BM24" s="22">
         <f t="shared" si="26"/>
-        <v>25</v>
-      </c>
-      <c r="BM24" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN24" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN24" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO24" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A24)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A24,ورودی!$A$2:$A$26,0)),0)</f>
@@ -21441,7 +21444,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J25" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K25" s="9">
@@ -21469,7 +21472,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q25" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R25" s="11">
@@ -21497,7 +21500,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X25" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y25" s="13">
@@ -21525,7 +21528,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE25" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF25" s="15">
@@ -21553,7 +21556,7 @@
         <v>2</v>
       </c>
       <c r="AL25" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM25" s="32">
@@ -21581,7 +21584,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS25" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT25" s="16">
@@ -21609,7 +21612,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ25" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA25" s="17">
@@ -21637,7 +21640,7 @@
         <v>4</v>
       </c>
       <c r="BG25" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH25" s="18">
@@ -21653,20 +21656,20 @@
         <v>44</v>
       </c>
       <c r="BK25" s="22">
+        <f>SUM(G25*تنظیمات!$B$6,N25*تنظیمات!$C$6,U25*تنظیمات!$D$6,AB25*تنظیمات!E29,AI25*تنظیمات!$F$6,AP25*تنظیمات!$G$6,AW25*تنظیمات!$H$6,BD25*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>3.75</v>
+      </c>
+      <c r="BL25" s="23">
         <f t="shared" si="25"/>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="BL25" s="23">
+        <v>10</v>
+      </c>
+      <c r="BM25" s="22">
         <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="BM25" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN25" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN25" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO25" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A25)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A25,ورودی!$A$2:$A$26,0)),0)</f>
@@ -22187,7 +22190,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J26" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K26" s="9">
@@ -22215,7 +22218,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q26" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R26" s="11">
@@ -22243,7 +22246,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X26" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y26" s="13">
@@ -22271,7 +22274,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE26" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF26" s="15">
@@ -22299,7 +22302,7 @@
         <v>2</v>
       </c>
       <c r="AL26" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM26" s="32">
@@ -22327,7 +22330,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS26" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT26" s="16">
@@ -22355,7 +22358,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ26" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA26" s="17">
@@ -22383,7 +22386,7 @@
         <v>4</v>
       </c>
       <c r="BG26" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH26" s="18">
@@ -22399,20 +22402,20 @@
         <v>44</v>
       </c>
       <c r="BK26" s="22">
+        <f>SUM(G26*تنظیمات!$B$6,N26*تنظیمات!$C$6,U26*تنظیمات!$D$6,AB26*تنظیمات!E30,AI26*تنظیمات!$F$6,AP26*تنظیمات!$G$6,AW26*تنظیمات!$H$6,BD26*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>5.4166666666666661</v>
+      </c>
+      <c r="BL26" s="23">
         <f t="shared" si="25"/>
-        <v>6.1904761904761898</v>
-      </c>
-      <c r="BL26" s="23">
+        <v>9</v>
+      </c>
+      <c r="BM26" s="22">
         <f t="shared" si="26"/>
-        <v>9</v>
-      </c>
-      <c r="BM26" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN26" s="22">
         <f t="shared" si="27"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN26" s="22">
-        <f t="shared" si="28"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
       <c r="BO26" s="7">
         <f>IF(COUNTIF(ورودی!$A$2:$A$26,'کارنامه پاسخ برگ '!$A26)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('کارنامه پاسخ برگ '!$A26,ورودی!$A$2:$A$26,0)),0)</f>
@@ -22904,10 +22907,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8C02D1-3B50-4AC7-90B1-68D6EF3CD1CA}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23067,9 +23070,38 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B7" s="29">
         <v>10</v>
       </c>
     </row>
@@ -30037,7 +30069,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30380,19 +30412,19 @@
       </c>
       <c r="E13" s="27">
         <f>INDEX('کارنامه فردی'!BK2:BK26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
-        <v>10.952380952380953</v>
+        <v>13.75</v>
       </c>
       <c r="F13" s="26">
         <f>INDEX('کارنامه فردی'!BL2:BL26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G13" s="27">
         <f>INDEX('کارنامه فردی'!BM2:BM26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
-        <v>4.2285714285714304</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="H13" s="27">
         <f>INDEX('کارنامه فردی'!BN2:BN26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26))</f>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
   </sheetData>
@@ -31545,7 +31577,7 @@
         <v>75</v>
       </c>
       <c r="D31" s="2">
-        <f>تنظیمات!B6</f>
+        <f>تنظیمات!B7</f>
         <v>10</v>
       </c>
     </row>
@@ -32565,7 +32597,7 @@
   <dimension ref="A1:BN26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="BK3" sqref="BK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32899,7 +32931,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J2" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K2" s="9">
@@ -32927,7 +32959,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q2" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R2" s="11">
@@ -32955,7 +32987,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X2" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y2" s="13">
@@ -32983,7 +33015,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE2" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF2" s="15">
@@ -33011,7 +33043,7 @@
         <v>2</v>
       </c>
       <c r="AL2" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM2" s="32">
@@ -33039,7 +33071,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS2" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT2" s="16">
@@ -33067,7 +33099,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ2" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA2" s="17">
@@ -33095,7 +33127,7 @@
         <v>4</v>
       </c>
       <c r="BG2" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH2" s="18">
@@ -33111,20 +33143,20 @@
         <v>28</v>
       </c>
       <c r="BK2" s="22">
-        <f>AVERAGE(BD2,AW2,AI2,AB2,U2,N2,G2)</f>
-        <v>10.952380952380953</v>
+        <f>SUM(G2*تنظیمات!$B$6,N2*تنظیمات!$C$6,U2*تنظیمات!$D$6,AB2*تنظیمات!E6,AI2*تنظیمات!$F$6,AP2*تنظیمات!$G$6,AW2*تنظیمات!$H$6,BD2*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>13.75</v>
       </c>
       <c r="BL2" s="23">
         <f>RANK(BK2,$BK$2:$BK$26)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BM2" s="22">
         <f>AVERAGE($BK$2:$BK$26)</f>
-        <v>4.2285714285714304</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="BN2" s="22">
         <f>AVERAGEIF($BL$2:$BL$26,"&lt;=10",$BK$2:$BK$26)</f>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.3">
@@ -33165,7 +33197,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J3" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K3" s="9">
@@ -33193,7 +33225,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q3" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R3" s="11">
@@ -33221,7 +33253,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X3" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y3" s="13">
@@ -33249,7 +33281,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE3" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF3" s="15">
@@ -33277,7 +33309,7 @@
         <v>2</v>
       </c>
       <c r="AL3" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM3" s="32">
@@ -33305,7 +33337,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS3" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT3" s="16">
@@ -33333,7 +33365,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ3" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA3" s="17">
@@ -33361,7 +33393,7 @@
         <v>4</v>
       </c>
       <c r="BG3" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH3" s="18">
@@ -33377,20 +33409,20 @@
         <v>44</v>
       </c>
       <c r="BK3" s="22">
-        <f t="shared" ref="BK3:BK26" si="27">AVERAGE(BD3,AW3,AI3,AB3,U3,N3,G3)</f>
-        <v>4.2857142857142856</v>
+        <f>SUM(G3*تنظیمات!$B$6,N3*تنظیمات!$C$6,U3*تنظیمات!$D$6,AB3*تنظیمات!E7,AI3*تنظیمات!$F$6,AP3*تنظیمات!$G$6,AW3*تنظیمات!$H$6,BD3*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>3.75</v>
       </c>
       <c r="BL3" s="23">
-        <f t="shared" ref="BL3:BL26" si="28">RANK(BK3,$BK$2:$BK$26)</f>
+        <f t="shared" ref="BL3:BL26" si="27">RANK(BK3,$BK$2:$BK$26)</f>
         <v>10</v>
       </c>
       <c r="BM3" s="22">
-        <f t="shared" ref="BM3:BM26" si="29">AVERAGE($BK$2:$BK$26)</f>
-        <v>4.2285714285714304</v>
+        <f t="shared" ref="BM3:BM26" si="28">AVERAGE($BK$2:$BK$26)</f>
+        <v>3.3666666666666667</v>
       </c>
       <c r="BN3" s="22">
-        <f t="shared" ref="BN3:BN26" si="30">AVERAGEIF($BL$2:$BL$26,"&lt;=10",$BK$2:$BK$26)</f>
-        <v>12.034632034632038</v>
+        <f t="shared" ref="BN3:BN26" si="29">AVERAGEIF($BL$2:$BL$26,"&lt;=10",$BK$2:$BK$26)</f>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.3">
@@ -33431,7 +33463,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J4" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K4" s="9">
@@ -33459,7 +33491,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q4" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R4" s="11">
@@ -33487,7 +33519,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X4" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y4" s="13">
@@ -33515,7 +33547,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE4" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF4" s="15">
@@ -33543,7 +33575,7 @@
         <v>2</v>
       </c>
       <c r="AL4" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM4" s="32">
@@ -33571,7 +33603,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS4" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT4" s="16">
@@ -33599,7 +33631,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ4" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA4" s="17">
@@ -33627,7 +33659,7 @@
         <v>4</v>
       </c>
       <c r="BG4" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH4" s="18">
@@ -33643,20 +33675,20 @@
         <v>45</v>
       </c>
       <c r="BK4" s="22">
+        <f>SUM(G4*تنظیمات!$B$6,N4*تنظیمات!$C$6,U4*تنظیمات!$D$6,AB4*تنظیمات!E8,AI4*تنظیمات!$F$6,AP4*تنظیمات!$G$6,AW4*تنظیمات!$H$6,BD4*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>12.5</v>
+      </c>
+      <c r="BL4" s="23">
         <f t="shared" si="27"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="BL4" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="22">
         <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="BM4" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN4" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN4" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.3">
@@ -33697,7 +33729,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J5" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K5" s="9">
@@ -33725,7 +33757,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q5" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R5" s="11">
@@ -33753,7 +33785,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X5" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y5" s="13">
@@ -33781,7 +33813,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE5" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF5" s="15">
@@ -33809,7 +33841,7 @@
         <v>2</v>
       </c>
       <c r="AL5" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM5" s="32">
@@ -33837,7 +33869,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS5" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT5" s="16">
@@ -33865,7 +33897,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ5" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA5" s="17">
@@ -33893,7 +33925,7 @@
         <v>4</v>
       </c>
       <c r="BG5" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH5" s="18">
@@ -33909,20 +33941,20 @@
         <v>45</v>
       </c>
       <c r="BK5" s="22">
+        <f>SUM(G5*تنظیمات!$B$6,N5*تنظیمات!$C$6,U5*تنظیمات!$D$6,AB5*تنظیمات!E9,AI5*تنظیمات!$F$6,AP5*تنظیمات!$G$6,AW5*تنظیمات!$H$6,BD5*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>12.5</v>
+      </c>
+      <c r="BL5" s="23">
         <f t="shared" si="27"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="BL5" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="22">
         <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="BM5" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN5" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN5" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.3">
@@ -33963,7 +33995,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J6" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K6" s="9">
@@ -33991,7 +34023,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q6" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R6" s="11">
@@ -34019,7 +34051,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X6" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y6" s="13">
@@ -34047,7 +34079,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE6" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF6" s="15">
@@ -34075,7 +34107,7 @@
         <v>2</v>
       </c>
       <c r="AL6" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM6" s="32">
@@ -34103,7 +34135,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS6" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT6" s="16">
@@ -34131,7 +34163,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ6" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA6" s="17">
@@ -34159,7 +34191,7 @@
         <v>4</v>
       </c>
       <c r="BG6" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH6" s="18">
@@ -34175,20 +34207,20 @@
         <v>45</v>
       </c>
       <c r="BK6" s="22">
+        <f>SUM(G6*تنظیمات!$B$6,N6*تنظیمات!$C$6,U6*تنظیمات!$D$6,AB6*تنظیمات!E10,AI6*تنظیمات!$F$6,AP6*تنظیمات!$G$6,AW6*تنظیمات!$H$6,BD6*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>-4.1666666666666661</v>
+      </c>
+      <c r="BL6" s="23">
         <f t="shared" si="27"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL6" s="23">
+        <v>22</v>
+      </c>
+      <c r="BM6" s="22">
         <f t="shared" si="28"/>
-        <v>20</v>
-      </c>
-      <c r="BM6" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN6" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN6" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.3">
@@ -34229,7 +34261,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J7" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K7" s="9">
@@ -34257,7 +34289,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q7" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R7" s="11">
@@ -34285,7 +34317,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X7" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y7" s="13">
@@ -34313,7 +34345,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE7" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF7" s="15">
@@ -34341,7 +34373,7 @@
         <v>2</v>
       </c>
       <c r="AL7" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM7" s="32">
@@ -34369,7 +34401,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS7" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT7" s="16">
@@ -34397,7 +34429,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ7" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA7" s="17">
@@ -34425,7 +34457,7 @@
         <v>4</v>
       </c>
       <c r="BG7" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH7" s="18">
@@ -34441,20 +34473,20 @@
         <v>45</v>
       </c>
       <c r="BK7" s="22">
+        <f>SUM(G7*تنظیمات!$B$6,N7*تنظیمات!$C$6,U7*تنظیمات!$D$6,AB7*تنظیمات!E11,AI7*تنظیمات!$F$6,AP7*تنظیمات!$G$6,AW7*تنظیمات!$H$6,BD7*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>-4.1666666666666661</v>
+      </c>
+      <c r="BL7" s="23">
         <f t="shared" si="27"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL7" s="23">
+        <v>22</v>
+      </c>
+      <c r="BM7" s="22">
         <f t="shared" si="28"/>
-        <v>20</v>
-      </c>
-      <c r="BM7" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN7" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN7" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.3">
@@ -34495,7 +34527,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J8" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K8" s="9">
@@ -34523,7 +34555,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q8" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R8" s="11">
@@ -34551,7 +34583,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X8" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y8" s="13">
@@ -34579,7 +34611,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE8" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF8" s="15">
@@ -34607,7 +34639,7 @@
         <v>2</v>
       </c>
       <c r="AL8" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM8" s="32">
@@ -34635,7 +34667,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS8" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT8" s="16">
@@ -34663,7 +34695,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ8" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA8" s="17">
@@ -34691,7 +34723,7 @@
         <v>4</v>
       </c>
       <c r="BG8" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH8" s="18">
@@ -34707,20 +34739,20 @@
         <v>40</v>
       </c>
       <c r="BK8" s="22">
+        <f>SUM(G8*تنظیمات!$B$6,N8*تنظیمات!$C$6,U8*تنظیمات!$D$6,AB8*تنظیمات!E12,AI8*تنظیمات!$F$6,AP8*تنظیمات!$G$6,AW8*تنظیمات!$H$6,BD8*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>6.25</v>
+      </c>
+      <c r="BL8" s="23">
         <f t="shared" si="27"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="BL8" s="23">
+        <v>7</v>
+      </c>
+      <c r="BM8" s="22">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="BM8" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN8" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN8" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.3">
@@ -34761,7 +34793,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J9" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K9" s="9">
@@ -34789,7 +34821,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q9" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R9" s="11">
@@ -34817,7 +34849,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X9" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y9" s="13">
@@ -34845,7 +34877,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE9" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF9" s="15">
@@ -34873,7 +34905,7 @@
         <v>2</v>
       </c>
       <c r="AL9" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM9" s="32">
@@ -34901,7 +34933,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS9" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT9" s="16">
@@ -34929,7 +34961,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ9" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA9" s="17">
@@ -34957,7 +34989,7 @@
         <v>4</v>
       </c>
       <c r="BG9" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH9" s="18">
@@ -34973,20 +35005,20 @@
         <v>40</v>
       </c>
       <c r="BK9" s="22">
+        <f>SUM(G9*تنظیمات!$B$6,N9*تنظیمات!$C$6,U9*تنظیمات!$D$6,AB9*تنظیمات!E13,AI9*تنظیمات!$F$6,AP9*تنظیمات!$G$6,AW9*تنظیمات!$H$6,BD9*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>10.416666666666666</v>
+      </c>
+      <c r="BL9" s="23">
         <f t="shared" si="27"/>
-        <v>21.428571428571427</v>
-      </c>
-      <c r="BL9" s="23">
+        <v>6</v>
+      </c>
+      <c r="BM9" s="22">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="BM9" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN9" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN9" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.3">
@@ -35027,7 +35059,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J10" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K10" s="9">
@@ -35055,7 +35087,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q10" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R10" s="11">
@@ -35083,7 +35115,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X10" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y10" s="13">
@@ -35111,7 +35143,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE10" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF10" s="15">
@@ -35139,7 +35171,7 @@
         <v>2</v>
       </c>
       <c r="AL10" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM10" s="32">
@@ -35167,7 +35199,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS10" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT10" s="16">
@@ -35195,7 +35227,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ10" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA10" s="17">
@@ -35223,7 +35255,7 @@
         <v>4</v>
       </c>
       <c r="BG10" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH10" s="18">
@@ -35239,20 +35271,20 @@
         <v>45</v>
       </c>
       <c r="BK10" s="22">
+        <f>SUM(G10*تنظیمات!$B$6,N10*تنظیمات!$C$6,U10*تنظیمات!$D$6,AB10*تنظیمات!E14,AI10*تنظیمات!$F$6,AP10*تنظیمات!$G$6,AW10*تنظیمات!$H$6,BD10*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL10" s="23">
         <f t="shared" si="27"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL10" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM10" s="22">
         <f t="shared" si="28"/>
-        <v>20</v>
-      </c>
-      <c r="BM10" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN10" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN10" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.3">
@@ -35293,7 +35325,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J11" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K11" s="9">
@@ -35321,7 +35353,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q11" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R11" s="11">
@@ -35349,7 +35381,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X11" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y11" s="13">
@@ -35377,7 +35409,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE11" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF11" s="15">
@@ -35405,7 +35437,7 @@
         <v>2</v>
       </c>
       <c r="AL11" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM11" s="32">
@@ -35433,7 +35465,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS11" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT11" s="16">
@@ -35461,7 +35493,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ11" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA11" s="17">
@@ -35489,7 +35521,7 @@
         <v>4</v>
       </c>
       <c r="BG11" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH11" s="18">
@@ -35505,20 +35537,20 @@
         <v>45</v>
       </c>
       <c r="BK11" s="22">
+        <f>SUM(G11*تنظیمات!$B$6,N11*تنظیمات!$C$6,U11*تنظیمات!$D$6,AB11*تنظیمات!E15,AI11*تنظیمات!$F$6,AP11*تنظیمات!$G$6,AW11*تنظیمات!$H$6,BD11*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL11" s="23">
         <f t="shared" si="27"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL11" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM11" s="22">
         <f t="shared" si="28"/>
-        <v>20</v>
-      </c>
-      <c r="BM11" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN11" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN11" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.3">
@@ -35559,7 +35591,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J12" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K12" s="9">
@@ -35587,7 +35619,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q12" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R12" s="11">
@@ -35615,7 +35647,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X12" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y12" s="13">
@@ -35643,7 +35675,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE12" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF12" s="15">
@@ -35671,7 +35703,7 @@
         <v>2</v>
       </c>
       <c r="AL12" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM12" s="32">
@@ -35699,7 +35731,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS12" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT12" s="16">
@@ -35727,7 +35759,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ12" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA12" s="17">
@@ -35755,7 +35787,7 @@
         <v>4</v>
       </c>
       <c r="BG12" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH12" s="18">
@@ -35771,20 +35803,20 @@
         <v>45</v>
       </c>
       <c r="BK12" s="22">
+        <f>SUM(G12*تنظیمات!$B$6,N12*تنظیمات!$C$6,U12*تنظیمات!$D$6,AB12*تنظیمات!E16,AI12*تنظیمات!$F$6,AP12*تنظیمات!$G$6,AW12*تنظیمات!$H$6,BD12*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="BL12" s="23">
         <f t="shared" si="27"/>
-        <v>6.6666666666666661</v>
-      </c>
-      <c r="BL12" s="23">
+        <v>8</v>
+      </c>
+      <c r="BM12" s="22">
         <f t="shared" si="28"/>
-        <v>8</v>
-      </c>
-      <c r="BM12" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN12" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN12" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.3">
@@ -35825,7 +35857,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J13" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K13" s="9">
@@ -35853,7 +35885,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q13" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R13" s="11">
@@ -35881,7 +35913,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X13" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y13" s="13">
@@ -35909,7 +35941,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE13" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF13" s="15">
@@ -35937,7 +35969,7 @@
         <v>2</v>
       </c>
       <c r="AL13" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM13" s="32">
@@ -35965,7 +35997,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS13" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT13" s="16">
@@ -35993,7 +36025,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ13" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA13" s="17">
@@ -36021,7 +36053,7 @@
         <v>4</v>
       </c>
       <c r="BG13" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH13" s="18">
@@ -36037,20 +36069,20 @@
         <v>45</v>
       </c>
       <c r="BK13" s="22">
+        <f>SUM(G13*تنظیمات!$B$6,N13*تنظیمات!$C$6,U13*تنظیمات!$D$6,AB13*تنظیمات!E17,AI13*تنظیمات!$F$6,AP13*تنظیمات!$G$6,AW13*تنظیمات!$H$6,BD13*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>2.5</v>
+      </c>
+      <c r="BL13" s="23">
         <f t="shared" si="27"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="BL13" s="23">
+        <v>12</v>
+      </c>
+      <c r="BM13" s="22">
         <f t="shared" si="28"/>
-        <v>12</v>
-      </c>
-      <c r="BM13" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN13" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN13" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.3">
@@ -36091,7 +36123,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J14" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K14" s="9">
@@ -36119,7 +36151,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q14" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R14" s="11">
@@ -36147,7 +36179,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X14" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y14" s="13">
@@ -36175,7 +36207,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE14" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF14" s="15">
@@ -36203,7 +36235,7 @@
         <v>2</v>
       </c>
       <c r="AL14" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM14" s="32">
@@ -36231,7 +36263,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS14" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT14" s="16">
@@ -36259,7 +36291,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ14" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA14" s="17">
@@ -36287,7 +36319,7 @@
         <v>4</v>
       </c>
       <c r="BG14" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH14" s="18">
@@ -36303,20 +36335,20 @@
         <v>50</v>
       </c>
       <c r="BK14" s="22">
+        <f>SUM(G14*تنظیمات!$B$6,N14*تنظیمات!$C$6,U14*تنظیمات!$D$6,AB14*تنظیمات!E18,AI14*تنظیمات!$F$6,AP14*تنظیمات!$G$6,AW14*تنظیمات!$H$6,BD14*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL14" s="23">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BL14" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM14" s="22">
         <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="BM14" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN14" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN14" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.3">
@@ -36357,7 +36389,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J15" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K15" s="9">
@@ -36385,7 +36417,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q15" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R15" s="11">
@@ -36413,7 +36445,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X15" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y15" s="13">
@@ -36441,7 +36473,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE15" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF15" s="15">
@@ -36469,7 +36501,7 @@
         <v>2</v>
       </c>
       <c r="AL15" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM15" s="32">
@@ -36497,7 +36529,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS15" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT15" s="16">
@@ -36525,7 +36557,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ15" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA15" s="17">
@@ -36553,7 +36585,7 @@
         <v>4</v>
       </c>
       <c r="BG15" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH15" s="18">
@@ -36569,20 +36601,20 @@
         <v>50</v>
       </c>
       <c r="BK15" s="22">
+        <f>SUM(G15*تنظیمات!$B$6,N15*تنظیمات!$C$6,U15*تنظیمات!$D$6,AB15*تنظیمات!E19,AI15*تنظیمات!$F$6,AP15*تنظیمات!$G$6,AW15*تنظیمات!$H$6,BD15*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL15" s="23">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BL15" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM15" s="22">
         <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="BM15" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN15" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN15" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.3">
@@ -36623,7 +36655,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J16" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K16" s="9">
@@ -36651,7 +36683,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q16" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R16" s="11">
@@ -36679,7 +36711,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X16" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y16" s="13">
@@ -36707,7 +36739,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE16" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF16" s="15">
@@ -36735,7 +36767,7 @@
         <v>2</v>
       </c>
       <c r="AL16" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM16" s="32">
@@ -36763,7 +36795,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS16" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT16" s="16">
@@ -36791,7 +36823,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ16" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA16" s="17">
@@ -36819,7 +36851,7 @@
         <v>4</v>
       </c>
       <c r="BG16" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH16" s="18">
@@ -36835,20 +36867,20 @@
         <v>50</v>
       </c>
       <c r="BK16" s="22">
+        <f>SUM(G16*تنظیمات!$B$6,N16*تنظیمات!$C$6,U16*تنظیمات!$D$6,AB16*تنظیمات!E20,AI16*تنظیمات!$F$6,AP16*تنظیمات!$G$6,AW16*تنظیمات!$H$6,BD16*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="23">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BL16" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM16" s="22">
         <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="BM16" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN16" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN16" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.3">
@@ -36889,7 +36921,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J17" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K17" s="9">
@@ -36917,7 +36949,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q17" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R17" s="11">
@@ -36945,7 +36977,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X17" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y17" s="13">
@@ -36973,7 +37005,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE17" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF17" s="15">
@@ -37001,7 +37033,7 @@
         <v>2</v>
       </c>
       <c r="AL17" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM17" s="32">
@@ -37029,7 +37061,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS17" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT17" s="16">
@@ -37057,7 +37089,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ17" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA17" s="17">
@@ -37085,7 +37117,7 @@
         <v>4</v>
       </c>
       <c r="BG17" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH17" s="18">
@@ -37101,20 +37133,20 @@
         <v>50</v>
       </c>
       <c r="BK17" s="22">
+        <f>SUM(G17*تنظیمات!$B$6,N17*تنظیمات!$C$6,U17*تنظیمات!$D$6,AB17*تنظیمات!E21,AI17*تنظیمات!$F$6,AP17*تنظیمات!$G$6,AW17*تنظیمات!$H$6,BD17*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="23">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BL17" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM17" s="22">
         <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="BM17" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN17" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN17" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.3">
@@ -37155,7 +37187,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J18" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K18" s="9">
@@ -37183,7 +37215,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q18" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R18" s="11">
@@ -37211,7 +37243,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X18" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y18" s="13">
@@ -37239,7 +37271,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE18" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF18" s="15">
@@ -37267,7 +37299,7 @@
         <v>2</v>
       </c>
       <c r="AL18" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM18" s="32">
@@ -37295,7 +37327,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS18" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT18" s="16">
@@ -37323,7 +37355,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ18" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA18" s="17">
@@ -37351,7 +37383,7 @@
         <v>4</v>
       </c>
       <c r="BG18" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH18" s="18">
@@ -37367,20 +37399,20 @@
         <v>50</v>
       </c>
       <c r="BK18" s="22">
+        <f>SUM(G18*تنظیمات!$B$6,N18*تنظیمات!$C$6,U18*تنظیمات!$D$6,AB18*تنظیمات!E22,AI18*تنظیمات!$F$6,AP18*تنظیمات!$G$6,AW18*تنظیمات!$H$6,BD18*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="23">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BL18" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM18" s="22">
         <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="BM18" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN18" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN18" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.3">
@@ -37421,7 +37453,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J19" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K19" s="9">
@@ -37449,7 +37481,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q19" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R19" s="11">
@@ -37477,7 +37509,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X19" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y19" s="13">
@@ -37505,7 +37537,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE19" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF19" s="15">
@@ -37533,7 +37565,7 @@
         <v>2</v>
       </c>
       <c r="AL19" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM19" s="32">
@@ -37561,7 +37593,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS19" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT19" s="16">
@@ -37589,7 +37621,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ19" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA19" s="17">
@@ -37617,7 +37649,7 @@
         <v>4</v>
       </c>
       <c r="BG19" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH19" s="18">
@@ -37633,20 +37665,20 @@
         <v>50</v>
       </c>
       <c r="BK19" s="22">
+        <f>SUM(G19*تنظیمات!$B$6,N19*تنظیمات!$C$6,U19*تنظیمات!$D$6,AB19*تنظیمات!E23,AI19*تنظیمات!$F$6,AP19*تنظیمات!$G$6,AW19*تنظیمات!$H$6,BD19*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="23">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BL19" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM19" s="22">
         <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="BM19" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN19" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN19" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.3">
@@ -37687,7 +37719,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J20" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K20" s="9">
@@ -37715,7 +37747,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q20" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R20" s="11">
@@ -37743,7 +37775,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X20" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y20" s="13">
@@ -37771,7 +37803,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE20" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF20" s="15">
@@ -37799,7 +37831,7 @@
         <v>2</v>
       </c>
       <c r="AL20" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM20" s="32">
@@ -37827,7 +37859,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS20" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT20" s="16">
@@ -37855,7 +37887,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ20" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA20" s="17">
@@ -37883,7 +37915,7 @@
         <v>4</v>
       </c>
       <c r="BG20" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH20" s="18">
@@ -37899,20 +37931,20 @@
         <v>50</v>
       </c>
       <c r="BK20" s="22">
+        <f>SUM(G20*تنظیمات!$B$6,N20*تنظیمات!$C$6,U20*تنظیمات!$D$6,AB20*تنظیمات!E24,AI20*تنظیمات!$F$6,AP20*تنظیمات!$G$6,AW20*تنظیمات!$H$6,BD20*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>0</v>
+      </c>
+      <c r="BL20" s="23">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="BL20" s="23">
+        <v>13</v>
+      </c>
+      <c r="BM20" s="22">
         <f t="shared" si="28"/>
-        <v>13</v>
-      </c>
-      <c r="BM20" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN20" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN20" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.3">
@@ -37953,7 +37985,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J21" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K21" s="9">
@@ -37981,7 +38013,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q21" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R21" s="11">
@@ -38009,7 +38041,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X21" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y21" s="13">
@@ -38037,7 +38069,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE21" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF21" s="15">
@@ -38065,7 +38097,7 @@
         <v>2</v>
       </c>
       <c r="AL21" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM21" s="32">
@@ -38093,7 +38125,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS21" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT21" s="16">
@@ -38121,7 +38153,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ21" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA21" s="17">
@@ -38149,7 +38181,7 @@
         <v>4</v>
       </c>
       <c r="BG21" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH21" s="18">
@@ -38165,20 +38197,20 @@
         <v>45</v>
       </c>
       <c r="BK21" s="22">
+        <f>SUM(G21*تنظیمات!$B$6,N21*تنظیمات!$C$6,U21*تنظیمات!$D$6,AB21*تنظیمات!E25,AI21*تنظیمات!$F$6,AP21*تنظیمات!$G$6,AW21*تنظیمات!$H$6,BD21*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>12.5</v>
+      </c>
+      <c r="BL21" s="23">
         <f t="shared" si="27"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="BL21" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM21" s="22">
         <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="BM21" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN21" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN21" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.3">
@@ -38219,7 +38251,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J22" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K22" s="9">
@@ -38247,7 +38279,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q22" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R22" s="11">
@@ -38275,7 +38307,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X22" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y22" s="13">
@@ -38303,7 +38335,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE22" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF22" s="15">
@@ -38331,7 +38363,7 @@
         <v>2</v>
       </c>
       <c r="AL22" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM22" s="32">
@@ -38359,7 +38391,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS22" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT22" s="16">
@@ -38387,7 +38419,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ22" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA22" s="17">
@@ -38415,7 +38447,7 @@
         <v>4</v>
       </c>
       <c r="BG22" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH22" s="18">
@@ -38431,20 +38463,20 @@
         <v>45</v>
       </c>
       <c r="BK22" s="22">
+        <f>SUM(G22*تنظیمات!$B$6,N22*تنظیمات!$C$6,U22*تنظیمات!$D$6,AB22*تنظیمات!E26,AI22*تنظیمات!$F$6,AP22*تنظیمات!$G$6,AW22*تنظیمات!$H$6,BD22*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>12.5</v>
+      </c>
+      <c r="BL22" s="23">
         <f t="shared" si="27"/>
-        <v>14.285714285714286</v>
-      </c>
-      <c r="BL22" s="23">
+        <v>2</v>
+      </c>
+      <c r="BM22" s="22">
         <f t="shared" si="28"/>
-        <v>3</v>
-      </c>
-      <c r="BM22" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN22" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN22" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.3">
@@ -38485,7 +38517,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J23" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K23" s="9">
@@ -38513,7 +38545,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q23" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R23" s="11">
@@ -38541,7 +38573,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X23" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y23" s="13">
@@ -38569,7 +38601,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE23" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF23" s="15">
@@ -38597,7 +38629,7 @@
         <v>2</v>
       </c>
       <c r="AL23" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM23" s="32">
@@ -38625,7 +38657,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS23" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT23" s="16">
@@ -38653,7 +38685,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ23" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA23" s="17">
@@ -38681,7 +38713,7 @@
         <v>4</v>
       </c>
       <c r="BG23" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH23" s="18">
@@ -38697,20 +38729,20 @@
         <v>45</v>
       </c>
       <c r="BK23" s="22">
+        <f>SUM(G23*تنظیمات!$B$6,N23*تنظیمات!$C$6,U23*تنظیمات!$D$6,AB23*تنظیمات!E27,AI23*تنظیمات!$F$6,AP23*تنظیمات!$G$6,AW23*تنظیمات!$H$6,BD23*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>-4.1666666666666661</v>
+      </c>
+      <c r="BL23" s="23">
         <f t="shared" si="27"/>
-        <v>-4.761904761904761</v>
-      </c>
-      <c r="BL23" s="23">
+        <v>22</v>
+      </c>
+      <c r="BM23" s="22">
         <f t="shared" si="28"/>
-        <v>20</v>
-      </c>
-      <c r="BM23" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN23" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN23" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.3">
@@ -38751,7 +38783,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J24" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K24" s="9">
@@ -38779,7 +38811,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q24" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R24" s="11">
@@ -38807,7 +38839,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X24" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y24" s="13">
@@ -38835,7 +38867,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE24" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF24" s="15">
@@ -38863,7 +38895,7 @@
         <v>2</v>
       </c>
       <c r="AL24" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM24" s="32">
@@ -38891,7 +38923,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS24" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT24" s="16">
@@ -38919,7 +38951,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ24" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA24" s="17">
@@ -38947,7 +38979,7 @@
         <v>4</v>
       </c>
       <c r="BG24" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH24" s="18">
@@ -38963,20 +38995,20 @@
         <v>44</v>
       </c>
       <c r="BK24" s="22">
+        <f>SUM(G24*تنظیمات!$B$6,N24*تنظیمات!$C$6,U24*تنظیمات!$D$6,AB24*تنظیمات!E28,AI24*تنظیمات!$F$6,AP24*تنظیمات!$G$6,AW24*تنظیمات!$H$6,BD24*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>-4.9999999999999991</v>
+      </c>
+      <c r="BL24" s="23">
         <f t="shared" si="27"/>
-        <v>-5.7142857142857135</v>
-      </c>
-      <c r="BL24" s="23">
+        <v>25</v>
+      </c>
+      <c r="BM24" s="22">
         <f t="shared" si="28"/>
-        <v>25</v>
-      </c>
-      <c r="BM24" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN24" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN24" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.3">
@@ -39017,7 +39049,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J25" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K25" s="9">
@@ -39045,7 +39077,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q25" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R25" s="11">
@@ -39073,7 +39105,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X25" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y25" s="13">
@@ -39101,7 +39133,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE25" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF25" s="15">
@@ -39129,7 +39161,7 @@
         <v>2</v>
       </c>
       <c r="AL25" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM25" s="32">
@@ -39157,7 +39189,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS25" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT25" s="16">
@@ -39185,7 +39217,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ25" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA25" s="17">
@@ -39213,7 +39245,7 @@
         <v>4</v>
       </c>
       <c r="BG25" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH25" s="18">
@@ -39229,20 +39261,20 @@
         <v>44</v>
       </c>
       <c r="BK25" s="22">
+        <f>SUM(G25*تنظیمات!$B$6,N25*تنظیمات!$C$6,U25*تنظیمات!$D$6,AB25*تنظیمات!E29,AI25*تنظیمات!$F$6,AP25*تنظیمات!$G$6,AW25*تنظیمات!$H$6,BD25*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>3.75</v>
+      </c>
+      <c r="BL25" s="23">
         <f t="shared" si="27"/>
-        <v>4.2857142857142856</v>
-      </c>
-      <c r="BL25" s="23">
+        <v>10</v>
+      </c>
+      <c r="BM25" s="22">
         <f t="shared" si="28"/>
-        <v>10</v>
-      </c>
-      <c r="BM25" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN25" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN25" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.3">
@@ -39283,7 +39315,7 @@
         <v>6.6666666666666661</v>
       </c>
       <c r="J26" s="8">
-        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$G$2:$G$26)</f>
+        <f>AVERAGEIF($H$2:$H$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26)</f>
         <v>7.2222222222222214</v>
       </c>
       <c r="K26" s="9">
@@ -39311,7 +39343,7 @@
         <v>4.0000000000000018</v>
       </c>
       <c r="Q26" s="10">
-        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$N$2:$N$26)</f>
+        <f>AVERAGEIF($O$2:$O$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$N$2:$N$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="R26" s="11">
@@ -39339,7 +39371,7 @@
         <v>5.0666666666666673</v>
       </c>
       <c r="X26" s="12">
-        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$U$2:$U$26)</f>
+        <f>AVERAGEIF($V$2:$V$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$U$2:$U$26)</f>
         <v>9.0909090909090917</v>
       </c>
       <c r="Y26" s="13">
@@ -39367,7 +39399,7 @@
         <v>5.3333333333333348</v>
       </c>
       <c r="AE26" s="14">
-        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AB$2:$AB$26)</f>
+        <f>AVERAGEIF($AC$2:$AC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AB$2:$AB$26)</f>
         <v>8.695652173913043</v>
       </c>
       <c r="AF26" s="15">
@@ -39395,7 +39427,7 @@
         <v>2</v>
       </c>
       <c r="AL26" s="20">
-        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AI$2:$AI$26)</f>
+        <f>AVERAGEIF($AJ$2:$AJ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AI$2:$AI$26)</f>
         <v>2</v>
       </c>
       <c r="AM26" s="32">
@@ -39423,7 +39455,7 @@
         <v>2.6666666666666661</v>
       </c>
       <c r="AS26" s="14">
-        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AP$2:$AP$26)</f>
+        <f>AVERAGEIF($AQ$2:$AQ$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AP$2:$AP$26)</f>
         <v>2.6666666666666661</v>
       </c>
       <c r="AT26" s="16">
@@ -39451,7 +39483,7 @@
         <v>2.5333333333333328</v>
       </c>
       <c r="AZ26" s="19">
-        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$AW$2:$AW$26)</f>
+        <f>AVERAGEIF($AX$2:$AX$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AW$2:$AW$26)</f>
         <v>3.0434782608695654</v>
       </c>
       <c r="BA26" s="17">
@@ -39479,7 +39511,7 @@
         <v>4</v>
       </c>
       <c r="BG26" s="21">
-        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$6),$BD$2:$BD$26)</f>
+        <f>AVERAGEIF($BE$2:$BE$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BD$2:$BD$26)</f>
         <v>4</v>
       </c>
       <c r="BH26" s="18">
@@ -39495,20 +39527,20 @@
         <v>44</v>
       </c>
       <c r="BK26" s="22">
+        <f>SUM(G26*تنظیمات!$B$6,N26*تنظیمات!$C$6,U26*تنظیمات!$D$6,AB26*تنظیمات!E30,AI26*تنظیمات!$F$6,AP26*تنظیمات!$G$6,AW26*تنظیمات!$H$6,BD26*تنظیمات!$I$6)/SUM(تنظیمات!$B$6:$I$6)</f>
+        <v>5.4166666666666661</v>
+      </c>
+      <c r="BL26" s="23">
         <f t="shared" si="27"/>
-        <v>6.1904761904761898</v>
-      </c>
-      <c r="BL26" s="23">
+        <v>9</v>
+      </c>
+      <c r="BM26" s="22">
         <f t="shared" si="28"/>
-        <v>9</v>
-      </c>
-      <c r="BM26" s="22">
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="BN26" s="22">
         <f t="shared" si="29"/>
-        <v>4.2285714285714304</v>
-      </c>
-      <c r="BN26" s="22">
-        <f t="shared" si="30"/>
-        <v>12.034632034632038</v>
+        <v>9.0151515151515156</v>
       </c>
     </row>
   </sheetData>
@@ -46117,7 +46149,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -46185,7 +46217,7 @@
       </c>
       <c r="B2" s="31">
         <f>'کارنامه فردی'!BL2</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>'کارنامه فردی'!B2</f>
@@ -46229,7 +46261,7 @@
       </c>
       <c r="M2" s="8">
         <f>'کارنامه فردی'!BK2</f>
-        <v>10.952380952380953</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -46283,7 +46315,7 @@
       </c>
       <c r="M3" s="8">
         <f>'کارنامه فردی'!BK3</f>
-        <v>4.2857142857142856</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -46293,7 +46325,7 @@
       </c>
       <c r="B4" s="31">
         <f>'کارنامه فردی'!BL4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>'کارنامه فردی'!B4</f>
@@ -46337,7 +46369,7 @@
       </c>
       <c r="M4" s="8">
         <f>'کارنامه فردی'!BK4</f>
-        <v>14.285714285714286</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -46347,7 +46379,7 @@
       </c>
       <c r="B5" s="31">
         <f>'کارنامه فردی'!BL5</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="9" t="str">
         <f>'کارنامه فردی'!B5</f>
@@ -46391,7 +46423,7 @@
       </c>
       <c r="M5" s="8">
         <f>'کارنامه فردی'!BK5</f>
-        <v>14.285714285714286</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -46401,7 +46433,7 @@
       </c>
       <c r="B6" s="31">
         <f>'کارنامه فردی'!BL6</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="9" t="str">
         <f>'کارنامه فردی'!B6</f>
@@ -46445,7 +46477,7 @@
       </c>
       <c r="M6" s="8">
         <f>'کارنامه فردی'!BK6</f>
-        <v>-4.761904761904761</v>
+        <v>-4.1666666666666661</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -46455,7 +46487,7 @@
       </c>
       <c r="B7" s="31">
         <f>'کارنامه فردی'!BL7</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="str">
         <f>'کارنامه فردی'!B7</f>
@@ -46499,7 +46531,7 @@
       </c>
       <c r="M7" s="8">
         <f>'کارنامه فردی'!BK7</f>
-        <v>-4.761904761904761</v>
+        <v>-4.1666666666666661</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -46509,7 +46541,7 @@
       </c>
       <c r="B8" s="31">
         <f>'کارنامه فردی'!BL8</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9" t="str">
         <f>'کارنامه فردی'!B8</f>
@@ -46553,7 +46585,7 @@
       </c>
       <c r="M8" s="8">
         <f>'کارنامه فردی'!BK8</f>
-        <v>21.428571428571427</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -46563,7 +46595,7 @@
       </c>
       <c r="B9" s="31">
         <f>'کارنامه فردی'!BL9</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9" t="str">
         <f>'کارنامه فردی'!B9</f>
@@ -46607,7 +46639,7 @@
       </c>
       <c r="M9" s="8">
         <f>'کارنامه فردی'!BK9</f>
-        <v>21.428571428571427</v>
+        <v>10.416666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -46617,7 +46649,7 @@
       </c>
       <c r="B10" s="31">
         <f>'کارنامه فردی'!BL10</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="str">
         <f>'کارنامه فردی'!B10</f>
@@ -46661,7 +46693,7 @@
       </c>
       <c r="M10" s="8">
         <f>'کارنامه فردی'!BK10</f>
-        <v>-4.761904761904761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -46671,7 +46703,7 @@
       </c>
       <c r="B11" s="31">
         <f>'کارنامه فردی'!BL11</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="str">
         <f>'کارنامه فردی'!B11</f>
@@ -46715,7 +46747,7 @@
       </c>
       <c r="M11" s="8">
         <f>'کارنامه فردی'!BK11</f>
-        <v>-4.761904761904761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -46769,7 +46801,7 @@
       </c>
       <c r="M12" s="8">
         <f>'کارنامه فردی'!BK12</f>
-        <v>6.6666666666666661</v>
+        <v>5.833333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -46823,7 +46855,7 @@
       </c>
       <c r="M13" s="8">
         <f>'کارنامه فردی'!BK13</f>
-        <v>2.8571428571428572</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -47211,7 +47243,7 @@
       </c>
       <c r="B21" s="31">
         <f>'کارنامه فردی'!BL21</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>'کارنامه فردی'!B21</f>
@@ -47255,7 +47287,7 @@
       </c>
       <c r="M21" s="8">
         <f>'کارنامه فردی'!BK21</f>
-        <v>14.285714285714286</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -47265,7 +47297,7 @@
       </c>
       <c r="B22" s="31">
         <f>'کارنامه فردی'!BL22</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>'کارنامه فردی'!B22</f>
@@ -47309,7 +47341,7 @@
       </c>
       <c r="M22" s="8">
         <f>'کارنامه فردی'!BK22</f>
-        <v>14.285714285714286</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -47319,7 +47351,7 @@
       </c>
       <c r="B23" s="31">
         <f>'کارنامه فردی'!BL23</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>'کارنامه فردی'!B23</f>
@@ -47363,7 +47395,7 @@
       </c>
       <c r="M23" s="8">
         <f>'کارنامه فردی'!BK23</f>
-        <v>-4.761904761904761</v>
+        <v>-4.1666666666666661</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -47417,7 +47449,7 @@
       </c>
       <c r="M24" s="8">
         <f>'کارنامه فردی'!BK24</f>
-        <v>-5.7142857142857135</v>
+        <v>-4.9999999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -47471,7 +47503,7 @@
       </c>
       <c r="M25" s="8">
         <f>'کارنامه فردی'!BK25</f>
-        <v>4.2857142857142856</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -47525,7 +47557,7 @@
       </c>
       <c r="M26" s="8">
         <f>'کارنامه فردی'!BK26</f>
-        <v>6.1904761904761898</v>
+        <v>5.4166666666666661</v>
       </c>
     </row>
   </sheetData>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D0DD8-1D64-432C-B07F-56846E489E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB93DAC3-8C4D-403A-9056-501B820FB68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورودی" sheetId="1" r:id="rId1"/>
@@ -852,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -952,9 +952,6 @@
     <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -963,6 +960,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1337,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3885,7 +3903,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3918,7 +3936,7 @@
       <c r="I1" s="7">
         <v>8</v>
       </c>
-      <c r="J1" s="37">
+      <c r="J1" s="36">
         <v>9</v>
       </c>
     </row>
@@ -3950,7 +3968,7 @@
       <c r="I2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3982,7 +4000,7 @@
       <c r="I3" s="9">
         <v>51</v>
       </c>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>1</v>
       </c>
     </row>
@@ -4014,7 +4032,7 @@
       <c r="I4" s="9">
         <v>60</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>60</v>
       </c>
     </row>
@@ -4054,7 +4072,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
@@ -4087,28 +4105,28 @@
       <c r="I6" s="9">
         <v>1</v>
       </c>
-      <c r="J6" s="38"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="21">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -4565,7 +4583,7 @@
   <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11136,7 +11154,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11220,7 +11238,7 @@
       </c>
       <c r="H5" s="7">
         <f>INDEX('کارنامه فردی'!L2:L26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>14.24</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11254,7 +11272,7 @@
       </c>
       <c r="H6" s="7">
         <f>INDEX('کارنامه فردی'!U2:U26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>18.18</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11288,7 +11306,7 @@
       </c>
       <c r="H7" s="7">
         <f>INDEX('کارنامه فردی'!AD2:AD26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>18.18</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11322,7 +11340,7 @@
       </c>
       <c r="H8" s="7">
         <f>INDEX('کارنامه فردی'!AM2:AM26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>18.18</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11356,7 +11374,7 @@
       </c>
       <c r="H9" s="7">
         <f>INDEX('کارنامه فردی'!AV2:AV26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>10.42</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11390,7 +11408,7 @@
       </c>
       <c r="H10" s="7">
         <f>INDEX('کارنامه فردی'!BE2:BE26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>9.7200000000000006</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11424,7 +11442,7 @@
       </c>
       <c r="H11" s="7">
         <f>INDEX('کارنامه فردی'!BN2:BN26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>10.87</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11458,7 +11476,7 @@
       </c>
       <c r="H12" s="7">
         <f>INDEX('کارنامه فردی'!BW2:BW26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>8.33</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11560,7 +11578,7 @@
       </c>
       <c r="J1" s="1" t="str">
         <f>_xlfn.CONCAT("  میانگین  ",D31,"  نفر برتر")</f>
-        <v xml:space="preserve">  میانگین  10  نفر برتر</v>
+        <v xml:space="preserve">  میانگین  3  نفر برتر</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11602,7 +11620,7 @@
       </c>
       <c r="J2" s="6">
         <f>AVERAGEIF($A$2:$A$26,_xlfn.CONCAT("&lt;=",$D$31),$H$2:$H$26)</f>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -11644,7 +11662,7 @@
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J26" si="3">AVERAGEIF($A$2:$A$26,_xlfn.CONCAT("&lt;=",$D$31),$H$2:$H$26)</f>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -11686,7 +11704,7 @@
       </c>
       <c r="J4" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -11728,7 +11746,7 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -11770,7 +11788,7 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -11812,7 +11830,7 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -11854,7 +11872,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -11896,7 +11914,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -11938,7 +11956,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -11980,7 +11998,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -12022,7 +12040,7 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -12064,7 +12082,7 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -12106,7 +12124,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -12148,7 +12166,7 @@
       </c>
       <c r="J15" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -12190,7 +12208,7 @@
       </c>
       <c r="J16" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -12232,7 +12250,7 @@
       </c>
       <c r="J17" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -12274,7 +12292,7 @@
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -12316,7 +12334,7 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -12358,7 +12376,7 @@
       </c>
       <c r="J20" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -12400,7 +12418,7 @@
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -12442,7 +12460,7 @@
       </c>
       <c r="J22" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -12484,7 +12502,7 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -12526,7 +12544,7 @@
       </c>
       <c r="J24" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -12568,7 +12586,7 @@
       </c>
       <c r="J25" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -12610,7 +12628,7 @@
       </c>
       <c r="J26" s="6">
         <f t="shared" si="3"/>
-        <v>14.242424242424242</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -12645,7 +12663,7 @@
       </c>
       <c r="D31" s="2">
         <f>تنظیمات!B7</f>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -13663,7 +13681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19EB35-4242-47CC-89DF-F15C85E8058A}">
   <dimension ref="A1:GV30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CA32" sqref="CA32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14427,7 +14447,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="27">
-        <f>ROUND(((D2*3)-E2)/(SUM(D2:F2)*3)*100,2)</f>
+        <f t="shared" ref="G2:G26" si="0">ROUND(((D2*3)-E2)/(SUM(D2:F2)*3)*100,2)</f>
         <v>100</v>
       </c>
       <c r="H2" s="27">
@@ -14446,9 +14466,9 @@
         <f>ROUND(AVERAGE($G$2:$G$26),2)</f>
         <v>9.6</v>
       </c>
-      <c r="L2" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L2" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M2" s="9">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -14463,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="28">
-        <f t="shared" ref="P2:P26" si="0">ROUND(((M2*3)-N2)/(SUM(M2:O2)*3)*100,2)</f>
+        <f t="shared" ref="P2:P26" si="1">ROUND(((M2*3)-N2)/(SUM(M2:O2)*3)*100,2)</f>
         <v>100</v>
       </c>
       <c r="Q2" s="28">
@@ -14482,9 +14502,9 @@
         <f>ROUND(AVERAGE($P$2:$P$26),2)</f>
         <v>12</v>
       </c>
-      <c r="U2" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U2" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V2" s="10">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -14518,9 +14538,9 @@
         <f>ROUND(AVERAGE($Y$2:$Y$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AD2" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD2" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE2" s="11">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -14554,9 +14574,9 @@
         <f>ROUND(AVERAGE($AH$2:$AH$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AM2" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM2" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN2" s="12">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -14590,9 +14610,9 @@
         <f>ROUND(AVERAGE($AQ$2:$AQ$26),2)</f>
         <v>8.67</v>
       </c>
-      <c r="AV2" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV2" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW2" s="24">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -14626,9 +14646,9 @@
         <f>ROUND(AVERAGE($AZ$2:$AZ$26),2)</f>
         <v>8</v>
       </c>
-      <c r="BE2" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE2" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF2" s="13">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -14662,9 +14682,9 @@
         <f>ROUND(AVERAGE($BI$2:$BI$26),2)</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN2" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN2" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO2" s="14">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -14698,20 +14718,20 @@
         <f>ROUND( AVERAGE($BR$2:$BR$26),2)</f>
         <v>6.67</v>
       </c>
-      <c r="BW2" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW2" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX2" s="15">
-        <f>SUM(BO2,BF2,AN2,AE2,V2,M2,D2)</f>
+        <f t="shared" ref="BX2:BX26" si="2">SUM(BO2,BF2,AN2,AE2,V2,M2,D2)</f>
         <v>50</v>
       </c>
       <c r="BY2" s="15">
-        <f>SUM(BP2,BG2,AO2,AF2,W2,N2,E2)</f>
+        <f t="shared" ref="BY2:BY26" si="3">SUM(BP2,BG2,AO2,AF2,W2,N2,E2)</f>
         <v>0</v>
       </c>
       <c r="BZ2" s="15">
-        <f>SUM(BQ2,BH2,AP2,AG2,X2,O2,F2)</f>
+        <f t="shared" ref="BZ2:BZ26" si="4">SUM(BQ2,BH2,AP2,AG2,X2,O2,F2)</f>
         <v>0</v>
       </c>
       <c r="CA2" s="34">
@@ -15245,28 +15265,28 @@
         <v>0</v>
       </c>
       <c r="G3" s="27">
-        <f>ROUND(((D3*3)-E3)/(SUM(D3:F3)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>-33.33</v>
       </c>
       <c r="H3" s="27">
-        <f t="shared" ref="H3:H26" si="1">ROUND(MAX($G$2:$G$26),2)</f>
+        <f t="shared" ref="H3:H26" si="5">ROUND(MAX($G$2:$G$26),2)</f>
         <v>100</v>
       </c>
       <c r="I3" s="27">
-        <f t="shared" ref="I3:I26" si="2">ROUND(MIN($G$2:$G$26),2)</f>
+        <f t="shared" ref="I3:I26" si="6">ROUND(MIN($G$2:$G$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J26" si="3">RANK(G3,$G$2:$G$26)</f>
+        <f t="shared" ref="J3:J26" si="7">RANK(G3,$G$2:$G$26)</f>
         <v>24</v>
       </c>
       <c r="K3" s="27">
-        <f t="shared" ref="K3:K26" si="4">ROUND(AVERAGE($G$2:$G$26),2)</f>
+        <f t="shared" ref="K3:K26" si="8">ROUND(AVERAGE($G$2:$G$26),2)</f>
         <v>9.6</v>
       </c>
-      <c r="L3" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L3" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M3" s="9">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -15281,7 +15301,7 @@
         <v>5</v>
       </c>
       <c r="P3" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q3" s="28">
@@ -15289,20 +15309,20 @@
         <v>100</v>
       </c>
       <c r="R3" s="28">
-        <f t="shared" ref="R3:R26" si="5">ROUND(MIN($P$2:$P$26),2)</f>
+        <f t="shared" ref="R3:R26" si="9">ROUND(MIN($P$2:$P$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="S3" s="9">
-        <f t="shared" ref="S3:S26" si="6">RANK(P3,$P$2:$P$26)</f>
+        <f t="shared" ref="S3:S26" si="10">RANK(P3,$P$2:$P$26)</f>
         <v>5</v>
       </c>
       <c r="T3" s="28">
-        <f t="shared" ref="T3:T26" si="7">ROUND(AVERAGE($P$2:$P$26),2)</f>
+        <f t="shared" ref="T3:T26" si="11">ROUND(AVERAGE($P$2:$P$26),2)</f>
         <v>12</v>
       </c>
-      <c r="U3" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U3" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V3" s="10">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -15317,28 +15337,28 @@
         <v>5</v>
       </c>
       <c r="Y3" s="29">
-        <f t="shared" ref="Y3:Y26" si="8">ROUND(((V3*3)-W3)/(SUM(V3:X3)*3)*100,2)</f>
+        <f t="shared" ref="Y3:Y26" si="12">ROUND(((V3*3)-W3)/(SUM(V3:X3)*3)*100,2)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="29">
-        <f t="shared" ref="Z3:Z26" si="9">ROUND(MAX($Y$2:$Y$26),2)</f>
+        <f t="shared" ref="Z3:Z26" si="13">ROUND(MAX($Y$2:$Y$26),2)</f>
         <v>100</v>
       </c>
       <c r="AA3" s="29">
-        <f t="shared" ref="AA3:AA26" si="10">ROUND(MIN($Y$2:$Y$26),2)</f>
+        <f t="shared" ref="AA3:AA26" si="14">ROUND(MIN($Y$2:$Y$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="AB3" s="10">
-        <f t="shared" ref="AB3:AB26" si="11">RANK(Y3,$Y$2:$Y$26)</f>
+        <f t="shared" ref="AB3:AB26" si="15">RANK(Y3,$Y$2:$Y$26)</f>
         <v>5</v>
       </c>
       <c r="AC3" s="29">
-        <f t="shared" ref="AC3:AC26" si="12">ROUND(AVERAGE($Y$2:$Y$26),2)</f>
+        <f t="shared" ref="AC3:AC26" si="16">ROUND(AVERAGE($Y$2:$Y$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AD3" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD3" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE3" s="11">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -15353,28 +15373,28 @@
         <v>5</v>
       </c>
       <c r="AH3" s="30">
-        <f t="shared" ref="AH3:AH26" si="13">ROUND(((AE3*3)-AF3)/(SUM(AE3:AG3)*3)*100,2)</f>
+        <f t="shared" ref="AH3:AH26" si="17">ROUND(((AE3*3)-AF3)/(SUM(AE3:AG3)*3)*100,2)</f>
         <v>0</v>
       </c>
       <c r="AI3" s="30">
-        <f t="shared" ref="AI3:AI26" si="14">ROUND(MAX($AH$2:$AH$26),2)</f>
+        <f t="shared" ref="AI3:AI26" si="18">ROUND(MAX($AH$2:$AH$26),2)</f>
         <v>100</v>
       </c>
       <c r="AJ3" s="30">
-        <f t="shared" ref="AJ3:AJ26" si="15">ROUND(MIN($AH$2:$AH$26),2)</f>
+        <f t="shared" ref="AJ3:AJ26" si="19">ROUND(MIN($AH$2:$AH$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="AK3" s="11">
-        <f t="shared" ref="AK3:AK26" si="16">RANK(AH3,$AH$2:$AH$26)</f>
+        <f t="shared" ref="AK3:AK26" si="20">RANK(AH3,$AH$2:$AH$26)</f>
         <v>5</v>
       </c>
       <c r="AL3" s="30">
-        <f t="shared" ref="AL3:AL26" si="17">ROUND(AVERAGE($AH$2:$AH$26),2)</f>
+        <f t="shared" ref="AL3:AL26" si="21">ROUND(AVERAGE($AH$2:$AH$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AM3" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM3" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN3" s="12">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -15389,28 +15409,28 @@
         <v>10</v>
       </c>
       <c r="AQ3" s="31">
-        <f t="shared" ref="AQ3:AQ26" si="18">ROUND( ((AN3*3)-AO3)/(SUM(AN3:AP3)*3)*100,2)</f>
+        <f t="shared" ref="AQ3:AQ26" si="22">ROUND( ((AN3*3)-AO3)/(SUM(AN3:AP3)*3)*100,2)</f>
         <v>0</v>
       </c>
       <c r="AR3" s="31">
-        <f t="shared" ref="AR3:AR26" si="19">ROUND(MAX($AQ$2:$AQ$26),2)</f>
+        <f t="shared" ref="AR3:AR26" si="23">ROUND(MAX($AQ$2:$AQ$26),2)</f>
         <v>100</v>
       </c>
       <c r="AS3" s="31">
-        <f t="shared" ref="AS3:AS26" si="20">ROUND(MIN($AQ$2:$AQ$26),2)</f>
+        <f t="shared" ref="AS3:AS26" si="24">ROUND(MIN($AQ$2:$AQ$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="AT3" s="12">
-        <f t="shared" ref="AT3:AT26" si="21">RANK(AQ3,$AQ$2:$AQ$26)</f>
+        <f t="shared" ref="AT3:AT26" si="25">RANK(AQ3,$AQ$2:$AQ$26)</f>
         <v>4</v>
       </c>
       <c r="AU3" s="31">
-        <f t="shared" ref="AU3:AU26" si="22">ROUND(AVERAGE($AQ$2:$AQ$26),2)</f>
+        <f t="shared" ref="AU3:AU26" si="26">ROUND(AVERAGE($AQ$2:$AQ$26),2)</f>
         <v>8.67</v>
       </c>
-      <c r="AV3" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV3" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW3" s="24">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -15425,28 +15445,28 @@
         <v>10</v>
       </c>
       <c r="AZ3" s="30">
-        <f t="shared" ref="AZ3:AZ26" si="23">ROUND( ((AW3*3)-AX3)/(SUM(AW3:AY3)*3)*100,2)</f>
+        <f t="shared" ref="AZ3:AZ26" si="27">ROUND( ((AW3*3)-AX3)/(SUM(AW3:AY3)*3)*100,2)</f>
         <v>0</v>
       </c>
       <c r="BA3" s="30">
-        <f t="shared" ref="BA3:BA26" si="24">ROUND(MAX($AZ$2:$AZ$26),2)</f>
+        <f t="shared" ref="BA3:BA26" si="28">ROUND(MAX($AZ$2:$AZ$26),2)</f>
         <v>100</v>
       </c>
       <c r="BB3" s="30">
-        <f t="shared" ref="BB3:BB26" si="25">ROUND(MIN($AZ$2:$AZ$26),2)</f>
+        <f t="shared" ref="BB3:BB26" si="29">ROUND(MIN($AZ$2:$AZ$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="BC3" s="24">
-        <f t="shared" ref="BC3:BC26" si="26">RANK(AZ3,$AZ$2:$AZ$26)</f>
+        <f t="shared" ref="BC3:BC26" si="30">RANK(AZ3,$AZ$2:$AZ$26)</f>
         <v>4</v>
       </c>
       <c r="BD3" s="30">
-        <f t="shared" ref="BD3:BD26" si="27">ROUND(AVERAGE($AZ$2:$AZ$26),2)</f>
+        <f t="shared" ref="BD3:BD26" si="31">ROUND(AVERAGE($AZ$2:$AZ$26),2)</f>
         <v>8</v>
       </c>
-      <c r="BE3" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE3" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF3" s="13">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -15461,28 +15481,28 @@
         <v>9</v>
       </c>
       <c r="BI3" s="32">
-        <f t="shared" ref="BI3:BI26" si="28">ROUND(  ((BF3*3)-BG3)/(SUM(BF3:BH3)*3)*100,2)</f>
+        <f t="shared" ref="BI3:BI26" si="32">ROUND(  ((BF3*3)-BG3)/(SUM(BF3:BH3)*3)*100,2)</f>
         <v>-3.33</v>
       </c>
       <c r="BJ3" s="32">
-        <f t="shared" ref="BJ3:BJ26" si="29">ROUND(MAX($BI$2:$BI$26),2)</f>
+        <f t="shared" ref="BJ3:BJ26" si="33">ROUND(MAX($BI$2:$BI$26),2)</f>
         <v>100</v>
       </c>
       <c r="BK3" s="32">
-        <f t="shared" ref="BK3:BK26" si="30">ROUND(MIN($BI$2:$BI$26),2)</f>
+        <f t="shared" ref="BK3:BK26" si="34">ROUND(MIN($BI$2:$BI$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="BL3" s="13">
-        <f t="shared" ref="BL3:BL26" si="31">RANK(BI3,$BI$2:$BI$26)</f>
+        <f t="shared" ref="BL3:BL26" si="35">RANK(BI3,$BI$2:$BI$26)</f>
         <v>24</v>
       </c>
       <c r="BM3" s="32">
-        <f t="shared" ref="BM3:BM26" si="32">ROUND(AVERAGE($BI$2:$BI$26),2)</f>
+        <f t="shared" ref="BM3:BM26" si="36">ROUND(AVERAGE($BI$2:$BI$26),2)</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN3" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN3" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO3" s="14">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -15497,39 +15517,39 @@
         <v>10</v>
       </c>
       <c r="BR3" s="33">
-        <f t="shared" ref="BR3:BR26" si="33">ROUND( ((BO3*3)-BP3)/(SUM(BO3:BQ3)*3)*100,2)</f>
+        <f t="shared" ref="BR3:BR26" si="37">ROUND( ((BO3*3)-BP3)/(SUM(BO3:BQ3)*3)*100,2)</f>
         <v>0</v>
       </c>
       <c r="BS3" s="33">
-        <f t="shared" ref="BS3:BS26" si="34">ROUND(MAX($BR$2:$BR$26),2)</f>
+        <f t="shared" ref="BS3:BS26" si="38">ROUND(MAX($BR$2:$BR$26),2)</f>
         <v>100</v>
       </c>
       <c r="BT3" s="33">
-        <f t="shared" ref="BT3:BT26" si="35">ROUND(MIN($BR$2:$BR$26),2)</f>
+        <f t="shared" ref="BT3:BT26" si="39">ROUND(MIN($BR$2:$BR$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="BU3" s="14">
-        <f t="shared" ref="BU3:BU26" si="36">RANK(BR3,$BR$2:$BR$26)</f>
+        <f t="shared" ref="BU3:BU26" si="40">RANK(BR3,$BR$2:$BR$26)</f>
         <v>3</v>
       </c>
       <c r="BV3" s="33">
-        <f t="shared" ref="BV3:BV26" si="37">ROUND( AVERAGE($BR$2:$BR$26),2)</f>
+        <f t="shared" ref="BV3:BV26" si="41">ROUND( AVERAGE($BR$2:$BR$26),2)</f>
         <v>6.67</v>
       </c>
-      <c r="BW3" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW3" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX3" s="15">
-        <f>SUM(BO3,BF3,AN3,AE3,V3,M3,D3)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY3" s="15">
-        <f>SUM(BP3,BG3,AO3,AF3,W3,N3,E3)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="BZ3" s="15">
-        <f>SUM(BQ3,BH3,AP3,AG3,X3,O3,F3)</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="CA3" s="34">
@@ -15537,23 +15557,23 @@
         <v>-4.58</v>
       </c>
       <c r="CB3" s="34">
-        <f t="shared" ref="CB3:CB26" si="38">ROUND(MAX($CA$2:$CA$26),2)</f>
+        <f t="shared" ref="CB3:CB26" si="42">ROUND(MAX($CA$2:$CA$26),2)</f>
         <v>100</v>
       </c>
       <c r="CC3" s="34">
-        <f t="shared" ref="CC3:CC26" si="39">ROUND(MIN($CA$2:$CA$26),2)</f>
+        <f t="shared" ref="CC3:CC26" si="43">ROUND(MIN($CA$2:$CA$26),2)</f>
         <v>-33.33</v>
       </c>
       <c r="CD3" s="16">
-        <f t="shared" ref="CD3:CD26" si="40">RANK(CA3,$CA$2:$CA$26)</f>
+        <f t="shared" ref="CD3:CD26" si="44">RANK(CA3,$CA$2:$CA$26)</f>
         <v>23</v>
       </c>
       <c r="CE3" s="34">
-        <f t="shared" ref="CE3:CE26" si="41">ROUND(AVERAGE($CA$2:$CA$26),2)</f>
+        <f t="shared" ref="CE3:CE26" si="45">ROUND(AVERAGE($CA$2:$CA$26),2)</f>
         <v>9.68</v>
       </c>
       <c r="CF3" s="34">
-        <f t="shared" ref="CF3:CF26" si="42">ROUND(AVERAGEIF($CD$2:$CD$26,"&lt;=10",$CA$2:$CA$26),2)</f>
+        <f t="shared" ref="CF3:CF26" si="46">ROUND(AVERAGEIF($CD$2:$CD$26,"&lt;=10",$CA$2:$CA$26),2)</f>
         <v>30.58</v>
       </c>
       <c r="CG3" s="7">
@@ -16063,28 +16083,28 @@
         <v>0</v>
       </c>
       <c r="G4" s="27">
-        <f>ROUND(((D4*3)-E4)/(SUM(D4:F4)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>46.67</v>
       </c>
       <c r="H4" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I4" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K4" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L4" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L4" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M4" s="9">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16099,28 +16119,28 @@
         <v>0</v>
       </c>
       <c r="P4" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q4" s="28">
-        <f t="shared" ref="Q3:Q26" si="43">ROUND(MAX($P$2:$P$26),2)</f>
+        <f t="shared" ref="Q4:Q26" si="47">ROUND(MAX($P$2:$P$26),2)</f>
         <v>100</v>
       </c>
       <c r="R4" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T4" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U4" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U4" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V4" s="10">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16135,28 +16155,28 @@
         <v>5</v>
       </c>
       <c r="Y4" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z4" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA4" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB4" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC4" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD4" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD4" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE4" s="11">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16171,28 +16191,28 @@
         <v>5</v>
       </c>
       <c r="AH4" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI4" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ4" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK4" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL4" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM4" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM4" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN4" s="12">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16207,28 +16227,28 @@
         <v>10</v>
       </c>
       <c r="AQ4" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR4" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS4" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT4" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU4" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV4" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV4" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW4" s="24">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16243,28 +16263,28 @@
         <v>10</v>
       </c>
       <c r="AZ4" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA4" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB4" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC4" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD4" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE4" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE4" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF4" s="13">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16279,28 +16299,28 @@
         <v>10</v>
       </c>
       <c r="BI4" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ4" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK4" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL4" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM4" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN4" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN4" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO4" s="14">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16315,39 +16335,39 @@
         <v>10</v>
       </c>
       <c r="BR4" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS4" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT4" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU4" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV4" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW4" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW4" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX4" s="15">
-        <f>SUM(BO4,BF4,AN4,AE4,V4,M4,D4)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="BY4" s="15">
-        <f>SUM(BP4,BG4,AO4,AF4,W4,N4,E4)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BZ4" s="15">
-        <f>SUM(BQ4,BH4,AP4,AG4,X4,O4,F4)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="CA4" s="34">
@@ -16355,23 +16375,23 @@
         <v>18.329999999999998</v>
       </c>
       <c r="CB4" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC4" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD4" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="CE4" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF4" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG4" s="7">
@@ -16881,28 +16901,28 @@
         <v>5</v>
       </c>
       <c r="G5" s="27">
-        <f>ROUND(((D5*3)-E5)/(SUM(D5:F5)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I5" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K5" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L5" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L5" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M5" s="9">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16917,28 +16937,28 @@
         <v>0</v>
       </c>
       <c r="P5" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q5" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R5" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T5" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U5" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U5" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V5" s="10">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16953,28 +16973,28 @@
         <v>5</v>
       </c>
       <c r="Y5" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z5" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA5" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB5" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC5" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD5" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD5" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE5" s="11">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16989,28 +17009,28 @@
         <v>5</v>
       </c>
       <c r="AH5" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI5" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ5" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK5" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL5" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM5" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM5" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN5" s="12">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17025,28 +17045,28 @@
         <v>10</v>
       </c>
       <c r="AQ5" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR5" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS5" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT5" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU5" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV5" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV5" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW5" s="24">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17061,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AZ5" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA5" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB5" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC5" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD5" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE5" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE5" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF5" s="13">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17097,28 +17117,28 @@
         <v>10</v>
       </c>
       <c r="BI5" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ5" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK5" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL5" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM5" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN5" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN5" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO5" s="14">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17133,39 +17153,39 @@
         <v>10</v>
       </c>
       <c r="BR5" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS5" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT5" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU5" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV5" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW5" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW5" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX5" s="15">
-        <f>SUM(BO5,BF5,AN5,AE5,V5,M5,D5)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BY5" s="15">
-        <f>SUM(BP5,BG5,AO5,AF5,W5,N5,E5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ5" s="15">
-        <f>SUM(BQ5,BH5,AP5,AG5,X5,O5,F5)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA5" s="34">
@@ -17173,23 +17193,23 @@
         <v>12.5</v>
       </c>
       <c r="CB5" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC5" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD5" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="CE5" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF5" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG5" s="7">
@@ -17699,28 +17719,28 @@
         <v>5</v>
       </c>
       <c r="G6" s="27">
-        <f>ROUND(((D6*3)-E6)/(SUM(D6:F6)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I6" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K6" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L6" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L6" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M6" s="9">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17735,28 +17755,28 @@
         <v>5</v>
       </c>
       <c r="P6" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R6" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T6" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U6" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U6" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V6" s="10">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17771,28 +17791,28 @@
         <v>0</v>
       </c>
       <c r="Y6" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-33.33</v>
       </c>
       <c r="Z6" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA6" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB6" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="AC6" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD6" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD6" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE6" s="11">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17807,28 +17827,28 @@
         <v>5</v>
       </c>
       <c r="AH6" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI6" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ6" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK6" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL6" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM6" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM6" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN6" s="12">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17843,28 +17863,28 @@
         <v>10</v>
       </c>
       <c r="AQ6" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR6" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS6" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT6" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU6" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV6" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV6" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW6" s="24">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17879,28 +17899,28 @@
         <v>10</v>
       </c>
       <c r="AZ6" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA6" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB6" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC6" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD6" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE6" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE6" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF6" s="13">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17915,28 +17935,28 @@
         <v>10</v>
       </c>
       <c r="BI6" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ6" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK6" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL6" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM6" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN6" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN6" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO6" s="14">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17951,39 +17971,39 @@
         <v>10</v>
       </c>
       <c r="BR6" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS6" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT6" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU6" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV6" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW6" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW6" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX6" s="15">
-        <f>SUM(BO6,BF6,AN6,AE6,V6,M6,D6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY6" s="15">
-        <f>SUM(BP6,BG6,AO6,AF6,W6,N6,E6)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BZ6" s="15">
-        <f>SUM(BQ6,BH6,AP6,AG6,X6,O6,F6)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA6" s="34">
@@ -17991,23 +18011,23 @@
         <v>-4.17</v>
       </c>
       <c r="CB6" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC6" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD6" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="CE6" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF6" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG6" s="7">
@@ -18517,28 +18537,28 @@
         <v>5</v>
       </c>
       <c r="G7" s="27">
-        <f>ROUND(((D7*3)-E7)/(SUM(D7:F7)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I7" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K7" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L7" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L7" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M7" s="9">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18553,28 +18573,28 @@
         <v>5</v>
       </c>
       <c r="P7" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R7" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T7" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U7" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U7" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V7" s="10">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18589,28 +18609,28 @@
         <v>0</v>
       </c>
       <c r="Y7" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-33.33</v>
       </c>
       <c r="Z7" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA7" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB7" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="AC7" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD7" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD7" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE7" s="11">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18625,28 +18645,28 @@
         <v>5</v>
       </c>
       <c r="AH7" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI7" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ7" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK7" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL7" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM7" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM7" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN7" s="12">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18661,28 +18681,28 @@
         <v>10</v>
       </c>
       <c r="AQ7" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR7" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS7" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT7" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU7" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV7" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV7" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW7" s="24">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18697,28 +18717,28 @@
         <v>10</v>
       </c>
       <c r="AZ7" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA7" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB7" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC7" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD7" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE7" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE7" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF7" s="13">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18733,28 +18753,28 @@
         <v>10</v>
       </c>
       <c r="BI7" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ7" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK7" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL7" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM7" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN7" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN7" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO7" s="14">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18769,39 +18789,39 @@
         <v>10</v>
       </c>
       <c r="BR7" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS7" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT7" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU7" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV7" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW7" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW7" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX7" s="15">
-        <f>SUM(BO7,BF7,AN7,AE7,V7,M7,D7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY7" s="15">
-        <f>SUM(BP7,BG7,AO7,AF7,W7,N7,E7)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BZ7" s="15">
-        <f>SUM(BQ7,BH7,AP7,AG7,X7,O7,F7)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA7" s="34">
@@ -18809,23 +18829,23 @@
         <v>-4.17</v>
       </c>
       <c r="CB7" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC7" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD7" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="CE7" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF7" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG7" s="7">
@@ -19335,28 +19355,28 @@
         <v>5</v>
       </c>
       <c r="G8" s="27">
-        <f>ROUND(((D8*3)-E8)/(SUM(D8:F8)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I8" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K8" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L8" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L8" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M8" s="9">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19371,28 +19391,28 @@
         <v>5</v>
       </c>
       <c r="P8" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q8" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R8" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T8" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U8" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U8" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V8" s="10">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19407,28 +19427,28 @@
         <v>5</v>
       </c>
       <c r="Y8" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z8" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA8" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB8" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC8" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD8" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD8" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE8" s="11">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19443,28 +19463,28 @@
         <v>0</v>
       </c>
       <c r="AH8" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="AI8" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ8" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK8" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL8" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM8" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM8" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN8" s="12">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19479,28 +19499,28 @@
         <v>5</v>
       </c>
       <c r="AQ8" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="AR8" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS8" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT8" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="AU8" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV8" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV8" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW8" s="24">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19515,28 +19535,28 @@
         <v>10</v>
       </c>
       <c r="AZ8" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA8" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB8" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC8" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD8" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE8" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE8" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF8" s="13">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19551,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="BI8" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ8" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK8" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL8" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM8" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN8" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN8" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO8" s="14">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19587,39 +19607,39 @@
         <v>10</v>
       </c>
       <c r="BR8" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS8" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT8" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU8" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV8" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW8" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW8" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX8" s="15">
-        <f>SUM(BO8,BF8,AN8,AE8,V8,M8,D8)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="BY8" s="15">
-        <f>SUM(BP8,BG8,AO8,AF8,W8,N8,E8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ8" s="15">
-        <f>SUM(BQ8,BH8,AP8,AG8,X8,O8,F8)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="CA8" s="34">
@@ -19627,23 +19647,23 @@
         <v>18.75</v>
       </c>
       <c r="CB8" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC8" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD8" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="CE8" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF8" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG8" s="7">
@@ -20153,28 +20173,28 @@
         <v>5</v>
       </c>
       <c r="G9" s="27">
-        <f>ROUND(((D9*3)-E9)/(SUM(D9:F9)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I9" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K9" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L9" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L9" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M9" s="9">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20189,28 +20209,28 @@
         <v>5</v>
       </c>
       <c r="P9" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R9" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T9" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U9" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U9" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V9" s="10">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20225,28 +20245,28 @@
         <v>5</v>
       </c>
       <c r="Y9" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z9" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA9" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB9" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC9" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD9" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD9" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE9" s="11">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20261,28 +20281,28 @@
         <v>0</v>
       </c>
       <c r="AH9" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="AI9" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ9" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK9" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL9" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM9" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM9" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN9" s="12">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20297,28 +20317,28 @@
         <v>10</v>
       </c>
       <c r="AQ9" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR9" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS9" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT9" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU9" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV9" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV9" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW9" s="24">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20333,28 +20353,28 @@
         <v>0</v>
       </c>
       <c r="AZ9" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>33.33</v>
       </c>
       <c r="BA9" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB9" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC9" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="BD9" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE9" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE9" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF9" s="13">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20369,28 +20389,28 @@
         <v>5</v>
       </c>
       <c r="BI9" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>50</v>
       </c>
       <c r="BJ9" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK9" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL9" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="BM9" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN9" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN9" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO9" s="14">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20405,39 +20425,39 @@
         <v>10</v>
       </c>
       <c r="BR9" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS9" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT9" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU9" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV9" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW9" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW9" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX9" s="15">
-        <f>SUM(BO9,BF9,AN9,AE9,V9,M9,D9)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="BY9" s="15">
-        <f>SUM(BP9,BG9,AO9,AF9,W9,N9,E9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ9" s="15">
-        <f>SUM(BQ9,BH9,AP9,AG9,X9,O9,F9)</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="CA9" s="34">
@@ -20445,23 +20465,23 @@
         <v>22.92</v>
       </c>
       <c r="CB9" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC9" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD9" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="CE9" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF9" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG9" s="7">
@@ -20971,28 +20991,28 @@
         <v>5</v>
       </c>
       <c r="G10" s="27">
-        <f>ROUND(((D10*3)-E10)/(SUM(D10:F10)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I10" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K10" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L10" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L10" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M10" s="9">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21007,28 +21027,28 @@
         <v>5</v>
       </c>
       <c r="P10" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R10" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T10" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U10" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U10" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V10" s="10">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21043,28 +21063,28 @@
         <v>5</v>
       </c>
       <c r="Y10" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z10" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA10" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB10" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC10" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD10" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD10" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE10" s="11">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21079,28 +21099,28 @@
         <v>0</v>
       </c>
       <c r="AH10" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-33.33</v>
       </c>
       <c r="AI10" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ10" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK10" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="AL10" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM10" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM10" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN10" s="12">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21115,28 +21135,28 @@
         <v>10</v>
       </c>
       <c r="AQ10" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR10" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS10" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT10" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU10" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV10" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV10" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW10" s="24">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21151,28 +21171,28 @@
         <v>10</v>
       </c>
       <c r="AZ10" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA10" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB10" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC10" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD10" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE10" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE10" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF10" s="13">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21187,28 +21207,28 @@
         <v>10</v>
       </c>
       <c r="BI10" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ10" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK10" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL10" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM10" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN10" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN10" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO10" s="14">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21223,39 +21243,39 @@
         <v>10</v>
       </c>
       <c r="BR10" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS10" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT10" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU10" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV10" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW10" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW10" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX10" s="15">
-        <f>SUM(BO10,BF10,AN10,AE10,V10,M10,D10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY10" s="15">
-        <f>SUM(BP10,BG10,AO10,AF10,W10,N10,E10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BZ10" s="15">
-        <f>SUM(BQ10,BH10,AP10,AG10,X10,O10,F10)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA10" s="34">
@@ -21263,23 +21283,23 @@
         <v>-4.17</v>
       </c>
       <c r="CB10" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC10" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD10" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="CE10" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF10" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG10" s="7">
@@ -21789,28 +21809,28 @@
         <v>5</v>
       </c>
       <c r="G11" s="27">
-        <f>ROUND(((D11*3)-E11)/(SUM(D11:F11)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I11" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K11" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L11" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L11" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M11" s="9">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21825,28 +21845,28 @@
         <v>5</v>
       </c>
       <c r="P11" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R11" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T11" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U11" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U11" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V11" s="10">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21861,28 +21881,28 @@
         <v>5</v>
       </c>
       <c r="Y11" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z11" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA11" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB11" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC11" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD11" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD11" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE11" s="11">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21897,28 +21917,28 @@
         <v>0</v>
       </c>
       <c r="AH11" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-33.33</v>
       </c>
       <c r="AI11" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ11" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK11" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="AL11" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM11" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM11" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN11" s="12">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21933,28 +21953,28 @@
         <v>10</v>
       </c>
       <c r="AQ11" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR11" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS11" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT11" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU11" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV11" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV11" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW11" s="24">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21969,28 +21989,28 @@
         <v>10</v>
       </c>
       <c r="AZ11" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA11" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB11" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC11" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD11" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE11" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE11" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF11" s="13">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22005,28 +22025,28 @@
         <v>10</v>
       </c>
       <c r="BI11" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ11" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK11" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL11" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM11" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN11" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN11" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO11" s="14">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22041,39 +22061,39 @@
         <v>10</v>
       </c>
       <c r="BR11" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS11" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT11" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU11" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV11" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW11" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW11" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX11" s="15">
-        <f>SUM(BO11,BF11,AN11,AE11,V11,M11,D11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY11" s="15">
-        <f>SUM(BP11,BG11,AO11,AF11,W11,N11,E11)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BZ11" s="15">
-        <f>SUM(BQ11,BH11,AP11,AG11,X11,O11,F11)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA11" s="34">
@@ -22081,23 +22101,23 @@
         <v>-4.17</v>
       </c>
       <c r="CB11" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC11" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD11" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="CE11" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF11" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG11" s="7">
@@ -22607,28 +22627,28 @@
         <v>0</v>
       </c>
       <c r="G12" s="27">
-        <f>ROUND(((D12*3)-E12)/(SUM(D12:F12)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>46.67</v>
       </c>
       <c r="H12" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I12" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="K12" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L12" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L12" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M12" s="9">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22643,28 +22663,28 @@
         <v>5</v>
       </c>
       <c r="P12" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q12" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R12" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T12" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U12" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U12" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V12" s="10">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22679,28 +22699,28 @@
         <v>5</v>
       </c>
       <c r="Y12" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z12" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA12" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB12" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC12" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD12" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD12" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE12" s="11">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22715,28 +22735,28 @@
         <v>5</v>
       </c>
       <c r="AH12" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI12" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ12" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK12" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL12" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM12" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM12" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN12" s="12">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22751,28 +22771,28 @@
         <v>10</v>
       </c>
       <c r="AQ12" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR12" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS12" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT12" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU12" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV12" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV12" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW12" s="24">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22787,28 +22807,28 @@
         <v>10</v>
       </c>
       <c r="AZ12" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA12" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB12" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC12" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD12" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE12" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE12" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF12" s="13">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22823,28 +22843,28 @@
         <v>10</v>
       </c>
       <c r="BI12" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ12" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK12" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL12" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM12" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN12" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN12" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO12" s="14">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22859,39 +22879,39 @@
         <v>10</v>
       </c>
       <c r="BR12" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS12" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT12" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU12" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV12" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW12" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW12" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX12" s="15">
-        <f>SUM(BO12,BF12,AN12,AE12,V12,M12,D12)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="BY12" s="15">
-        <f>SUM(BP12,BG12,AO12,AF12,W12,N12,E12)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="BZ12" s="15">
-        <f>SUM(BQ12,BH12,AP12,AG12,X12,O12,F12)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA12" s="34">
@@ -22899,23 +22919,23 @@
         <v>5.83</v>
       </c>
       <c r="CB12" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC12" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD12" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="CE12" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF12" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG12" s="7">
@@ -23425,28 +23445,28 @@
         <v>0</v>
       </c>
       <c r="G13" s="27">
-        <f>ROUND(((D13*3)-E13)/(SUM(D13:F13)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="H13" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I13" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="K13" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L13" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L13" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M13" s="9">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23461,28 +23481,28 @@
         <v>5</v>
       </c>
       <c r="P13" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R13" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T13" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U13" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U13" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V13" s="10">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23497,28 +23517,28 @@
         <v>5</v>
       </c>
       <c r="Y13" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z13" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA13" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB13" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC13" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD13" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD13" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE13" s="11">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23533,28 +23553,28 @@
         <v>5</v>
       </c>
       <c r="AH13" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI13" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ13" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK13" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL13" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM13" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM13" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN13" s="12">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23569,28 +23589,28 @@
         <v>10</v>
       </c>
       <c r="AQ13" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR13" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS13" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT13" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU13" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV13" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV13" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW13" s="24">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23605,28 +23625,28 @@
         <v>10</v>
       </c>
       <c r="AZ13" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA13" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB13" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC13" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD13" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE13" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE13" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF13" s="13">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23641,28 +23661,28 @@
         <v>10</v>
       </c>
       <c r="BI13" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ13" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK13" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL13" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM13" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN13" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN13" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO13" s="14">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23677,39 +23697,39 @@
         <v>10</v>
       </c>
       <c r="BR13" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS13" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT13" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU13" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV13" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW13" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW13" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX13" s="15">
-        <f>SUM(BO13,BF13,AN13,AE13,V13,M13,D13)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="BY13" s="15">
-        <f>SUM(BP13,BG13,AO13,AF13,W13,N13,E13)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="BZ13" s="15">
-        <f>SUM(BQ13,BH13,AP13,AG13,X13,O13,F13)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA13" s="34">
@@ -23717,23 +23737,23 @@
         <v>2.5</v>
       </c>
       <c r="CB13" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC13" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD13" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>10</v>
       </c>
       <c r="CE13" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF13" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG13" s="7">
@@ -24243,28 +24263,28 @@
         <v>5</v>
       </c>
       <c r="G14" s="27">
-        <f>ROUND(((D14*3)-E14)/(SUM(D14:F14)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I14" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K14" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L14" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L14" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M14" s="9">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24279,28 +24299,28 @@
         <v>5</v>
       </c>
       <c r="P14" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R14" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T14" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U14" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U14" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V14" s="10">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24315,28 +24335,28 @@
         <v>5</v>
       </c>
       <c r="Y14" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z14" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA14" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB14" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC14" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD14" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD14" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE14" s="11">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24351,28 +24371,28 @@
         <v>5</v>
       </c>
       <c r="AH14" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI14" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ14" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK14" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL14" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM14" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM14" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN14" s="12">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24387,28 +24407,28 @@
         <v>10</v>
       </c>
       <c r="AQ14" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR14" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS14" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT14" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU14" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV14" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV14" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW14" s="24">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24423,28 +24443,28 @@
         <v>10</v>
       </c>
       <c r="AZ14" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA14" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB14" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC14" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD14" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE14" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE14" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF14" s="13">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24459,28 +24479,28 @@
         <v>10</v>
       </c>
       <c r="BI14" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ14" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK14" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL14" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM14" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN14" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN14" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO14" s="14">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24495,39 +24515,39 @@
         <v>10</v>
       </c>
       <c r="BR14" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS14" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT14" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU14" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV14" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW14" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW14" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX14" s="15">
-        <f>SUM(BO14,BF14,AN14,AE14,V14,M14,D14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY14" s="15">
-        <f>SUM(BP14,BG14,AO14,AF14,W14,N14,E14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ14" s="15">
-        <f>SUM(BQ14,BH14,AP14,AG14,X14,O14,F14)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="CA14" s="34">
@@ -24535,23 +24555,23 @@
         <v>0</v>
       </c>
       <c r="CB14" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC14" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD14" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
       <c r="CE14" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF14" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG14" s="7">
@@ -25061,28 +25081,28 @@
         <v>5</v>
       </c>
       <c r="G15" s="27">
-        <f>ROUND(((D15*3)-E15)/(SUM(D15:F15)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I15" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K15" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L15" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L15" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M15" s="9">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25097,28 +25117,28 @@
         <v>5</v>
       </c>
       <c r="P15" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q15" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R15" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T15" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U15" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U15" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V15" s="10">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25133,28 +25153,28 @@
         <v>5</v>
       </c>
       <c r="Y15" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z15" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA15" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB15" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC15" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD15" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD15" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE15" s="11">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25169,28 +25189,28 @@
         <v>5</v>
       </c>
       <c r="AH15" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI15" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ15" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK15" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL15" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM15" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM15" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN15" s="12">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25205,28 +25225,28 @@
         <v>10</v>
       </c>
       <c r="AQ15" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR15" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS15" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT15" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU15" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV15" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV15" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW15" s="24">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25241,28 +25261,28 @@
         <v>10</v>
       </c>
       <c r="AZ15" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA15" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB15" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC15" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD15" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE15" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE15" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF15" s="13">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25277,28 +25297,28 @@
         <v>10</v>
       </c>
       <c r="BI15" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ15" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK15" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL15" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM15" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN15" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN15" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO15" s="14">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25313,39 +25333,39 @@
         <v>10</v>
       </c>
       <c r="BR15" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS15" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT15" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU15" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV15" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW15" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW15" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX15" s="15">
-        <f>SUM(BO15,BF15,AN15,AE15,V15,M15,D15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY15" s="15">
-        <f>SUM(BP15,BG15,AO15,AF15,W15,N15,E15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ15" s="15">
-        <f>SUM(BQ15,BH15,AP15,AG15,X15,O15,F15)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="CA15" s="34">
@@ -25353,23 +25373,23 @@
         <v>0</v>
       </c>
       <c r="CB15" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC15" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD15" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
       <c r="CE15" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF15" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG15" s="7">
@@ -25879,28 +25899,28 @@
         <v>5</v>
       </c>
       <c r="G16" s="27">
-        <f>ROUND(((D16*3)-E16)/(SUM(D16:F16)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I16" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K16" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L16" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L16" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M16" s="9">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25915,28 +25935,28 @@
         <v>5</v>
       </c>
       <c r="P16" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q16" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R16" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T16" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U16" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U16" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V16" s="10">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25951,28 +25971,28 @@
         <v>5</v>
       </c>
       <c r="Y16" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z16" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA16" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB16" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC16" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD16" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD16" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE16" s="11">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25987,28 +26007,28 @@
         <v>5</v>
       </c>
       <c r="AH16" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI16" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ16" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK16" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL16" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM16" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM16" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN16" s="12">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26023,28 +26043,28 @@
         <v>10</v>
       </c>
       <c r="AQ16" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR16" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS16" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT16" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU16" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV16" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV16" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW16" s="24">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26059,28 +26079,28 @@
         <v>10</v>
       </c>
       <c r="AZ16" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA16" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB16" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC16" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD16" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE16" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE16" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF16" s="13">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26095,28 +26115,28 @@
         <v>10</v>
       </c>
       <c r="BI16" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK16" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL16" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM16" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN16" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN16" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO16" s="14">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26131,39 +26151,39 @@
         <v>10</v>
       </c>
       <c r="BR16" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS16" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT16" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU16" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV16" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW16" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW16" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX16" s="15">
-        <f>SUM(BO16,BF16,AN16,AE16,V16,M16,D16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY16" s="15">
-        <f>SUM(BP16,BG16,AO16,AF16,W16,N16,E16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ16" s="15">
-        <f>SUM(BQ16,BH16,AP16,AG16,X16,O16,F16)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="CA16" s="34">
@@ -26171,23 +26191,23 @@
         <v>0</v>
       </c>
       <c r="CB16" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC16" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD16" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
       <c r="CE16" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF16" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG16" s="7">
@@ -26697,28 +26717,28 @@
         <v>5</v>
       </c>
       <c r="G17" s="27">
-        <f>ROUND(((D17*3)-E17)/(SUM(D17:F17)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I17" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K17" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L17" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L17" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M17" s="9">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26733,28 +26753,28 @@
         <v>5</v>
       </c>
       <c r="P17" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q17" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R17" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T17" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U17" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U17" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V17" s="10">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26769,28 +26789,28 @@
         <v>5</v>
       </c>
       <c r="Y17" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z17" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA17" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB17" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC17" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD17" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD17" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE17" s="11">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26805,28 +26825,28 @@
         <v>5</v>
       </c>
       <c r="AH17" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI17" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ17" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK17" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL17" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM17" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM17" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN17" s="12">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26841,28 +26861,28 @@
         <v>10</v>
       </c>
       <c r="AQ17" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR17" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS17" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT17" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU17" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV17" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV17" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW17" s="24">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26877,28 +26897,28 @@
         <v>10</v>
       </c>
       <c r="AZ17" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA17" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB17" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC17" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD17" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE17" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE17" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF17" s="13">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26913,28 +26933,28 @@
         <v>10</v>
       </c>
       <c r="BI17" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ17" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK17" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL17" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM17" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN17" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN17" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO17" s="14">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26949,39 +26969,39 @@
         <v>10</v>
       </c>
       <c r="BR17" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS17" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT17" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU17" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV17" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW17" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW17" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX17" s="15">
-        <f>SUM(BO17,BF17,AN17,AE17,V17,M17,D17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY17" s="15">
-        <f>SUM(BP17,BG17,AO17,AF17,W17,N17,E17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ17" s="15">
-        <f>SUM(BQ17,BH17,AP17,AG17,X17,O17,F17)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="CA17" s="34">
@@ -26989,23 +27009,23 @@
         <v>0</v>
       </c>
       <c r="CB17" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC17" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD17" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
       <c r="CE17" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF17" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG17" s="7">
@@ -27515,28 +27535,28 @@
         <v>5</v>
       </c>
       <c r="G18" s="27">
-        <f>ROUND(((D18*3)-E18)/(SUM(D18:F18)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I18" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K18" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L18" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L18" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M18" s="9">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27551,28 +27571,28 @@
         <v>5</v>
       </c>
       <c r="P18" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R18" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T18" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U18" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U18" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V18" s="10">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27587,28 +27607,28 @@
         <v>5</v>
       </c>
       <c r="Y18" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z18" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA18" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB18" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC18" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD18" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD18" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE18" s="11">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27623,28 +27643,28 @@
         <v>5</v>
       </c>
       <c r="AH18" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI18" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ18" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK18" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL18" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM18" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM18" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN18" s="12">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27659,28 +27679,28 @@
         <v>10</v>
       </c>
       <c r="AQ18" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR18" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS18" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT18" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU18" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV18" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV18" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW18" s="24">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27695,28 +27715,28 @@
         <v>10</v>
       </c>
       <c r="AZ18" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA18" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB18" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC18" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD18" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE18" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE18" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF18" s="13">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27731,28 +27751,28 @@
         <v>10</v>
       </c>
       <c r="BI18" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ18" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK18" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL18" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM18" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN18" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN18" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO18" s="14">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27767,39 +27787,39 @@
         <v>10</v>
       </c>
       <c r="BR18" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS18" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT18" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU18" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV18" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW18" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW18" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX18" s="15">
-        <f>SUM(BO18,BF18,AN18,AE18,V18,M18,D18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY18" s="15">
-        <f>SUM(BP18,BG18,AO18,AF18,W18,N18,E18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ18" s="15">
-        <f>SUM(BQ18,BH18,AP18,AG18,X18,O18,F18)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="CA18" s="34">
@@ -27807,23 +27827,23 @@
         <v>0</v>
       </c>
       <c r="CB18" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC18" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD18" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
       <c r="CE18" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF18" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG18" s="7">
@@ -28333,28 +28353,28 @@
         <v>5</v>
       </c>
       <c r="G19" s="27">
-        <f>ROUND(((D19*3)-E19)/(SUM(D19:F19)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I19" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K19" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L19" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L19" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M19" s="9">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28369,28 +28389,28 @@
         <v>5</v>
       </c>
       <c r="P19" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R19" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U19" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U19" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V19" s="10">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28405,28 +28425,28 @@
         <v>5</v>
       </c>
       <c r="Y19" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z19" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA19" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB19" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC19" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD19" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD19" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE19" s="11">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28441,28 +28461,28 @@
         <v>5</v>
       </c>
       <c r="AH19" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI19" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ19" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK19" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL19" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM19" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM19" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN19" s="12">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28477,28 +28497,28 @@
         <v>10</v>
       </c>
       <c r="AQ19" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR19" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS19" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT19" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU19" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV19" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV19" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW19" s="24">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28513,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AZ19" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA19" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB19" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC19" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD19" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE19" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE19" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF19" s="13">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28549,28 +28569,28 @@
         <v>10</v>
       </c>
       <c r="BI19" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ19" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK19" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL19" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM19" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN19" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN19" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO19" s="14">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28585,39 +28605,39 @@
         <v>10</v>
       </c>
       <c r="BR19" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS19" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT19" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU19" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV19" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW19" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW19" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX19" s="15">
-        <f>SUM(BO19,BF19,AN19,AE19,V19,M19,D19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY19" s="15">
-        <f>SUM(BP19,BG19,AO19,AF19,W19,N19,E19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ19" s="15">
-        <f>SUM(BQ19,BH19,AP19,AG19,X19,O19,F19)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="CA19" s="34">
@@ -28625,23 +28645,23 @@
         <v>0</v>
       </c>
       <c r="CB19" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC19" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD19" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
       <c r="CE19" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF19" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG19" s="7">
@@ -29151,28 +29171,28 @@
         <v>5</v>
       </c>
       <c r="G20" s="27">
-        <f>ROUND(((D20*3)-E20)/(SUM(D20:F20)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I20" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K20" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L20" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L20" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M20" s="9">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29187,28 +29207,28 @@
         <v>5</v>
       </c>
       <c r="P20" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R20" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U20" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U20" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V20" s="10">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29223,28 +29243,28 @@
         <v>5</v>
       </c>
       <c r="Y20" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z20" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA20" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB20" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC20" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD20" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD20" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE20" s="11">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29259,28 +29279,28 @@
         <v>5</v>
       </c>
       <c r="AH20" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI20" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ20" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK20" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL20" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM20" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM20" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN20" s="12">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29295,28 +29315,28 @@
         <v>10</v>
       </c>
       <c r="AQ20" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR20" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS20" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT20" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU20" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV20" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV20" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW20" s="24">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29331,28 +29351,28 @@
         <v>10</v>
       </c>
       <c r="AZ20" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA20" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB20" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC20" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD20" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE20" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE20" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF20" s="13">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29367,28 +29387,28 @@
         <v>10</v>
       </c>
       <c r="BI20" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ20" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK20" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL20" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM20" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN20" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN20" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO20" s="14">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29403,39 +29423,39 @@
         <v>10</v>
       </c>
       <c r="BR20" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS20" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT20" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU20" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV20" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW20" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW20" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX20" s="15">
-        <f>SUM(BO20,BF20,AN20,AE20,V20,M20,D20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY20" s="15">
-        <f>SUM(BP20,BG20,AO20,AF20,W20,N20,E20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ20" s="15">
-        <f>SUM(BQ20,BH20,AP20,AG20,X20,O20,F20)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="CA20" s="34">
@@ -29443,23 +29463,23 @@
         <v>0</v>
       </c>
       <c r="CB20" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC20" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD20" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11</v>
       </c>
       <c r="CE20" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF20" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG20" s="7">
@@ -29969,28 +29989,28 @@
         <v>5</v>
       </c>
       <c r="G21" s="27">
-        <f>ROUND(((D21*3)-E21)/(SUM(D21:F21)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I21" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K21" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L21" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L21" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M21" s="9">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30005,28 +30025,28 @@
         <v>5</v>
       </c>
       <c r="P21" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R21" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U21" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U21" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V21" s="10">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30041,28 +30061,28 @@
         <v>0</v>
       </c>
       <c r="Y21" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="Z21" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA21" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB21" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AC21" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD21" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD21" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE21" s="11">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30077,28 +30097,28 @@
         <v>5</v>
       </c>
       <c r="AH21" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI21" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ21" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK21" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL21" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM21" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM21" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN21" s="12">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30113,28 +30133,28 @@
         <v>10</v>
       </c>
       <c r="AQ21" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR21" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS21" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT21" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU21" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV21" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV21" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW21" s="24">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30149,28 +30169,28 @@
         <v>10</v>
       </c>
       <c r="AZ21" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA21" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB21" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC21" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD21" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE21" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE21" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF21" s="13">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30185,28 +30205,28 @@
         <v>10</v>
       </c>
       <c r="BI21" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ21" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK21" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL21" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM21" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN21" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN21" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO21" s="14">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30221,39 +30241,39 @@
         <v>10</v>
       </c>
       <c r="BR21" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS21" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT21" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU21" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV21" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW21" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW21" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX21" s="15">
-        <f>SUM(BO21,BF21,AN21,AE21,V21,M21,D21)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BY21" s="15">
-        <f>SUM(BP21,BG21,AO21,AF21,W21,N21,E21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ21" s="15">
-        <f>SUM(BQ21,BH21,AP21,AG21,X21,O21,F21)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA21" s="34">
@@ -30261,23 +30281,23 @@
         <v>12.5</v>
       </c>
       <c r="CB21" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC21" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD21" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="CE21" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF21" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG21" s="7">
@@ -30787,28 +30807,28 @@
         <v>5</v>
       </c>
       <c r="G22" s="27">
-        <f>ROUND(((D22*3)-E22)/(SUM(D22:F22)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I22" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K22" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L22" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L22" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M22" s="9">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30823,28 +30843,28 @@
         <v>5</v>
       </c>
       <c r="P22" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R22" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U22" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U22" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V22" s="10">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30859,28 +30879,28 @@
         <v>0</v>
       </c>
       <c r="Y22" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="Z22" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA22" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB22" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AC22" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD22" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD22" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE22" s="11">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30895,28 +30915,28 @@
         <v>5</v>
       </c>
       <c r="AH22" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI22" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ22" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK22" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL22" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM22" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM22" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN22" s="12">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30931,28 +30951,28 @@
         <v>10</v>
       </c>
       <c r="AQ22" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR22" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS22" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT22" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU22" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV22" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV22" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW22" s="24">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30967,28 +30987,28 @@
         <v>10</v>
       </c>
       <c r="AZ22" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA22" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB22" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC22" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD22" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE22" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE22" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF22" s="13">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31003,28 +31023,28 @@
         <v>10</v>
       </c>
       <c r="BI22" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ22" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK22" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL22" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM22" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN22" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN22" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO22" s="14">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31039,39 +31059,39 @@
         <v>10</v>
       </c>
       <c r="BR22" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS22" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT22" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU22" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV22" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW22" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW22" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX22" s="15">
-        <f>SUM(BO22,BF22,AN22,AE22,V22,M22,D22)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="BY22" s="15">
-        <f>SUM(BP22,BG22,AO22,AF22,W22,N22,E22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ22" s="15">
-        <f>SUM(BQ22,BH22,AP22,AG22,X22,O22,F22)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA22" s="34">
@@ -31079,23 +31099,23 @@
         <v>12.5</v>
       </c>
       <c r="CB22" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC22" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD22" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>6</v>
       </c>
       <c r="CE22" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF22" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG22" s="7">
@@ -31605,28 +31625,28 @@
         <v>5</v>
       </c>
       <c r="G23" s="27">
-        <f>ROUND(((D23*3)-E23)/(SUM(D23:F23)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I23" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="K23" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L23" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L23" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M23" s="9">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31641,28 +31661,28 @@
         <v>0</v>
       </c>
       <c r="P23" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-33.33</v>
       </c>
       <c r="Q23" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R23" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S23" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="T23" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U23" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U23" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V23" s="10">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31677,28 +31697,28 @@
         <v>5</v>
       </c>
       <c r="Y23" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z23" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA23" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB23" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC23" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD23" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD23" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE23" s="11">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31713,28 +31733,28 @@
         <v>5</v>
       </c>
       <c r="AH23" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI23" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ23" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK23" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL23" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM23" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM23" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN23" s="12">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31749,28 +31769,28 @@
         <v>10</v>
       </c>
       <c r="AQ23" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR23" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS23" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT23" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU23" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV23" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV23" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW23" s="24">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31785,28 +31805,28 @@
         <v>10</v>
       </c>
       <c r="AZ23" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA23" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB23" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC23" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD23" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE23" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE23" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF23" s="13">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31821,28 +31841,28 @@
         <v>10</v>
       </c>
       <c r="BI23" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ23" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK23" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL23" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM23" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN23" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN23" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO23" s="14">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31857,39 +31877,39 @@
         <v>10</v>
       </c>
       <c r="BR23" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS23" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT23" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU23" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV23" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW23" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW23" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX23" s="15">
-        <f>SUM(BO23,BF23,AN23,AE23,V23,M23,D23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY23" s="15">
-        <f>SUM(BP23,BG23,AO23,AF23,W23,N23,E23)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="BZ23" s="15">
-        <f>SUM(BQ23,BH23,AP23,AG23,X23,O23,F23)</f>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="CA23" s="34">
@@ -31897,23 +31917,23 @@
         <v>-4.17</v>
       </c>
       <c r="CB23" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC23" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD23" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>18</v>
       </c>
       <c r="CE23" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF23" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG23" s="7">
@@ -32423,28 +32443,28 @@
         <v>4</v>
       </c>
       <c r="G24" s="27">
-        <f>ROUND(((D24*3)-E24)/(SUM(D24:F24)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>-6.67</v>
       </c>
       <c r="H24" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I24" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="K24" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L24" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L24" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M24" s="9">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32459,28 +32479,28 @@
         <v>0</v>
       </c>
       <c r="P24" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-33.33</v>
       </c>
       <c r="Q24" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R24" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S24" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="T24" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U24" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U24" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V24" s="10">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32495,28 +32515,28 @@
         <v>5</v>
       </c>
       <c r="Y24" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z24" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA24" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB24" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AC24" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD24" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD24" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE24" s="11">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32531,28 +32551,28 @@
         <v>5</v>
       </c>
       <c r="AH24" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AI24" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ24" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK24" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="AL24" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM24" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM24" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN24" s="12">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32567,28 +32587,28 @@
         <v>10</v>
       </c>
       <c r="AQ24" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AR24" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS24" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT24" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AU24" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV24" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV24" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW24" s="24">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32603,28 +32623,28 @@
         <v>10</v>
       </c>
       <c r="AZ24" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="BA24" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB24" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC24" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>4</v>
       </c>
       <c r="BD24" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE24" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE24" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF24" s="13">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32639,28 +32659,28 @@
         <v>10</v>
       </c>
       <c r="BI24" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="BJ24" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK24" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL24" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="BM24" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN24" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN24" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO24" s="14">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32675,39 +32695,39 @@
         <v>10</v>
       </c>
       <c r="BR24" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BS24" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT24" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU24" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
       <c r="BV24" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW24" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW24" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX24" s="15">
-        <f>SUM(BO24,BF24,AN24,AE24,V24,M24,D24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY24" s="15">
-        <f>SUM(BP24,BG24,AO24,AF24,W24,N24,E24)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="BZ24" s="15">
-        <f>SUM(BQ24,BH24,AP24,AG24,X24,O24,F24)</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="CA24" s="34">
@@ -32715,23 +32735,23 @@
         <v>-5</v>
       </c>
       <c r="CB24" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC24" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD24" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>24</v>
       </c>
       <c r="CE24" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF24" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG24" s="7">
@@ -33241,28 +33261,28 @@
         <v>0</v>
       </c>
       <c r="G25" s="27">
-        <f>ROUND(((D25*3)-E25)/(SUM(D25:F25)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>-33.33</v>
       </c>
       <c r="H25" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I25" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="K25" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L25" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L25" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M25" s="9">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33277,28 +33297,28 @@
         <v>0</v>
       </c>
       <c r="P25" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-33.33</v>
       </c>
       <c r="Q25" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R25" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S25" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="T25" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U25" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U25" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V25" s="10">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33313,28 +33333,28 @@
         <v>0</v>
       </c>
       <c r="Y25" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-33.33</v>
       </c>
       <c r="Z25" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA25" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB25" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="AC25" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD25" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD25" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE25" s="11">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33349,28 +33369,28 @@
         <v>0</v>
       </c>
       <c r="AH25" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-33.33</v>
       </c>
       <c r="AI25" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ25" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK25" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>23</v>
       </c>
       <c r="AL25" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM25" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM25" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN25" s="12">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33385,28 +33405,28 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-33.33</v>
       </c>
       <c r="AR25" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS25" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT25" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>25</v>
       </c>
       <c r="AU25" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV25" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV25" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW25" s="24">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33421,28 +33441,28 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-33.33</v>
       </c>
       <c r="BA25" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB25" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC25" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>25</v>
       </c>
       <c r="BD25" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE25" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE25" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF25" s="13">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33457,28 +33477,28 @@
         <v>0</v>
       </c>
       <c r="BI25" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>-33.33</v>
       </c>
       <c r="BJ25" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK25" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL25" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>25</v>
       </c>
       <c r="BM25" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN25" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN25" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO25" s="14">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33493,39 +33513,39 @@
         <v>0</v>
       </c>
       <c r="BR25" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>-33.33</v>
       </c>
       <c r="BS25" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT25" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU25" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>25</v>
       </c>
       <c r="BV25" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW25" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW25" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX25" s="15">
-        <f>SUM(BO25,BF25,AN25,AE25,V25,M25,D25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="BY25" s="15">
-        <f>SUM(BP25,BG25,AO25,AF25,W25,N25,E25)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="BZ25" s="15">
-        <f>SUM(BQ25,BH25,AP25,AG25,X25,O25,F25)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CA25" s="34">
@@ -33533,23 +33553,23 @@
         <v>-33.33</v>
       </c>
       <c r="CB25" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC25" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD25" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>25</v>
       </c>
       <c r="CE25" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF25" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG25" s="7">
@@ -34059,28 +34079,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="27">
-        <f>ROUND(((D26*3)-E26)/(SUM(D26:F26)*3)*100,2)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H26" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I26" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>-33.33</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K26" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L26" s="27">
-        <f>ROUND(AVERAGEIF($J$2:$J$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>14.24</v>
+      <c r="L26" s="39">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="M26" s="9">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34095,28 +34115,28 @@
         <v>0</v>
       </c>
       <c r="P26" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q26" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>100</v>
       </c>
       <c r="R26" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>-33.33</v>
       </c>
       <c r="S26" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="T26" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U26" s="28">
-        <f>ROUND(AVERAGEIF($S$2:$S$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>18.18</v>
+      <c r="U26" s="40">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="V26" s="10">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34131,28 +34151,28 @@
         <v>0</v>
       </c>
       <c r="Y26" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="Z26" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="AA26" s="29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>-33.33</v>
       </c>
       <c r="AB26" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="AC26" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD26" s="29">
-        <f>ROUND(AVERAGEIF($AB$2:$AB$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>18.18</v>
+      <c r="AD26" s="41">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AE26" s="11">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34167,28 +34187,28 @@
         <v>0</v>
       </c>
       <c r="AH26" s="30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="AI26" s="30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="AJ26" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-33.33</v>
       </c>
       <c r="AK26" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="AL26" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM26" s="30">
-        <f>ROUND(AVERAGEIF($AK$2:$AK$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>18.18</v>
+      <c r="AM26" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
+        <v>100</v>
       </c>
       <c r="AN26" s="12">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34203,28 +34223,28 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="31">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="AR26" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>100</v>
       </c>
       <c r="AS26" s="31">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-33.33</v>
       </c>
       <c r="AT26" s="12">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AU26" s="31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV26" s="31">
-        <f>ROUND(AVERAGEIF($AT$2:$AT$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>10.42</v>
+      <c r="AV26" s="42">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="AW26" s="24">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34239,28 +34259,28 @@
         <v>0</v>
       </c>
       <c r="AZ26" s="30">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="BA26" s="30">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
       <c r="BB26" s="30">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-33.33</v>
       </c>
       <c r="BC26" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="BD26" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE26" s="30">
-        <f>ROUND(AVERAGEIF($BC$2:$BC$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>9.7200000000000006</v>
+      <c r="BE26" s="24">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
+        <v>77.78</v>
       </c>
       <c r="BF26" s="13">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34275,28 +34295,28 @@
         <v>0</v>
       </c>
       <c r="BI26" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>100</v>
       </c>
       <c r="BJ26" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>100</v>
       </c>
       <c r="BK26" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>-33.33</v>
       </c>
       <c r="BL26" s="13">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="BM26" s="32">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN26" s="32">
-        <f>ROUND(AVERAGEIF($BL$2:$BL$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>10.87</v>
+      <c r="BN26" s="43">
+        <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
+        <v>83.33</v>
       </c>
       <c r="BO26" s="14">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34311,39 +34331,39 @@
         <v>0</v>
       </c>
       <c r="BR26" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>100</v>
       </c>
       <c r="BS26" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
       <c r="BT26" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>-33.33</v>
       </c>
       <c r="BU26" s="14">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="BV26" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW26" s="33">
-        <f>ROUND( AVERAGEIF($BU$2:$BU$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>8.33</v>
+      <c r="BW26" s="44">
+        <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
+        <v>66.67</v>
       </c>
       <c r="BX26" s="15">
-        <f>SUM(BO26,BF26,AN26,AE26,V26,M26,D26)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="BY26" s="15">
-        <f>SUM(BP26,BG26,AO26,AF26,W26,N26,E26)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BZ26" s="15">
-        <f>SUM(BQ26,BH26,AP26,AG26,X26,O26,F26)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="CA26" s="34">
@@ -34351,23 +34371,23 @@
         <v>100</v>
       </c>
       <c r="CB26" s="34">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>100</v>
       </c>
       <c r="CC26" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>-33.33</v>
       </c>
       <c r="CD26" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="CE26" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9.68</v>
       </c>
       <c r="CF26" s="34">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>30.58</v>
       </c>
       <c r="CG26" s="7">

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB93DAC3-8C4D-403A-9056-501B820FB68A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4859F7-3FEE-4A79-B583-A9172FA23DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورودی" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="خروجی" sheetId="3" r:id="rId3"/>
     <sheet name="نتیجه فردی" sheetId="20" r:id="rId4"/>
     <sheet name="نتیجه درسی" sheetId="13" r:id="rId5"/>
-    <sheet name="نتیجه پاسخ برگ" sheetId="23" r:id="rId6"/>
+    <sheet name="نتیجه درسی جدید" sheetId="25" r:id="rId6"/>
     <sheet name="کارنامه فردی" sheetId="19" r:id="rId7"/>
-    <sheet name="کارنامه پاسخ برگ " sheetId="22" r:id="rId8"/>
-    <sheet name="کارنامه کل" sheetId="24" r:id="rId9"/>
-    <sheet name="تنظیمات" sheetId="21" r:id="rId10"/>
+    <sheet name="نتیجه پاسخ برگ" sheetId="23" r:id="rId8"/>
+    <sheet name="کارنامه پاسخ برگ " sheetId="22" r:id="rId9"/>
+    <sheet name="کارنامه کل" sheetId="24" r:id="rId10"/>
+    <sheet name="تنظیمات" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="204">
   <si>
     <t>a1</t>
   </si>
@@ -688,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -785,6 +786,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -852,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -961,9 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,11 +986,17 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
     <dxf>
       <fill>
         <patternFill>
@@ -1053,6 +1063,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -1068,6 +1099,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1355,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -3899,14 +3951,1438 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB41A8D-0B93-49FE-95E5-C3D124D28FCE}">
+  <dimension ref="A1:M26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="9" t="str">
+        <f>تنظیمات!B2</f>
+        <v>ادبیات</v>
+      </c>
+      <c r="F1" s="9" t="str">
+        <f>تنظیمات!C2</f>
+        <v>عربی</v>
+      </c>
+      <c r="G1" s="9" t="str">
+        <f>تنظیمات!D2</f>
+        <v>دینی</v>
+      </c>
+      <c r="H1" s="9" t="str">
+        <f>تنظیمات!E2</f>
+        <v>زبان</v>
+      </c>
+      <c r="I1" s="9" t="str">
+        <f>تنظیمات!F2</f>
+        <v>ریاضی</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" s="9" t="str">
+        <f>تنظیمات!H2</f>
+        <v>فیزیک</v>
+      </c>
+      <c r="L1" s="9" t="str">
+        <f>تنظیمات!I2</f>
+        <v>شیمی</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <f>'کارنامه فردی'!A2</f>
+        <v>1001</v>
+      </c>
+      <c r="B2" s="23">
+        <f>'کارنامه فردی'!CD2</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>'کارنامه فردی'!B2</f>
+        <v>a1</v>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>'کارنامه فردی'!C2</f>
+        <v>b1</v>
+      </c>
+      <c r="E2" s="8">
+        <f>'کارنامه فردی'!G2</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="8">
+        <f>'کارنامه فردی'!P2</f>
+        <v>100</v>
+      </c>
+      <c r="G2" s="8">
+        <f>'کارنامه فردی'!Y2</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="8">
+        <f>'کارنامه فردی'!AH2</f>
+        <v>100</v>
+      </c>
+      <c r="I2" s="8">
+        <f>'کارنامه فردی'!AQ2</f>
+        <v>100</v>
+      </c>
+      <c r="J2" s="8">
+        <f>'کارنامه فردی'!AZ2</f>
+        <v>100</v>
+      </c>
+      <c r="K2" s="8">
+        <f>'کارنامه فردی'!BI2</f>
+        <v>100</v>
+      </c>
+      <c r="L2" s="8">
+        <f>'کارنامه فردی'!BR2</f>
+        <v>100</v>
+      </c>
+      <c r="M2" s="8">
+        <f>'کارنامه فردی'!CA2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <f>'کارنامه فردی'!A3</f>
+        <v>1002</v>
+      </c>
+      <c r="B3" s="23">
+        <f>'کارنامه فردی'!CD3</f>
+        <v>23</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>'کارنامه فردی'!B3</f>
+        <v>a2</v>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>'کارنامه فردی'!C3</f>
+        <v>b2</v>
+      </c>
+      <c r="E3" s="8">
+        <f>'کارنامه فردی'!G3</f>
+        <v>-33.33</v>
+      </c>
+      <c r="F3" s="8">
+        <f>'کارنامه فردی'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f>'کارنامه فردی'!Y3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <f>'کارنامه فردی'!AH3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <f>'کارنامه فردی'!AQ3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <f>'کارنامه فردی'!AZ3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="8">
+        <f>'کارنامه فردی'!BI3</f>
+        <v>-3.33</v>
+      </c>
+      <c r="L3" s="8">
+        <f>'کارنامه فردی'!BR3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
+        <f>'کارنامه فردی'!CA3</f>
+        <v>-4.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f>'کارنامه فردی'!A4</f>
+        <v>1003</v>
+      </c>
+      <c r="B4" s="23">
+        <f>'کارنامه فردی'!CD4</f>
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>'کارنامه فردی'!B4</f>
+        <v>a3</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>'کارنامه فردی'!C4</f>
+        <v>b3</v>
+      </c>
+      <c r="E4" s="8">
+        <f>'کارنامه فردی'!G4</f>
+        <v>46.67</v>
+      </c>
+      <c r="F4" s="8">
+        <f>'کارنامه فردی'!P4</f>
+        <v>100</v>
+      </c>
+      <c r="G4" s="8">
+        <f>'کارنامه فردی'!Y4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f>'کارنامه فردی'!AH4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>'کارنامه فردی'!AQ4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <f>'کارنامه فردی'!AZ4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <f>'کارنامه فردی'!BI4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <f>'کارنامه فردی'!BR4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <f>'کارنامه فردی'!CA4</f>
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f>'کارنامه فردی'!A5</f>
+        <v>1004</v>
+      </c>
+      <c r="B5" s="23">
+        <f>'کارنامه فردی'!CD5</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>'کارنامه فردی'!B5</f>
+        <v>a4</v>
+      </c>
+      <c r="D5" s="9" t="str">
+        <f>'کارنامه فردی'!C5</f>
+        <v>b4</v>
+      </c>
+      <c r="E5" s="8">
+        <f>'کارنامه فردی'!G5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <f>'کارنامه فردی'!P5</f>
+        <v>100</v>
+      </c>
+      <c r="G5" s="8">
+        <f>'کارنامه فردی'!Y5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <f>'کارنامه فردی'!AH5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <f>'کارنامه فردی'!AQ5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <f>'کارنامه فردی'!AZ5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <f>'کارنامه فردی'!BI5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <f>'کارنامه فردی'!BR5</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
+        <f>'کارنامه فردی'!CA5</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <f>'کارنامه فردی'!A6</f>
+        <v>1005</v>
+      </c>
+      <c r="B6" s="23">
+        <f>'کارنامه فردی'!CD6</f>
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f>'کارنامه فردی'!B6</f>
+        <v>a5</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f>'کارنامه فردی'!C6</f>
+        <v>b5</v>
+      </c>
+      <c r="E6" s="8">
+        <f>'کارنامه فردی'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f>'کارنامه فردی'!P6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f>'کارنامه فردی'!Y6</f>
+        <v>-33.33</v>
+      </c>
+      <c r="H6" s="8">
+        <f>'کارنامه فردی'!AH6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <f>'کارنامه فردی'!AQ6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f>'کارنامه فردی'!AZ6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <f>'کارنامه فردی'!BI6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f>'کارنامه فردی'!BR6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
+        <f>'کارنامه فردی'!CA6</f>
+        <v>-4.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f>'کارنامه فردی'!A7</f>
+        <v>1006</v>
+      </c>
+      <c r="B7" s="23">
+        <f>'کارنامه فردی'!CD7</f>
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>'کارنامه فردی'!B7</f>
+        <v>a6</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>'کارنامه فردی'!C7</f>
+        <v>b6</v>
+      </c>
+      <c r="E7" s="8">
+        <f>'کارنامه فردی'!G7</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <f>'کارنامه فردی'!P7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <f>'کارنامه فردی'!Y7</f>
+        <v>-33.33</v>
+      </c>
+      <c r="H7" s="8">
+        <f>'کارنامه فردی'!AH7</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <f>'کارنامه فردی'!AQ7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <f>'کارنامه فردی'!AZ7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <f>'کارنامه فردی'!BI7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <f>'کارنامه فردی'!BR7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <f>'کارنامه فردی'!CA7</f>
+        <v>-4.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <f>'کارنامه فردی'!A8</f>
+        <v>1007</v>
+      </c>
+      <c r="B8" s="23">
+        <f>'کارنامه فردی'!CD8</f>
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f>'کارنامه فردی'!B8</f>
+        <v>a7</v>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f>'کارنامه فردی'!C8</f>
+        <v>b7</v>
+      </c>
+      <c r="E8" s="8">
+        <f>'کارنامه فردی'!G8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <f>'کارنامه فردی'!P8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f>'کارنامه فردی'!Y8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <f>'کارنامه فردی'!AH8</f>
+        <v>100</v>
+      </c>
+      <c r="I8" s="8">
+        <f>'کارنامه فردی'!AQ8</f>
+        <v>50</v>
+      </c>
+      <c r="J8" s="8">
+        <f>'کارنامه فردی'!AZ8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <f>'کارنامه فردی'!BI8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <f>'کارنامه فردی'!BR8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <f>'کارنامه فردی'!CA8</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <f>'کارنامه فردی'!A9</f>
+        <v>1008</v>
+      </c>
+      <c r="B9" s="23">
+        <f>'کارنامه فردی'!CD9</f>
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f>'کارنامه فردی'!B9</f>
+        <v>a8</v>
+      </c>
+      <c r="D9" s="9" t="str">
+        <f>'کارنامه فردی'!C9</f>
+        <v>b8</v>
+      </c>
+      <c r="E9" s="8">
+        <f>'کارنامه فردی'!G9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f>'کارنامه فردی'!P9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f>'کارنامه فردی'!Y9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <f>'کارنامه فردی'!AH9</f>
+        <v>100</v>
+      </c>
+      <c r="I9" s="8">
+        <f>'کارنامه فردی'!AQ9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <f>'کارنامه فردی'!AZ9</f>
+        <v>33.33</v>
+      </c>
+      <c r="K9" s="8">
+        <f>'کارنامه فردی'!BI9</f>
+        <v>50</v>
+      </c>
+      <c r="L9" s="8">
+        <f>'کارنامه فردی'!BR9</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <f>'کارنامه فردی'!CA9</f>
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <f>'کارنامه فردی'!A10</f>
+        <v>1009</v>
+      </c>
+      <c r="B10" s="23">
+        <f>'کارنامه فردی'!CD10</f>
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="str">
+        <f>'کارنامه فردی'!B10</f>
+        <v>a9</v>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f>'کارنامه فردی'!C10</f>
+        <v>b9</v>
+      </c>
+      <c r="E10" s="8">
+        <f>'کارنامه فردی'!G10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f>'کارنامه فردی'!P10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f>'کارنامه فردی'!Y10</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <f>'کارنامه فردی'!AH10</f>
+        <v>-33.33</v>
+      </c>
+      <c r="I10" s="8">
+        <f>'کارنامه فردی'!AQ10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <f>'کارنامه فردی'!AZ10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <f>'کارنامه فردی'!BI10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <f>'کارنامه فردی'!BR10</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
+        <f>'کارنامه فردی'!CA10</f>
+        <v>-4.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <f>'کارنامه فردی'!A11</f>
+        <v>1010</v>
+      </c>
+      <c r="B11" s="23">
+        <f>'کارنامه فردی'!CD11</f>
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f>'کارنامه فردی'!B11</f>
+        <v>a10</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f>'کارنامه فردی'!C11</f>
+        <v>b10</v>
+      </c>
+      <c r="E11" s="8">
+        <f>'کارنامه فردی'!G11</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <f>'کارنامه فردی'!P11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f>'کارنامه فردی'!Y11</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <f>'کارنامه فردی'!AH11</f>
+        <v>-33.33</v>
+      </c>
+      <c r="I11" s="8">
+        <f>'کارنامه فردی'!AQ11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <f>'کارنامه فردی'!AZ11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <f>'کارنامه فردی'!BI11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <f>'کارنامه فردی'!BR11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
+        <f>'کارنامه فردی'!CA11</f>
+        <v>-4.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <f>'کارنامه فردی'!A12</f>
+        <v>1011</v>
+      </c>
+      <c r="B12" s="23">
+        <f>'کارنامه فردی'!CD12</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="9" t="str">
+        <f>'کارنامه فردی'!B12</f>
+        <v>a11</v>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f>'کارنامه فردی'!C12</f>
+        <v>b11</v>
+      </c>
+      <c r="E12" s="8">
+        <f>'کارنامه فردی'!G12</f>
+        <v>46.67</v>
+      </c>
+      <c r="F12" s="8">
+        <f>'کارنامه فردی'!P12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f>'کارنامه فردی'!Y12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <f>'کارنامه فردی'!AH12</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <f>'کارنامه فردی'!AQ12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
+        <f>'کارنامه فردی'!AZ12</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <f>'کارنامه فردی'!BI12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <f>'کارنامه فردی'!BR12</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
+        <f>'کارنامه فردی'!CA12</f>
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <f>'کارنامه فردی'!A13</f>
+        <v>1012</v>
+      </c>
+      <c r="B13" s="23">
+        <f>'کارنامه فردی'!CD13</f>
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>'کارنامه فردی'!B13</f>
+        <v>a12</v>
+      </c>
+      <c r="D13" s="9" t="str">
+        <f>'کارنامه فردی'!C13</f>
+        <v>b12</v>
+      </c>
+      <c r="E13" s="8">
+        <f>'کارنامه فردی'!G13</f>
+        <v>20</v>
+      </c>
+      <c r="F13" s="8">
+        <f>'کارنامه فردی'!P13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f>'کارنامه فردی'!Y13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <f>'کارنامه فردی'!AH13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f>'کارنامه فردی'!AQ13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <f>'کارنامه فردی'!AZ13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <f>'کارنامه فردی'!BI13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <f>'کارنامه فردی'!BR13</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <f>'کارنامه فردی'!CA13</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <f>'کارنامه فردی'!A14</f>
+        <v>1013</v>
+      </c>
+      <c r="B14" s="23">
+        <f>'کارنامه فردی'!CD14</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>'کارنامه فردی'!B14</f>
+        <v>a13</v>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f>'کارنامه فردی'!C14</f>
+        <v>b13</v>
+      </c>
+      <c r="E14" s="8">
+        <f>'کارنامه فردی'!G14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <f>'کارنامه فردی'!P14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f>'کارنامه فردی'!Y14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <f>'کارنامه فردی'!AH14</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <f>'کارنامه فردی'!AQ14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <f>'کارنامه فردی'!AZ14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <f>'کارنامه فردی'!BI14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="8">
+        <f>'کارنامه فردی'!BR14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <f>'کارنامه فردی'!CA14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <f>'کارنامه فردی'!A15</f>
+        <v>1014</v>
+      </c>
+      <c r="B15" s="23">
+        <f>'کارنامه فردی'!CD15</f>
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>'کارنامه فردی'!B15</f>
+        <v>a14</v>
+      </c>
+      <c r="D15" s="9" t="str">
+        <f>'کارنامه فردی'!C15</f>
+        <v>b14</v>
+      </c>
+      <c r="E15" s="8">
+        <f>'کارنامه فردی'!G15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <f>'کارنامه فردی'!P15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <f>'کارنامه فردی'!Y15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <f>'کارنامه فردی'!AH15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <f>'کارنامه فردی'!AQ15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <f>'کارنامه فردی'!AZ15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <f>'کارنامه فردی'!BI15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <f>'کارنامه فردی'!BR15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f>'کارنامه فردی'!CA15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <f>'کارنامه فردی'!A16</f>
+        <v>1015</v>
+      </c>
+      <c r="B16" s="23">
+        <f>'کارنامه فردی'!CD16</f>
+        <v>11</v>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>'کارنامه فردی'!B16</f>
+        <v>a15</v>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f>'کارنامه فردی'!C16</f>
+        <v>b15</v>
+      </c>
+      <c r="E16" s="8">
+        <f>'کارنامه فردی'!G16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <f>'کارنامه فردی'!P16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <f>'کارنامه فردی'!Y16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f>'کارنامه فردی'!AH16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <f>'کارنامه فردی'!AQ16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <f>'کارنامه فردی'!AZ16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <f>'کارنامه فردی'!BI16</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <f>'کارنامه فردی'!BR16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
+        <f>'کارنامه فردی'!CA16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <f>'کارنامه فردی'!A17</f>
+        <v>1016</v>
+      </c>
+      <c r="B17" s="23">
+        <f>'کارنامه فردی'!CD17</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f>'کارنامه فردی'!B17</f>
+        <v>a16</v>
+      </c>
+      <c r="D17" s="9" t="str">
+        <f>'کارنامه فردی'!C17</f>
+        <v>b16</v>
+      </c>
+      <c r="E17" s="8">
+        <f>'کارنامه فردی'!G17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <f>'کارنامه فردی'!P17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <f>'کارنامه فردی'!Y17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <f>'کارنامه فردی'!AH17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
+        <f>'کارنامه فردی'!AQ17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <f>'کارنامه فردی'!AZ17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <f>'کارنامه فردی'!BI17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <f>'کارنامه فردی'!BR17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <f>'کارنامه فردی'!CA17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <f>'کارنامه فردی'!A18</f>
+        <v>1017</v>
+      </c>
+      <c r="B18" s="23">
+        <f>'کارنامه فردی'!CD18</f>
+        <v>11</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f>'کارنامه فردی'!B18</f>
+        <v>a17</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f>'کارنامه فردی'!C18</f>
+        <v>b17</v>
+      </c>
+      <c r="E18" s="8">
+        <f>'کارنامه فردی'!G18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <f>'کارنامه فردی'!P18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <f>'کارنامه فردی'!Y18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <f>'کارنامه فردی'!AH18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <f>'کارنامه فردی'!AQ18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <f>'کارنامه فردی'!AZ18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <f>'کارنامه فردی'!BI18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <f>'کارنامه فردی'!BR18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <f>'کارنامه فردی'!CA18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <f>'کارنامه فردی'!A19</f>
+        <v>1018</v>
+      </c>
+      <c r="B19" s="23">
+        <f>'کارنامه فردی'!CD19</f>
+        <v>11</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f>'کارنامه فردی'!B19</f>
+        <v>a18</v>
+      </c>
+      <c r="D19" s="9" t="str">
+        <f>'کارنامه فردی'!C19</f>
+        <v>b18</v>
+      </c>
+      <c r="E19" s="8">
+        <f>'کارنامه فردی'!G19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <f>'کارنامه فردی'!P19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <f>'کارنامه فردی'!Y19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <f>'کارنامه فردی'!AH19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <f>'کارنامه فردی'!AQ19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <f>'کارنامه فردی'!AZ19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <f>'کارنامه فردی'!BI19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <f>'کارنامه فردی'!BR19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <f>'کارنامه فردی'!CA19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <f>'کارنامه فردی'!A20</f>
+        <v>1019</v>
+      </c>
+      <c r="B20" s="23">
+        <f>'کارنامه فردی'!CD20</f>
+        <v>11</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f>'کارنامه فردی'!B20</f>
+        <v>a19</v>
+      </c>
+      <c r="D20" s="9" t="str">
+        <f>'کارنامه فردی'!C20</f>
+        <v>b19</v>
+      </c>
+      <c r="E20" s="8">
+        <f>'کارنامه فردی'!G20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <f>'کارنامه فردی'!P20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <f>'کارنامه فردی'!Y20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <f>'کارنامه فردی'!AH20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <f>'کارنامه فردی'!AQ20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <f>'کارنامه فردی'!AZ20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <f>'کارنامه فردی'!BI20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <f>'کارنامه فردی'!BR20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <f>'کارنامه فردی'!CA20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <f>'کارنامه فردی'!A21</f>
+        <v>1020</v>
+      </c>
+      <c r="B21" s="23">
+        <f>'کارنامه فردی'!CD21</f>
+        <v>6</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f>'کارنامه فردی'!B21</f>
+        <v>a20</v>
+      </c>
+      <c r="D21" s="9" t="str">
+        <f>'کارنامه فردی'!C21</f>
+        <v>b20</v>
+      </c>
+      <c r="E21" s="8">
+        <f>'کارنامه فردی'!G21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <f>'کارنامه فردی'!P21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <f>'کارنامه فردی'!Y21</f>
+        <v>100</v>
+      </c>
+      <c r="H21" s="8">
+        <f>'کارنامه فردی'!AH21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <f>'کارنامه فردی'!AQ21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <f>'کارنامه فردی'!AZ21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <f>'کارنامه فردی'!BI21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <f>'کارنامه فردی'!BR21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <f>'کارنامه فردی'!CA21</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <f>'کارنامه فردی'!A22</f>
+        <v>1021</v>
+      </c>
+      <c r="B22" s="23">
+        <f>'کارنامه فردی'!CD22</f>
+        <v>6</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f>'کارنامه فردی'!B22</f>
+        <v>a21</v>
+      </c>
+      <c r="D22" s="9" t="str">
+        <f>'کارنامه فردی'!C22</f>
+        <v>b21</v>
+      </c>
+      <c r="E22" s="8">
+        <f>'کارنامه فردی'!G22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="8">
+        <f>'کارنامه فردی'!P22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <f>'کارنامه فردی'!Y22</f>
+        <v>100</v>
+      </c>
+      <c r="H22" s="8">
+        <f>'کارنامه فردی'!AH22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <f>'کارنامه فردی'!AQ22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <f>'کارنامه فردی'!AZ22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <f>'کارنامه فردی'!BI22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <f>'کارنامه فردی'!BR22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <f>'کارنامه فردی'!CA22</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <f>'کارنامه فردی'!A23</f>
+        <v>1022</v>
+      </c>
+      <c r="B23" s="23">
+        <f>'کارنامه فردی'!CD23</f>
+        <v>18</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f>'کارنامه فردی'!B23</f>
+        <v>a22</v>
+      </c>
+      <c r="D23" s="9" t="str">
+        <f>'کارنامه فردی'!C23</f>
+        <v>b22</v>
+      </c>
+      <c r="E23" s="8">
+        <f>'کارنامه فردی'!G23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <f>'کارنامه فردی'!P23</f>
+        <v>-33.33</v>
+      </c>
+      <c r="G23" s="8">
+        <f>'کارنامه فردی'!Y23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <f>'کارنامه فردی'!AH23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="8">
+        <f>'کارنامه فردی'!AQ23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
+        <f>'کارنامه فردی'!AZ23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <f>'کارنامه فردی'!BI23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <f>'کارنامه فردی'!BR23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <f>'کارنامه فردی'!CA23</f>
+        <v>-4.17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <f>'کارنامه فردی'!A24</f>
+        <v>1023</v>
+      </c>
+      <c r="B24" s="23">
+        <f>'کارنامه فردی'!CD24</f>
+        <v>24</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f>'کارنامه فردی'!B24</f>
+        <v>a23</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f>'کارنامه فردی'!C24</f>
+        <v>b23</v>
+      </c>
+      <c r="E24" s="8">
+        <f>'کارنامه فردی'!G24</f>
+        <v>-6.67</v>
+      </c>
+      <c r="F24" s="8">
+        <f>'کارنامه فردی'!P24</f>
+        <v>-33.33</v>
+      </c>
+      <c r="G24" s="8">
+        <f>'کارنامه فردی'!Y24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <f>'کارنامه فردی'!AH24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="8">
+        <f>'کارنامه فردی'!AQ24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <f>'کارنامه فردی'!AZ24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <f>'کارنامه فردی'!BI24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <f>'کارنامه فردی'!BR24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <f>'کارنامه فردی'!CA24</f>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <f>'کارنامه فردی'!A25</f>
+        <v>1024</v>
+      </c>
+      <c r="B25" s="23">
+        <f>'کارنامه فردی'!CD25</f>
+        <v>25</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f>'کارنامه فردی'!B25</f>
+        <v>a24</v>
+      </c>
+      <c r="D25" s="9" t="str">
+        <f>'کارنامه فردی'!C25</f>
+        <v>b24</v>
+      </c>
+      <c r="E25" s="8">
+        <f>'کارنامه فردی'!G25</f>
+        <v>-33.33</v>
+      </c>
+      <c r="F25" s="8">
+        <f>'کارنامه فردی'!P25</f>
+        <v>-33.33</v>
+      </c>
+      <c r="G25" s="8">
+        <f>'کارنامه فردی'!Y25</f>
+        <v>-33.33</v>
+      </c>
+      <c r="H25" s="8">
+        <f>'کارنامه فردی'!AH25</f>
+        <v>-33.33</v>
+      </c>
+      <c r="I25" s="8">
+        <f>'کارنامه فردی'!AQ25</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J25" s="8">
+        <f>'کارنامه فردی'!AZ25</f>
+        <v>-33.33</v>
+      </c>
+      <c r="K25" s="8">
+        <f>'کارنامه فردی'!BI25</f>
+        <v>-33.33</v>
+      </c>
+      <c r="L25" s="8">
+        <f>'کارنامه فردی'!BR25</f>
+        <v>-33.33</v>
+      </c>
+      <c r="M25" s="8">
+        <f>'کارنامه فردی'!CA25</f>
+        <v>-33.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <f>'کارنامه فردی'!A26</f>
+        <v>1025</v>
+      </c>
+      <c r="B26" s="23">
+        <f>'کارنامه فردی'!CD26</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f>'کارنامه فردی'!B26</f>
+        <v>a25</v>
+      </c>
+      <c r="D26" s="9" t="str">
+        <f>'کارنامه فردی'!C26</f>
+        <v>b25</v>
+      </c>
+      <c r="E26" s="8">
+        <f>'کارنامه فردی'!G26</f>
+        <v>100</v>
+      </c>
+      <c r="F26" s="8">
+        <f>'کارنامه فردی'!P26</f>
+        <v>100</v>
+      </c>
+      <c r="G26" s="8">
+        <f>'کارنامه فردی'!Y26</f>
+        <v>100</v>
+      </c>
+      <c r="H26" s="8">
+        <f>'کارنامه فردی'!AH26</f>
+        <v>100</v>
+      </c>
+      <c r="I26" s="8">
+        <f>'کارنامه فردی'!AQ26</f>
+        <v>100</v>
+      </c>
+      <c r="J26" s="8">
+        <f>'کارنامه فردی'!AZ26</f>
+        <v>100</v>
+      </c>
+      <c r="K26" s="8">
+        <f>'کارنامه فردی'!BI26</f>
+        <v>100</v>
+      </c>
+      <c r="L26" s="8">
+        <f>'کارنامه فردی'!BR26</f>
+        <v>100</v>
+      </c>
+      <c r="M26" s="8">
+        <f>'کارنامه فردی'!CA26</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8C02D1-3B50-4AC7-90B1-68D6EF3CD1CA}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
@@ -4116,17 +5592,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -11134,13 +12610,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:BK26">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11154,7 +12630,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11534,7 +13010,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12668,13 +14144,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H26">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$H2=$J2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="10" priority="2">
       <formula>$H2&lt;$J2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>$H2&gt;$J2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12696,980 +14172,1359 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0EC85-57AC-4A3C-A926-010A6AE1FBDB}">
-  <dimension ref="A1:BI7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BD09B7-D860-40DB-A175-F1AAFF6FEC7D}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BF13" sqref="BF13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="17">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>تنظیمات!A12</f>
+        <v>صحیح</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>تنظیمات!B12</f>
+        <v>غلط</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>تنظیمات!C12</f>
+        <v>نزده</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>تنظیمات!D12</f>
+        <v>درصد</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>تنظیمات!E12</f>
+        <v>بالاترین</v>
+      </c>
+      <c r="I1" s="1" t="str">
+        <f>تنظیمات!F12</f>
+        <v>پایین ترین</v>
+      </c>
+      <c r="J1" s="1" t="str">
+        <f>تنظیمات!G12</f>
+        <v>رتبه</v>
+      </c>
+      <c r="K1" s="1" t="str">
+        <f>تنظیمات!H12</f>
+        <v>میانگین</v>
+      </c>
+      <c r="L1" s="1" t="str">
+        <f>تنظیمات!I12</f>
+        <v>برگزیدگان</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
+        <f>ورودی!A2</f>
         <v>1001</v>
       </c>
+      <c r="B2" s="45" t="str">
+        <f>ورودی!B2</f>
+        <v>a1</v>
+      </c>
+      <c r="C2" s="45" t="str">
+        <f>ورودی!C2</f>
+        <v>b1</v>
+      </c>
+      <c r="D2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="E2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L2" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="17" t="str">
-        <f>INDEX(ورودی!B2:B26,MATCH('نتیجه پاسخ برگ'!B1,ورودی!A2:A26,0))</f>
-        <v>a1</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="17" t="str">
-        <f>INDEX(ورودی!C2:C26,MATCH('نتیجه پاسخ برگ'!B1,ورودی!A2:A26))</f>
-        <v>b1</v>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="45">
+        <f>ورودی!A3</f>
+        <v>1002</v>
+      </c>
+      <c r="B3" s="45" t="str">
+        <f>ورودی!B3</f>
+        <v>a2</v>
+      </c>
+      <c r="C3" s="45" t="str">
+        <f>ورودی!C3</f>
+        <v>b2</v>
+      </c>
+      <c r="D3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="F3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="H3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>24</v>
+      </c>
+      <c r="K3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L3" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
+        <f>ورودی!A4</f>
+        <v>1003</v>
+      </c>
+      <c r="B4" s="45" t="str">
+        <f>ورودی!B4</f>
+        <v>a3</v>
+      </c>
+      <c r="C4" s="45" t="str">
+        <f>ورودی!C4</f>
+        <v>b3</v>
+      </c>
+      <c r="D4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>46.67</v>
+      </c>
+      <c r="H4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="K4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L4" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
+        <f>ورودی!A5</f>
+        <v>1004</v>
+      </c>
+      <c r="B5" s="45" t="str">
+        <f>ورودی!B5</f>
+        <v>a4</v>
+      </c>
+      <c r="C5" s="45" t="str">
+        <f>ورودی!C5</f>
+        <v>b4</v>
+      </c>
+      <c r="D5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L5" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
+        <f>ورودی!A6</f>
+        <v>1005</v>
+      </c>
+      <c r="B6" s="45" t="str">
+        <f>ورودی!B6</f>
+        <v>a5</v>
+      </c>
+      <c r="C6" s="45" t="str">
+        <f>ورودی!C6</f>
+        <v>b5</v>
+      </c>
+      <c r="D6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L6" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
+        <f>ورودی!A7</f>
+        <v>1006</v>
+      </c>
+      <c r="B7" s="45" t="str">
+        <f>ورودی!B7</f>
+        <v>a6</v>
+      </c>
+      <c r="C7" s="45" t="str">
+        <f>ورودی!C7</f>
+        <v>b6</v>
+      </c>
+      <c r="D7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L7" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
+        <f>ورودی!A8</f>
+        <v>1007</v>
+      </c>
+      <c r="B8" s="45" t="str">
+        <f>ورودی!B8</f>
+        <v>a7</v>
+      </c>
+      <c r="C8" s="45" t="str">
+        <f>ورودی!C8</f>
+        <v>b7</v>
+      </c>
+      <c r="D8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L8" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
+        <f>ورودی!A9</f>
+        <v>1008</v>
+      </c>
+      <c r="B9" s="45" t="str">
+        <f>ورودی!B9</f>
+        <v>a8</v>
+      </c>
+      <c r="C9" s="45" t="str">
+        <f>ورودی!C9</f>
+        <v>b8</v>
+      </c>
+      <c r="D9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L9" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="45">
+        <f>ورودی!A10</f>
+        <v>1009</v>
+      </c>
+      <c r="B10" s="45" t="str">
+        <f>ورودی!B10</f>
+        <v>a9</v>
+      </c>
+      <c r="C10" s="45" t="str">
+        <f>ورودی!C10</f>
+        <v>b9</v>
+      </c>
+      <c r="D10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L10" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="45">
+        <f>ورودی!A11</f>
+        <v>1010</v>
+      </c>
+      <c r="B11" s="45" t="str">
+        <f>ورودی!B11</f>
+        <v>a10</v>
+      </c>
+      <c r="C11" s="45" t="str">
+        <f>ورودی!C11</f>
+        <v>b10</v>
+      </c>
+      <c r="D11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L11" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="45">
+        <f>ورودی!A12</f>
+        <v>1011</v>
+      </c>
+      <c r="B12" s="45" t="str">
+        <f>ورودی!B12</f>
+        <v>a11</v>
+      </c>
+      <c r="C12" s="45" t="str">
+        <f>ورودی!C12</f>
+        <v>b11</v>
+      </c>
+      <c r="D12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>46.67</v>
+      </c>
+      <c r="H12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="K12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L12" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="45">
+        <f>ورودی!A13</f>
+        <v>1012</v>
+      </c>
+      <c r="B13" s="45" t="str">
+        <f>ورودی!B13</f>
+        <v>a12</v>
+      </c>
+      <c r="C13" s="45" t="str">
+        <f>ورودی!C13</f>
+        <v>b12</v>
+      </c>
+      <c r="D13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>20</v>
+      </c>
+      <c r="H13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L13" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="45">
+        <f>ورودی!A14</f>
+        <v>1013</v>
+      </c>
+      <c r="B14" s="45" t="str">
+        <f>ورودی!B14</f>
+        <v>a13</v>
+      </c>
+      <c r="C14" s="45" t="str">
+        <f>ورودی!C14</f>
+        <v>b13</v>
+      </c>
+      <c r="D14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L14" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="45">
+        <f>ورودی!A15</f>
+        <v>1014</v>
+      </c>
+      <c r="B15" s="45" t="str">
+        <f>ورودی!B15</f>
+        <v>a14</v>
+      </c>
+      <c r="C15" s="45" t="str">
+        <f>ورودی!C15</f>
+        <v>b14</v>
+      </c>
+      <c r="D15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L15" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="45">
+        <f>ورودی!A16</f>
+        <v>1015</v>
+      </c>
+      <c r="B16" s="45" t="str">
+        <f>ورودی!B16</f>
+        <v>a15</v>
+      </c>
+      <c r="C16" s="45" t="str">
+        <f>ورودی!C16</f>
+        <v>b15</v>
+      </c>
+      <c r="D16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L16" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="45">
+        <f>ورودی!A17</f>
+        <v>1016</v>
+      </c>
+      <c r="B17" s="45" t="str">
+        <f>ورودی!B17</f>
+        <v>a16</v>
+      </c>
+      <c r="C17" s="45" t="str">
+        <f>ورودی!C17</f>
+        <v>b16</v>
+      </c>
+      <c r="D17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L17" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="45">
+        <f>ورودی!A18</f>
+        <v>1017</v>
+      </c>
+      <c r="B18" s="45" t="str">
+        <f>ورودی!B18</f>
+        <v>a17</v>
+      </c>
+      <c r="C18" s="45" t="str">
+        <f>ورودی!C18</f>
+        <v>b17</v>
+      </c>
+      <c r="D18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L18" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="45">
+        <f>ورودی!A19</f>
+        <v>1018</v>
+      </c>
+      <c r="B19" s="45" t="str">
+        <f>ورودی!B19</f>
+        <v>a18</v>
+      </c>
+      <c r="C19" s="45" t="str">
+        <f>ورودی!C19</f>
+        <v>b18</v>
+      </c>
+      <c r="D19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L19" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="45">
+        <f>ورودی!A20</f>
+        <v>1019</v>
+      </c>
+      <c r="B20" s="45" t="str">
+        <f>ورودی!B20</f>
+        <v>a19</v>
+      </c>
+      <c r="C20" s="45" t="str">
+        <f>ورودی!C20</f>
+        <v>b19</v>
+      </c>
+      <c r="D20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L20" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="45">
+        <f>ورودی!A21</f>
+        <v>1020</v>
+      </c>
+      <c r="B21" s="45" t="str">
+        <f>ورودی!B21</f>
+        <v>a20</v>
+      </c>
+      <c r="C21" s="45" t="str">
+        <f>ورودی!C21</f>
+        <v>b20</v>
+      </c>
+      <c r="D21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L21" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="45">
+        <f>ورودی!A22</f>
+        <v>1021</v>
+      </c>
+      <c r="B22" s="45" t="str">
+        <f>ورودی!B22</f>
+        <v>a21</v>
+      </c>
+      <c r="C22" s="45" t="str">
+        <f>ورودی!C22</f>
+        <v>b21</v>
+      </c>
+      <c r="D22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L22" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="45">
+        <f>ورودی!A23</f>
+        <v>1022</v>
+      </c>
+      <c r="B23" s="45" t="str">
+        <f>ورودی!B23</f>
+        <v>a22</v>
+      </c>
+      <c r="C23" s="45" t="str">
+        <f>ورودی!C23</f>
+        <v>b22</v>
+      </c>
+      <c r="D23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>6</v>
+      </c>
+      <c r="K23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L23" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="45">
+        <f>ورودی!A24</f>
+        <v>1023</v>
+      </c>
+      <c r="B24" s="45" t="str">
+        <f>ورودی!B24</f>
+        <v>a23</v>
+      </c>
+      <c r="C24" s="45" t="str">
+        <f>ورودی!C24</f>
+        <v>b23</v>
+      </c>
+      <c r="D24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-6.67</v>
+      </c>
+      <c r="H24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>23</v>
+      </c>
+      <c r="K24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L24" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="45">
+        <f>ورودی!A25</f>
+        <v>1024</v>
+      </c>
+      <c r="B25" s="45" t="str">
+        <f>ورودی!B25</f>
+        <v>a24</v>
+      </c>
+      <c r="C25" s="45" t="str">
+        <f>ورودی!C25</f>
+        <v>b24</v>
+      </c>
+      <c r="D25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G4" s="1">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1">
-        <v>10</v>
-      </c>
-      <c r="L4" s="1">
-        <v>11</v>
-      </c>
-      <c r="M4" s="1">
-        <v>12</v>
-      </c>
-      <c r="N4" s="1">
-        <v>13</v>
-      </c>
-      <c r="O4" s="1">
-        <v>14</v>
-      </c>
-      <c r="P4" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>16</v>
-      </c>
-      <c r="R4" s="1">
-        <v>17</v>
-      </c>
-      <c r="S4" s="1">
-        <v>18</v>
-      </c>
-      <c r="T4" s="1">
-        <v>19</v>
-      </c>
-      <c r="U4" s="1">
-        <v>20</v>
-      </c>
-      <c r="V4" s="1">
-        <v>21</v>
-      </c>
-      <c r="W4" s="1">
-        <v>22</v>
-      </c>
-      <c r="X4" s="1">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="1">
+      <c r="F25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="H25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>24</v>
       </c>
-      <c r="Z4" s="1">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>27</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>28</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>30</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>37</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>38</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>39</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>41</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>42</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>43</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>44</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>45</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>46</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>47</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>48</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>49</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>50</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>51</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>52</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>53</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>54</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>55</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>56</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>57</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>58</v>
-      </c>
-      <c r="BH4" s="1">
+      <c r="K25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L25" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="45">
+        <f>ورودی!A26</f>
+        <v>1025</v>
+      </c>
+      <c r="B26" s="45" t="str">
+        <f>ورودی!B26</f>
+        <v>a25</v>
+      </c>
+      <c r="C26" s="45" t="str">
+        <f>ورودی!C26</f>
+        <v>b25</v>
+      </c>
+      <c r="D26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="E26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="H26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9.6</v>
+      </c>
+      <c r="L26" s="45">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="BI4" s="1">
-        <v>60</v>
-      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="L5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="N5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="P5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Q5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="R5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="S5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="T5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="U5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="V5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="W5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="X5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Y5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AA5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AB5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AC5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AD5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AE5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AF5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AG5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AH5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AI5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AK5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AL5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AM5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AN5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AO5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AP5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AR5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AS5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AT5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AU5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AV5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AW5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AX5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AY5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BB$2:BB$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BA5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BC$2:BC$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BB5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BD$2:BD$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BC5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BE$2:BE$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BD5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BF$2:BF$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BE5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BG$2:BG$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BF5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BH$2:BH$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BG5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BI$2:BI$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BH5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BJ$2:BJ$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-      <c r="BI5" s="22">
-        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BK$2:BK$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="22">
-        <f>کلید!B2</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="22">
-        <f>کلید!C2</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="22">
-        <f>کلید!D2</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="22">
-        <f>کلید!E2</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="22">
-        <f>کلید!F2</f>
-        <v>1</v>
-      </c>
-      <c r="G6" s="22">
-        <f>کلید!G2</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="22">
-        <f>کلید!H2</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="22">
-        <f>کلید!I2</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <f>کلید!J2</f>
-        <v>1</v>
-      </c>
-      <c r="K6" s="22">
-        <f>کلید!K2</f>
-        <v>1</v>
-      </c>
-      <c r="L6" s="22">
-        <f>کلید!L2</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="22">
-        <f>کلید!M2</f>
-        <v>1</v>
-      </c>
-      <c r="N6" s="22">
-        <f>کلید!N2</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="22">
-        <f>کلید!O2</f>
-        <v>1</v>
-      </c>
-      <c r="P6" s="22">
-        <f>کلید!P2</f>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="22">
-        <f>کلید!Q2</f>
-        <v>1</v>
-      </c>
-      <c r="R6" s="22">
-        <f>کلید!R2</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="22">
-        <f>کلید!S2</f>
-        <v>1</v>
-      </c>
-      <c r="T6" s="22">
-        <f>کلید!T2</f>
-        <v>1</v>
-      </c>
-      <c r="U6" s="22">
-        <f>کلید!U2</f>
-        <v>1</v>
-      </c>
-      <c r="V6" s="22">
-        <f>کلید!V2</f>
-        <v>1</v>
-      </c>
-      <c r="W6" s="22">
-        <f>کلید!W2</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="22">
-        <f>کلید!X2</f>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="22">
-        <f>کلید!Y2</f>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="22">
-        <f>کلید!Z2</f>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="22">
-        <f>کلید!AA2</f>
-        <v>1</v>
-      </c>
-      <c r="AB6" s="22">
-        <f>کلید!AB2</f>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="22">
-        <f>کلید!AC2</f>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="22">
-        <f>کلید!AD2</f>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="22">
-        <f>کلید!AE2</f>
-        <v>1</v>
-      </c>
-      <c r="AF6" s="22">
-        <f>کلید!AF2</f>
-        <v>1</v>
-      </c>
-      <c r="AG6" s="22">
-        <f>کلید!AG2</f>
-        <v>1</v>
-      </c>
-      <c r="AH6" s="22">
-        <f>کلید!AH2</f>
-        <v>1</v>
-      </c>
-      <c r="AI6" s="22">
-        <f>کلید!AI2</f>
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="22">
-        <f>کلید!AJ2</f>
-        <v>1</v>
-      </c>
-      <c r="AK6" s="22">
-        <f>کلید!AK2</f>
-        <v>1</v>
-      </c>
-      <c r="AL6" s="22">
-        <f>کلید!AL2</f>
-        <v>1</v>
-      </c>
-      <c r="AM6" s="22">
-        <f>کلید!AM2</f>
-        <v>1</v>
-      </c>
-      <c r="AN6" s="22">
-        <f>کلید!AN2</f>
-        <v>1</v>
-      </c>
-      <c r="AO6" s="22">
-        <f>کلید!AO2</f>
-        <v>1</v>
-      </c>
-      <c r="AP6" s="22">
-        <f>کلید!AP2</f>
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="22">
-        <f>کلید!AQ2</f>
-        <v>1</v>
-      </c>
-      <c r="AR6" s="22">
-        <f>کلید!AR2</f>
-        <v>1</v>
-      </c>
-      <c r="AS6" s="22">
-        <f>کلید!AS2</f>
-        <v>1</v>
-      </c>
-      <c r="AT6" s="22">
-        <f>کلید!AT2</f>
-        <v>1</v>
-      </c>
-      <c r="AU6" s="22">
-        <f>کلید!AU2</f>
-        <v>1</v>
-      </c>
-      <c r="AV6" s="22">
-        <f>کلید!AV2</f>
-        <v>1</v>
-      </c>
-      <c r="AW6" s="22">
-        <f>کلید!AW2</f>
-        <v>1</v>
-      </c>
-      <c r="AX6" s="22">
-        <f>کلید!AX2</f>
-        <v>1</v>
-      </c>
-      <c r="AY6" s="22">
-        <f>کلید!AY2</f>
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="22">
-        <f>کلید!AZ2</f>
-        <v>1</v>
-      </c>
-      <c r="BA6" s="22">
-        <f>کلید!BA2</f>
-        <v>1</v>
-      </c>
-      <c r="BB6" s="22">
-        <f>کلید!BB2</f>
-        <v>1</v>
-      </c>
-      <c r="BC6" s="22">
-        <f>کلید!BC2</f>
-        <v>1</v>
-      </c>
-      <c r="BD6" s="22">
-        <f>کلید!BD2</f>
-        <v>1</v>
-      </c>
-      <c r="BE6" s="22">
-        <f>کلید!BE2</f>
-        <v>1</v>
-      </c>
-      <c r="BF6" s="22">
-        <f>کلید!BF2</f>
-        <v>1</v>
-      </c>
-      <c r="BG6" s="22">
-        <f>کلید!BG2</f>
-        <v>1</v>
-      </c>
-      <c r="BH6" s="22">
-        <f>کلید!BH2</f>
-        <v>1</v>
-      </c>
-      <c r="BI6" s="22">
-        <f>کلید!BI2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="2">
-        <f>INDEX(خروجی!D$2:D$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <f>INDEX(خروجی!E$2:E$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="D7" s="2">
-        <f>INDEX(خروجی!F$2:F$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <f>INDEX(خروجی!G$2:G$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F7" s="2">
-        <f>INDEX(خروجی!H$2:H$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G7" s="2">
-        <f>INDEX(خروجی!I$2:I$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
-        <f>INDEX(خروجی!J$2:J$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
-        <f>INDEX(خروجی!K$2:K$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
-        <f>INDEX(خروجی!L$2:L$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="K7" s="2">
-        <f>INDEX(خروجی!M$2:M$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="L7" s="2">
-        <f>INDEX(خروجی!N$2:N$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="M7" s="2">
-        <f>INDEX(خروجی!O$2:O$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="N7" s="2">
-        <f>INDEX(خروجی!P$2:P$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="O7" s="2">
-        <f>INDEX(خروجی!Q$2:Q$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="P7" s="2">
-        <f>INDEX(خروجی!R$2:R$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>INDEX(خروجی!S$2:S$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="R7" s="2">
-        <f>INDEX(خروجی!T$2:T$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="S7" s="2">
-        <f>INDEX(خروجی!U$2:U$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="T7" s="2">
-        <f>INDEX(خروجی!V$2:V$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="U7" s="2">
-        <f>INDEX(خروجی!W$2:W$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="V7" s="2">
-        <f>INDEX(خروجی!X$2:X$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="W7" s="2">
-        <f>INDEX(خروجی!Y$2:Y$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="X7" s="2">
-        <f>INDEX(خروجی!Z$2:Z$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="Y7" s="2">
-        <f>INDEX(خروجی!AA$2:AA$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2">
-        <f>INDEX(خروجی!AB$2:AB$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AA7" s="2">
-        <f>INDEX(خروجی!AC$2:AC$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AB7" s="2">
-        <f>INDEX(خروجی!AD$2:AD$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AC7" s="2">
-        <f>INDEX(خروجی!AE$2:AE$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AD7" s="2">
-        <f>INDEX(خروجی!AF$2:AF$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AE7" s="2">
-        <f>INDEX(خروجی!AG$2:AG$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AF7" s="2">
-        <f>INDEX(خروجی!AH$2:AH$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AG7" s="2">
-        <f>INDEX(خروجی!AI$2:AI$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AH7" s="2">
-        <f>INDEX(خروجی!AJ$2:AJ$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AI7" s="2">
-        <f>INDEX(خروجی!AK$2:AK$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AJ7" s="2">
-        <f>INDEX(خروجی!AL$2:AL$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AK7" s="2">
-        <f>INDEX(خروجی!AM$2:AM$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AL7" s="2">
-        <f>INDEX(خروجی!AN$2:AN$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AM7" s="2">
-        <f>INDEX(خروجی!AO$2:AO$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AN7" s="2">
-        <f>INDEX(خروجی!AP$2:AP$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AO7" s="2">
-        <f>INDEX(خروجی!AQ$2:AQ$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AP7" s="2">
-        <f>INDEX(خروجی!AR$2:AR$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AQ7" s="2">
-        <f>INDEX(خروجی!AS$2:AS$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AR7" s="2">
-        <f>INDEX(خروجی!AT$2:AT$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AS7" s="2">
-        <f>INDEX(خروجی!AU$2:AU$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AT7" s="2">
-        <f>INDEX(خروجی!AV$2:AV$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AU7" s="2">
-        <f>INDEX(خروجی!AW$2:AW$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AV7" s="2">
-        <f>INDEX(خروجی!AX$2:AX$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AW7" s="2">
-        <f>INDEX(خروجی!AY$2:AY$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AX7" s="2">
-        <f>INDEX(خروجی!AZ$2:AZ$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AY7" s="2">
-        <f>INDEX(خروجی!BA$2:BA$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="AZ7" s="2">
-        <f>INDEX(خروجی!BB$2:BB$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BA7" s="2">
-        <f>INDEX(خروجی!BC$2:BC$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BB7" s="2">
-        <f>INDEX(خروجی!BD$2:BD$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BC7" s="2">
-        <f>INDEX(خروجی!BE$2:BE$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BD7" s="2">
-        <f>INDEX(خروجی!BF$2:BF$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BE7" s="2">
-        <f>INDEX(خروجی!BG$2:BG$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BF7" s="2">
-        <f>INDEX(خروجی!BH$2:BH$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BG7" s="2">
-        <f>INDEX(خروجی!BI$2:BI$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BH7" s="2">
-        <f>INDEX(خروجی!BJ$2:BJ$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
-        <v>3</v>
-      </c>
-      <c r="BI7" s="2">
-        <f>INDEX(خروجی!BK$2:BK$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="45">
+        <f>تنظیمات!B7</f>
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B7:BI7">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>-1</formula>
+  <conditionalFormatting sqref="A2:L26">
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>$G2=$I2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>0</formula>
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>$G2&lt;$I2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>3</formula>
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$G2&gt;$I2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D99EECEC-8D26-4305-B364-36491F11749B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{65BAFC12-BDAE-43B7-BAD6-1D73E88AB42B}">
           <x14:formula1>
-            <xm:f>ورودی!$A$2:$A$26</xm:f>
+            <xm:f>تنظیمات!$B$2:$I$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B1</xm:sqref>
+          <xm:sqref>C28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14466,7 +16321,7 @@
         <f>ROUND(AVERAGE($G$2:$G$26),2)</f>
         <v>9.6</v>
       </c>
-      <c r="L2" s="39">
+      <c r="L2" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -14502,7 +16357,7 @@
         <f>ROUND(AVERAGE($P$2:$P$26),2)</f>
         <v>12</v>
       </c>
-      <c r="U2" s="40">
+      <c r="U2" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -14538,7 +16393,7 @@
         <f>ROUND(AVERAGE($Y$2:$Y$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AD2" s="41">
+      <c r="AD2" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -14610,7 +16465,7 @@
         <f>ROUND(AVERAGE($AQ$2:$AQ$26),2)</f>
         <v>8.67</v>
       </c>
-      <c r="AV2" s="42">
+      <c r="AV2" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -14682,7 +16537,7 @@
         <f>ROUND(AVERAGE($BI$2:$BI$26),2)</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN2" s="43">
+      <c r="BN2" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -14718,7 +16573,7 @@
         <f>ROUND( AVERAGE($BR$2:$BR$26),2)</f>
         <v>6.67</v>
       </c>
-      <c r="BW2" s="44">
+      <c r="BW2" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -15284,7 +17139,7 @@
         <f t="shared" ref="K3:K26" si="8">ROUND(AVERAGE($G$2:$G$26),2)</f>
         <v>9.6</v>
       </c>
-      <c r="L3" s="39">
+      <c r="L3" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -15320,7 +17175,7 @@
         <f t="shared" ref="T3:T26" si="11">ROUND(AVERAGE($P$2:$P$26),2)</f>
         <v>12</v>
       </c>
-      <c r="U3" s="40">
+      <c r="U3" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -15356,7 +17211,7 @@
         <f t="shared" ref="AC3:AC26" si="16">ROUND(AVERAGE($Y$2:$Y$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AD3" s="41">
+      <c r="AD3" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -15428,7 +17283,7 @@
         <f t="shared" ref="AU3:AU26" si="26">ROUND(AVERAGE($AQ$2:$AQ$26),2)</f>
         <v>8.67</v>
       </c>
-      <c r="AV3" s="42">
+      <c r="AV3" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -15500,7 +17355,7 @@
         <f t="shared" ref="BM3:BM26" si="36">ROUND(AVERAGE($BI$2:$BI$26),2)</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN3" s="43">
+      <c r="BN3" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -15536,7 +17391,7 @@
         <f t="shared" ref="BV3:BV26" si="41">ROUND( AVERAGE($BR$2:$BR$26),2)</f>
         <v>6.67</v>
       </c>
-      <c r="BW3" s="44">
+      <c r="BW3" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -16102,7 +17957,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -16138,7 +17993,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U4" s="40">
+      <c r="U4" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -16174,7 +18029,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD4" s="41">
+      <c r="AD4" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -16246,7 +18101,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV4" s="42">
+      <c r="AV4" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -16318,7 +18173,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN4" s="43">
+      <c r="BN4" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -16354,7 +18209,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW4" s="44">
+      <c r="BW4" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -16920,7 +18775,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -16956,7 +18811,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -16992,7 +18847,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD5" s="41">
+      <c r="AD5" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -17064,7 +18919,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV5" s="42">
+      <c r="AV5" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -17136,7 +18991,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN5" s="43">
+      <c r="BN5" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -17172,7 +19027,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW5" s="44">
+      <c r="BW5" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -17738,7 +19593,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -17774,7 +19629,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U6" s="40">
+      <c r="U6" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -17810,7 +19665,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD6" s="41">
+      <c r="AD6" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -17882,7 +19737,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV6" s="42">
+      <c r="AV6" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -17954,7 +19809,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN6" s="43">
+      <c r="BN6" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -17990,7 +19845,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW6" s="44">
+      <c r="BW6" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -18556,7 +20411,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -18592,7 +20447,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -18628,7 +20483,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD7" s="41">
+      <c r="AD7" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -18700,7 +20555,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV7" s="42">
+      <c r="AV7" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -18772,7 +20627,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN7" s="43">
+      <c r="BN7" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -18808,7 +20663,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW7" s="44">
+      <c r="BW7" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -19374,7 +21229,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -19410,7 +21265,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U8" s="40">
+      <c r="U8" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -19446,7 +21301,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD8" s="41">
+      <c r="AD8" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -19518,7 +21373,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV8" s="42">
+      <c r="AV8" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -19590,7 +21445,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN8" s="43">
+      <c r="BN8" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -19626,7 +21481,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW8" s="44">
+      <c r="BW8" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -20192,7 +22047,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -20228,7 +22083,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U9" s="40">
+      <c r="U9" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -20264,7 +22119,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD9" s="41">
+      <c r="AD9" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -20336,7 +22191,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV9" s="42">
+      <c r="AV9" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -20408,7 +22263,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN9" s="43">
+      <c r="BN9" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -20444,7 +22299,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW9" s="44">
+      <c r="BW9" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21010,7 +22865,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21046,7 +22901,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U10" s="40">
+      <c r="U10" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21082,7 +22937,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD10" s="41">
+      <c r="AD10" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21154,7 +23009,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV10" s="42">
+      <c r="AV10" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21226,7 +23081,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN10" s="43">
+      <c r="BN10" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -21262,7 +23117,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW10" s="44">
+      <c r="BW10" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21828,7 +23683,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21864,7 +23719,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U11" s="40">
+      <c r="U11" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21900,7 +23755,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD11" s="41">
+      <c r="AD11" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -21972,7 +23827,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV11" s="42">
+      <c r="AV11" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -22044,7 +23899,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN11" s="43">
+      <c r="BN11" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -22080,7 +23935,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW11" s="44">
+      <c r="BW11" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -22646,7 +24501,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -22682,7 +24537,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U12" s="40">
+      <c r="U12" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -22718,7 +24573,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD12" s="41">
+      <c r="AD12" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -22790,7 +24645,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV12" s="42">
+      <c r="AV12" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -22862,7 +24717,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN12" s="43">
+      <c r="BN12" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -22898,7 +24753,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW12" s="44">
+      <c r="BW12" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -23464,7 +25319,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -23500,7 +25355,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U13" s="40">
+      <c r="U13" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -23536,7 +25391,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD13" s="41">
+      <c r="AD13" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -23608,7 +25463,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV13" s="42">
+      <c r="AV13" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -23680,7 +25535,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN13" s="43">
+      <c r="BN13" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -23716,7 +25571,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW13" s="44">
+      <c r="BW13" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -24282,7 +26137,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -24318,7 +26173,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -24354,7 +26209,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD14" s="41">
+      <c r="AD14" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -24426,7 +26281,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV14" s="42">
+      <c r="AV14" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -24498,7 +26353,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN14" s="43">
+      <c r="BN14" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -24534,7 +26389,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW14" s="44">
+      <c r="BW14" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -25100,7 +26955,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -25136,7 +26991,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U15" s="40">
+      <c r="U15" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -25172,7 +27027,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD15" s="41">
+      <c r="AD15" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -25244,7 +27099,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV15" s="42">
+      <c r="AV15" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -25316,7 +27171,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN15" s="43">
+      <c r="BN15" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -25352,7 +27207,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW15" s="44">
+      <c r="BW15" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -25918,7 +27773,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -25954,7 +27809,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U16" s="40">
+      <c r="U16" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -25990,7 +27845,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD16" s="41">
+      <c r="AD16" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -26062,7 +27917,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV16" s="42">
+      <c r="AV16" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -26134,7 +27989,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN16" s="43">
+      <c r="BN16" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -26170,7 +28025,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW16" s="44">
+      <c r="BW16" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -26736,7 +28591,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -26772,7 +28627,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U17" s="40">
+      <c r="U17" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -26808,7 +28663,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD17" s="41">
+      <c r="AD17" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -26880,7 +28735,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV17" s="42">
+      <c r="AV17" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -26952,7 +28807,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN17" s="43">
+      <c r="BN17" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -26988,7 +28843,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW17" s="44">
+      <c r="BW17" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -27554,7 +29409,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -27590,7 +29445,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U18" s="40">
+      <c r="U18" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -27626,7 +29481,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD18" s="41">
+      <c r="AD18" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -27698,7 +29553,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV18" s="42">
+      <c r="AV18" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -27770,7 +29625,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN18" s="43">
+      <c r="BN18" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -27806,7 +29661,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW18" s="44">
+      <c r="BW18" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -28372,7 +30227,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -28408,7 +30263,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U19" s="40">
+      <c r="U19" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -28444,7 +30299,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD19" s="41">
+      <c r="AD19" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -28516,7 +30371,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV19" s="42">
+      <c r="AV19" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -28588,7 +30443,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN19" s="43">
+      <c r="BN19" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -28624,7 +30479,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW19" s="44">
+      <c r="BW19" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -29190,7 +31045,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -29226,7 +31081,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U20" s="40">
+      <c r="U20" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -29262,7 +31117,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD20" s="41">
+      <c r="AD20" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -29334,7 +31189,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV20" s="42">
+      <c r="AV20" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -29406,7 +31261,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN20" s="43">
+      <c r="BN20" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -29442,7 +31297,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW20" s="44">
+      <c r="BW20" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30008,7 +31863,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30044,7 +31899,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U21" s="40">
+      <c r="U21" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30080,7 +31935,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD21" s="41">
+      <c r="AD21" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30152,7 +32007,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV21" s="42">
+      <c r="AV21" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30224,7 +32079,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN21" s="43">
+      <c r="BN21" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -30260,7 +32115,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW21" s="44">
+      <c r="BW21" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30826,7 +32681,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30862,7 +32717,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U22" s="40">
+      <c r="U22" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30898,7 +32753,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD22" s="41">
+      <c r="AD22" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -30970,7 +32825,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV22" s="42">
+      <c r="AV22" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -31042,7 +32897,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN22" s="43">
+      <c r="BN22" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -31078,7 +32933,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW22" s="44">
+      <c r="BW22" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -31644,7 +33499,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -31680,7 +33535,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U23" s="40">
+      <c r="U23" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -31716,7 +33571,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD23" s="41">
+      <c r="AD23" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -31788,7 +33643,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV23" s="42">
+      <c r="AV23" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -31860,7 +33715,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN23" s="43">
+      <c r="BN23" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -31896,7 +33751,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW23" s="44">
+      <c r="BW23" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -32462,7 +34317,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -32498,7 +34353,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U24" s="40">
+      <c r="U24" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -32534,7 +34389,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD24" s="41">
+      <c r="AD24" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -32606,7 +34461,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV24" s="42">
+      <c r="AV24" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -32678,7 +34533,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN24" s="43">
+      <c r="BN24" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -32714,7 +34569,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW24" s="44">
+      <c r="BW24" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -33280,7 +35135,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -33316,7 +35171,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U25" s="40">
+      <c r="U25" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -33352,7 +35207,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD25" s="41">
+      <c r="AD25" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -33424,7 +35279,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV25" s="42">
+      <c r="AV25" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -33496,7 +35351,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN25" s="43">
+      <c r="BN25" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -33532,7 +35387,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW25" s="44">
+      <c r="BW25" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -34098,7 +35953,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>66.67</v>
       </c>
@@ -34134,7 +35989,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U26" s="40">
+      <c r="U26" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>66.67</v>
       </c>
@@ -34170,7 +36025,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD26" s="41">
+      <c r="AD26" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>66.67</v>
       </c>
@@ -34242,7 +36097,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV26" s="42">
+      <c r="AV26" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>66.67</v>
       </c>
@@ -34314,7 +36169,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN26" s="43">
+      <c r="BN26" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>83.33</v>
       </c>
@@ -34350,7 +36205,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW26" s="44">
+      <c r="BW26" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>66.67</v>
       </c>
@@ -34888,6 +36743,988 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0EC85-57AC-4A3C-A926-010A6AE1FBDB}">
+  <dimension ref="A1:BI7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BF13" sqref="BF13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="17">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17" t="str">
+        <f>INDEX(ورودی!B2:B26,MATCH('نتیجه پاسخ برگ'!B1,ورودی!A2:A26,0))</f>
+        <v>a1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="17" t="str">
+        <f>INDEX(ورودی!C2:C26,MATCH('نتیجه پاسخ برگ'!B1,ورودی!A2:A26))</f>
+        <v>b1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1">
+        <v>12</v>
+      </c>
+      <c r="N4" s="1">
+        <v>13</v>
+      </c>
+      <c r="O4" s="1">
+        <v>14</v>
+      </c>
+      <c r="P4" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1">
+        <v>17</v>
+      </c>
+      <c r="S4" s="1">
+        <v>18</v>
+      </c>
+      <c r="T4" s="1">
+        <v>19</v>
+      </c>
+      <c r="U4" s="1">
+        <v>20</v>
+      </c>
+      <c r="V4" s="1">
+        <v>21</v>
+      </c>
+      <c r="W4" s="1">
+        <v>22</v>
+      </c>
+      <c r="X4" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>55</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>56</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>57</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>58</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>59</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!D$2:D$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!E$2:E$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!F$2:F$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!G$2:G$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!H$2:H$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!I$2:I$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!J$2:J$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!K$2:K$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!L$2:L$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!M$2:M$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!N$2:N$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!O$2:O$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!P$2:P$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!Q$2:Q$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!R$2:R$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!S$2:S$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!T$2:T$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="S5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!U$2:U$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!V$2:V$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!W$2:W$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="V5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!X$2:X$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="W5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!Y$2:Y$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!Z$2:Z$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AA$2:AA$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AB$2:AB$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AC$2:AC$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AB5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AD$2:AD$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AC5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AE$2:AE$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AD5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AF$2:AF$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AE5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AG$2:AG$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AF5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AH$2:AH$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AG5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AI$2:AI$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AH5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AJ$2:AJ$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AI5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AK$2:AK$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AL$2:AL$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AK5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AM$2:AM$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AL5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AN$2:AN$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AM5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AO$2:AO$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AN5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AP$2:AP$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AO5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AQ$2:AQ$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AP5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AR$2:AR$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AS$2:AS$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AR5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AT$2:AT$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AS5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AU$2:AU$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AT5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AV$2:AV$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AU5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AW$2:AW$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AX$2:AX$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AY$2:AY$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!AZ$2:AZ$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BA$2:BA$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BB$2:BB$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BA5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BC$2:BC$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BD$2:BD$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BE$2:BE$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BF$2:BF$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BG$2:BG$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BH$2:BH$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BI$2:BI$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BJ$2:BJ$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI5" s="22">
+        <f>IF(COUNTIF(ورودی!$A$2:$A$26,'نتیجه پاسخ برگ'!$B$1)&gt;0,INDEX(ورودی!BK$2:BK$26,MATCH('نتیجه پاسخ برگ'!$B$1,ورودی!$A$2:$A$26,0)),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="22">
+        <f>کلید!B2</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="22">
+        <f>کلید!C2</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="22">
+        <f>کلید!D2</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="22">
+        <f>کلید!E2</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="22">
+        <f>کلید!F2</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="22">
+        <f>کلید!G2</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="22">
+        <f>کلید!H2</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="22">
+        <f>کلید!I2</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="22">
+        <f>کلید!J2</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="22">
+        <f>کلید!K2</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="22">
+        <f>کلید!L2</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="22">
+        <f>کلید!M2</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="22">
+        <f>کلید!N2</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="22">
+        <f>کلید!O2</f>
+        <v>1</v>
+      </c>
+      <c r="P6" s="22">
+        <f>کلید!P2</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="22">
+        <f>کلید!Q2</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="22">
+        <f>کلید!R2</f>
+        <v>1</v>
+      </c>
+      <c r="S6" s="22">
+        <f>کلید!S2</f>
+        <v>1</v>
+      </c>
+      <c r="T6" s="22">
+        <f>کلید!T2</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="22">
+        <f>کلید!U2</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="22">
+        <f>کلید!V2</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="22">
+        <f>کلید!W2</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="22">
+        <f>کلید!X2</f>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="22">
+        <f>کلید!Y2</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="22">
+        <f>کلید!Z2</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="22">
+        <f>کلید!AA2</f>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="22">
+        <f>کلید!AB2</f>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="22">
+        <f>کلید!AC2</f>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="22">
+        <f>کلید!AD2</f>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="22">
+        <f>کلید!AE2</f>
+        <v>1</v>
+      </c>
+      <c r="AF6" s="22">
+        <f>کلید!AF2</f>
+        <v>1</v>
+      </c>
+      <c r="AG6" s="22">
+        <f>کلید!AG2</f>
+        <v>1</v>
+      </c>
+      <c r="AH6" s="22">
+        <f>کلید!AH2</f>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="22">
+        <f>کلید!AI2</f>
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="22">
+        <f>کلید!AJ2</f>
+        <v>1</v>
+      </c>
+      <c r="AK6" s="22">
+        <f>کلید!AK2</f>
+        <v>1</v>
+      </c>
+      <c r="AL6" s="22">
+        <f>کلید!AL2</f>
+        <v>1</v>
+      </c>
+      <c r="AM6" s="22">
+        <f>کلید!AM2</f>
+        <v>1</v>
+      </c>
+      <c r="AN6" s="22">
+        <f>کلید!AN2</f>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="22">
+        <f>کلید!AO2</f>
+        <v>1</v>
+      </c>
+      <c r="AP6" s="22">
+        <f>کلید!AP2</f>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="22">
+        <f>کلید!AQ2</f>
+        <v>1</v>
+      </c>
+      <c r="AR6" s="22">
+        <f>کلید!AR2</f>
+        <v>1</v>
+      </c>
+      <c r="AS6" s="22">
+        <f>کلید!AS2</f>
+        <v>1</v>
+      </c>
+      <c r="AT6" s="22">
+        <f>کلید!AT2</f>
+        <v>1</v>
+      </c>
+      <c r="AU6" s="22">
+        <f>کلید!AU2</f>
+        <v>1</v>
+      </c>
+      <c r="AV6" s="22">
+        <f>کلید!AV2</f>
+        <v>1</v>
+      </c>
+      <c r="AW6" s="22">
+        <f>کلید!AW2</f>
+        <v>1</v>
+      </c>
+      <c r="AX6" s="22">
+        <f>کلید!AX2</f>
+        <v>1</v>
+      </c>
+      <c r="AY6" s="22">
+        <f>کلید!AY2</f>
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="22">
+        <f>کلید!AZ2</f>
+        <v>1</v>
+      </c>
+      <c r="BA6" s="22">
+        <f>کلید!BA2</f>
+        <v>1</v>
+      </c>
+      <c r="BB6" s="22">
+        <f>کلید!BB2</f>
+        <v>1</v>
+      </c>
+      <c r="BC6" s="22">
+        <f>کلید!BC2</f>
+        <v>1</v>
+      </c>
+      <c r="BD6" s="22">
+        <f>کلید!BD2</f>
+        <v>1</v>
+      </c>
+      <c r="BE6" s="22">
+        <f>کلید!BE2</f>
+        <v>1</v>
+      </c>
+      <c r="BF6" s="22">
+        <f>کلید!BF2</f>
+        <v>1</v>
+      </c>
+      <c r="BG6" s="22">
+        <f>کلید!BG2</f>
+        <v>1</v>
+      </c>
+      <c r="BH6" s="22">
+        <f>کلید!BH2</f>
+        <v>1</v>
+      </c>
+      <c r="BI6" s="22">
+        <f>کلید!BI2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="2">
+        <f>INDEX(خروجی!D$2:D$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <f>INDEX(خروجی!E$2:E$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <f>INDEX(خروجی!F$2:F$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <f>INDEX(خروجی!G$2:G$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <f>INDEX(خروجی!H$2:H$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <f>INDEX(خروجی!I$2:I$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <f>INDEX(خروجی!J$2:J$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I7" s="2">
+        <f>INDEX(خروجی!K$2:K$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="J7" s="2">
+        <f>INDEX(خروجی!L$2:L$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <f>INDEX(خروجی!M$2:M$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <f>INDEX(خروجی!N$2:N$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="M7" s="2">
+        <f>INDEX(خروجی!O$2:O$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="N7" s="2">
+        <f>INDEX(خروجی!P$2:P$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="O7" s="2">
+        <f>INDEX(خروجی!Q$2:Q$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
+        <f>INDEX(خروجی!R$2:R$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>INDEX(خروجی!S$2:S$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="R7" s="2">
+        <f>INDEX(خروجی!T$2:T$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
+        <f>INDEX(خروجی!U$2:U$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="T7" s="2">
+        <f>INDEX(خروجی!V$2:V$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="U7" s="2">
+        <f>INDEX(خروجی!W$2:W$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="V7" s="2">
+        <f>INDEX(خروجی!X$2:X$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="W7" s="2">
+        <f>INDEX(خروجی!Y$2:Y$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="2">
+        <f>INDEX(خروجی!Z$2:Z$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>INDEX(خروجی!AA$2:AA$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>INDEX(خروجی!AB$2:AB$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AA7" s="2">
+        <f>INDEX(خروجی!AC$2:AC$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AB7" s="2">
+        <f>INDEX(خروجی!AD$2:AD$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AC7" s="2">
+        <f>INDEX(خروجی!AE$2:AE$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AD7" s="2">
+        <f>INDEX(خروجی!AF$2:AF$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AE7" s="2">
+        <f>INDEX(خروجی!AG$2:AG$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AF7" s="2">
+        <f>INDEX(خروجی!AH$2:AH$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AG7" s="2">
+        <f>INDEX(خروجی!AI$2:AI$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AH7" s="2">
+        <f>INDEX(خروجی!AJ$2:AJ$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AI7" s="2">
+        <f>INDEX(خروجی!AK$2:AK$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f>INDEX(خروجی!AL$2:AL$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AK7" s="2">
+        <f>INDEX(خروجی!AM$2:AM$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AL7" s="2">
+        <f>INDEX(خروجی!AN$2:AN$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AM7" s="2">
+        <f>INDEX(خروجی!AO$2:AO$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AN7" s="2">
+        <f>INDEX(خروجی!AP$2:AP$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AO7" s="2">
+        <f>INDEX(خروجی!AQ$2:AQ$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AP7" s="2">
+        <f>INDEX(خروجی!AR$2:AR$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f>INDEX(خروجی!AS$2:AS$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AR7" s="2">
+        <f>INDEX(خروجی!AT$2:AT$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AS7" s="2">
+        <f>INDEX(خروجی!AU$2:AU$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AT7" s="2">
+        <f>INDEX(خروجی!AV$2:AV$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AU7" s="2">
+        <f>INDEX(خروجی!AW$2:AW$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AV7" s="2">
+        <f>INDEX(خروجی!AX$2:AX$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AW7" s="2">
+        <f>INDEX(خروجی!AY$2:AY$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AX7" s="2">
+        <f>INDEX(خروجی!AZ$2:AZ$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AY7" s="2">
+        <f>INDEX(خروجی!BA$2:BA$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="2">
+        <f>INDEX(خروجی!BB$2:BB$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BA7" s="2">
+        <f>INDEX(خروجی!BC$2:BC$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BB7" s="2">
+        <f>INDEX(خروجی!BD$2:BD$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BC7" s="2">
+        <f>INDEX(خروجی!BE$2:BE$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BD7" s="2">
+        <f>INDEX(خروجی!BF$2:BF$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BE7" s="2">
+        <f>INDEX(خروجی!BG$2:BG$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BF7" s="2">
+        <f>INDEX(خروجی!BH$2:BH$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BG7" s="2">
+        <f>INDEX(خروجی!BI$2:BI$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BH7" s="2">
+        <f>INDEX(خروجی!BJ$2:BJ$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+      <c r="BI7" s="2">
+        <f>INDEX(خروجی!BK$2:BK$26,MATCH('نتیجه پاسخ برگ'!$B$1,خروجی!$A$2:$A$26,0))</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B7:BI7">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D99EECEC-8D26-4305-B364-36491F11749B}">
+          <x14:formula1>
+            <xm:f>ورودی!$A$2:$A$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79788A46-0F56-43BF-AE3C-BD5CD37EF9BD}">
   <dimension ref="A1:BK26"/>
   <sheetViews>
@@ -41480,1425 +44317,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB41A8D-0B93-49FE-95E5-C3D124D28FCE}">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="13" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="9" t="str">
-        <f>تنظیمات!B2</f>
-        <v>ادبیات</v>
-      </c>
-      <c r="F1" s="9" t="str">
-        <f>تنظیمات!C2</f>
-        <v>عربی</v>
-      </c>
-      <c r="G1" s="9" t="str">
-        <f>تنظیمات!D2</f>
-        <v>دینی</v>
-      </c>
-      <c r="H1" s="9" t="str">
-        <f>تنظیمات!E2</f>
-        <v>زبان</v>
-      </c>
-      <c r="I1" s="9" t="str">
-        <f>تنظیمات!F2</f>
-        <v>ریاضی</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="K1" s="9" t="str">
-        <f>تنظیمات!H2</f>
-        <v>فیزیک</v>
-      </c>
-      <c r="L1" s="9" t="str">
-        <f>تنظیمات!I2</f>
-        <v>شیمی</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <f>'کارنامه فردی'!A2</f>
-        <v>1001</v>
-      </c>
-      <c r="B2" s="23">
-        <f>'کارنامه فردی'!CD2</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f>'کارنامه فردی'!B2</f>
-        <v>a1</v>
-      </c>
-      <c r="D2" s="9" t="str">
-        <f>'کارنامه فردی'!C2</f>
-        <v>b1</v>
-      </c>
-      <c r="E2" s="8">
-        <f>'کارنامه فردی'!G2</f>
-        <v>100</v>
-      </c>
-      <c r="F2" s="8">
-        <f>'کارنامه فردی'!P2</f>
-        <v>100</v>
-      </c>
-      <c r="G2" s="8">
-        <f>'کارنامه فردی'!Y2</f>
-        <v>100</v>
-      </c>
-      <c r="H2" s="8">
-        <f>'کارنامه فردی'!AH2</f>
-        <v>100</v>
-      </c>
-      <c r="I2" s="8">
-        <f>'کارنامه فردی'!AQ2</f>
-        <v>100</v>
-      </c>
-      <c r="J2" s="8">
-        <f>'کارنامه فردی'!AZ2</f>
-        <v>100</v>
-      </c>
-      <c r="K2" s="8">
-        <f>'کارنامه فردی'!BI2</f>
-        <v>100</v>
-      </c>
-      <c r="L2" s="8">
-        <f>'کارنامه فردی'!BR2</f>
-        <v>100</v>
-      </c>
-      <c r="M2" s="8">
-        <f>'کارنامه فردی'!CA2</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <f>'کارنامه فردی'!A3</f>
-        <v>1002</v>
-      </c>
-      <c r="B3" s="23">
-        <f>'کارنامه فردی'!CD3</f>
-        <v>23</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f>'کارنامه فردی'!B3</f>
-        <v>a2</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f>'کارنامه فردی'!C3</f>
-        <v>b2</v>
-      </c>
-      <c r="E3" s="8">
-        <f>'کارنامه فردی'!G3</f>
-        <v>-33.33</v>
-      </c>
-      <c r="F3" s="8">
-        <f>'کارنامه فردی'!P3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <f>'کارنامه فردی'!Y3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <f>'کارنامه فردی'!AH3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <f>'کارنامه فردی'!AQ3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <f>'کارنامه فردی'!AZ3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <f>'کارنامه فردی'!BI3</f>
-        <v>-3.33</v>
-      </c>
-      <c r="L3" s="8">
-        <f>'کارنامه فردی'!BR3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <f>'کارنامه فردی'!CA3</f>
-        <v>-4.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <f>'کارنامه فردی'!A4</f>
-        <v>1003</v>
-      </c>
-      <c r="B4" s="23">
-        <f>'کارنامه فردی'!CD4</f>
-        <v>5</v>
-      </c>
-      <c r="C4" s="9" t="str">
-        <f>'کارنامه فردی'!B4</f>
-        <v>a3</v>
-      </c>
-      <c r="D4" s="9" t="str">
-        <f>'کارنامه فردی'!C4</f>
-        <v>b3</v>
-      </c>
-      <c r="E4" s="8">
-        <f>'کارنامه فردی'!G4</f>
-        <v>46.67</v>
-      </c>
-      <c r="F4" s="8">
-        <f>'کارنامه فردی'!P4</f>
-        <v>100</v>
-      </c>
-      <c r="G4" s="8">
-        <f>'کارنامه فردی'!Y4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <f>'کارنامه فردی'!AH4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <f>'کارنامه فردی'!AQ4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <f>'کارنامه فردی'!AZ4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <f>'کارنامه فردی'!BI4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <f>'کارنامه فردی'!BR4</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <f>'کارنامه فردی'!CA4</f>
-        <v>18.329999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <f>'کارنامه فردی'!A5</f>
-        <v>1004</v>
-      </c>
-      <c r="B5" s="23">
-        <f>'کارنامه فردی'!CD5</f>
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="str">
-        <f>'کارنامه فردی'!B5</f>
-        <v>a4</v>
-      </c>
-      <c r="D5" s="9" t="str">
-        <f>'کارنامه فردی'!C5</f>
-        <v>b4</v>
-      </c>
-      <c r="E5" s="8">
-        <f>'کارنامه فردی'!G5</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <f>'کارنامه فردی'!P5</f>
-        <v>100</v>
-      </c>
-      <c r="G5" s="8">
-        <f>'کارنامه فردی'!Y5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <f>'کارنامه فردی'!AH5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <f>'کارنامه فردی'!AQ5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <f>'کارنامه فردی'!AZ5</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <f>'کارنامه فردی'!BI5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <f>'کارنامه فردی'!BR5</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <f>'کارنامه فردی'!CA5</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <f>'کارنامه فردی'!A6</f>
-        <v>1005</v>
-      </c>
-      <c r="B6" s="23">
-        <f>'کارنامه فردی'!CD6</f>
-        <v>18</v>
-      </c>
-      <c r="C6" s="9" t="str">
-        <f>'کارنامه فردی'!B6</f>
-        <v>a5</v>
-      </c>
-      <c r="D6" s="9" t="str">
-        <f>'کارنامه فردی'!C6</f>
-        <v>b5</v>
-      </c>
-      <c r="E6" s="8">
-        <f>'کارنامه فردی'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <f>'کارنامه فردی'!P6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <f>'کارنامه فردی'!Y6</f>
-        <v>-33.33</v>
-      </c>
-      <c r="H6" s="8">
-        <f>'کارنامه فردی'!AH6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <f>'کارنامه فردی'!AQ6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <f>'کارنامه فردی'!AZ6</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <f>'کارنامه فردی'!BI6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <f>'کارنامه فردی'!BR6</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <f>'کارنامه فردی'!CA6</f>
-        <v>-4.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <f>'کارنامه فردی'!A7</f>
-        <v>1006</v>
-      </c>
-      <c r="B7" s="23">
-        <f>'کارنامه فردی'!CD7</f>
-        <v>18</v>
-      </c>
-      <c r="C7" s="9" t="str">
-        <f>'کارنامه فردی'!B7</f>
-        <v>a6</v>
-      </c>
-      <c r="D7" s="9" t="str">
-        <f>'کارنامه فردی'!C7</f>
-        <v>b6</v>
-      </c>
-      <c r="E7" s="8">
-        <f>'کارنامه فردی'!G7</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <f>'کارنامه فردی'!P7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <f>'کارنامه فردی'!Y7</f>
-        <v>-33.33</v>
-      </c>
-      <c r="H7" s="8">
-        <f>'کارنامه فردی'!AH7</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <f>'کارنامه فردی'!AQ7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <f>'کارنامه فردی'!AZ7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <f>'کارنامه فردی'!BI7</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <f>'کارنامه فردی'!BR7</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <f>'کارنامه فردی'!CA7</f>
-        <v>-4.17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <f>'کارنامه فردی'!A8</f>
-        <v>1007</v>
-      </c>
-      <c r="B8" s="23">
-        <f>'کارنامه فردی'!CD8</f>
-        <v>4</v>
-      </c>
-      <c r="C8" s="9" t="str">
-        <f>'کارنامه فردی'!B8</f>
-        <v>a7</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f>'کارنامه فردی'!C8</f>
-        <v>b7</v>
-      </c>
-      <c r="E8" s="8">
-        <f>'کارنامه فردی'!G8</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <f>'کارنامه فردی'!P8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <f>'کارنامه فردی'!Y8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="8">
-        <f>'کارنامه فردی'!AH8</f>
-        <v>100</v>
-      </c>
-      <c r="I8" s="8">
-        <f>'کارنامه فردی'!AQ8</f>
-        <v>50</v>
-      </c>
-      <c r="J8" s="8">
-        <f>'کارنامه فردی'!AZ8</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <f>'کارنامه فردی'!BI8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <f>'کارنامه فردی'!BR8</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <f>'کارنامه فردی'!CA8</f>
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <f>'کارنامه فردی'!A9</f>
-        <v>1008</v>
-      </c>
-      <c r="B9" s="23">
-        <f>'کارنامه فردی'!CD9</f>
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="str">
-        <f>'کارنامه فردی'!B9</f>
-        <v>a8</v>
-      </c>
-      <c r="D9" s="9" t="str">
-        <f>'کارنامه فردی'!C9</f>
-        <v>b8</v>
-      </c>
-      <c r="E9" s="8">
-        <f>'کارنامه فردی'!G9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <f>'کارنامه فردی'!P9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <f>'کارنامه فردی'!Y9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <f>'کارنامه فردی'!AH9</f>
-        <v>100</v>
-      </c>
-      <c r="I9" s="8">
-        <f>'کارنامه فردی'!AQ9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <f>'کارنامه فردی'!AZ9</f>
-        <v>33.33</v>
-      </c>
-      <c r="K9" s="8">
-        <f>'کارنامه فردی'!BI9</f>
-        <v>50</v>
-      </c>
-      <c r="L9" s="8">
-        <f>'کارنامه فردی'!BR9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <f>'کارنامه فردی'!CA9</f>
-        <v>22.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <f>'کارنامه فردی'!A10</f>
-        <v>1009</v>
-      </c>
-      <c r="B10" s="23">
-        <f>'کارنامه فردی'!CD10</f>
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="str">
-        <f>'کارنامه فردی'!B10</f>
-        <v>a9</v>
-      </c>
-      <c r="D10" s="9" t="str">
-        <f>'کارنامه فردی'!C10</f>
-        <v>b9</v>
-      </c>
-      <c r="E10" s="8">
-        <f>'کارنامه فردی'!G10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <f>'کارنامه فردی'!P10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <f>'کارنامه فردی'!Y10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <f>'کارنامه فردی'!AH10</f>
-        <v>-33.33</v>
-      </c>
-      <c r="I10" s="8">
-        <f>'کارنامه فردی'!AQ10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <f>'کارنامه فردی'!AZ10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <f>'کارنامه فردی'!BI10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <f>'کارنامه فردی'!BR10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <f>'کارنامه فردی'!CA10</f>
-        <v>-4.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <f>'کارنامه فردی'!A11</f>
-        <v>1010</v>
-      </c>
-      <c r="B11" s="23">
-        <f>'کارنامه فردی'!CD11</f>
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f>'کارنامه فردی'!B11</f>
-        <v>a10</v>
-      </c>
-      <c r="D11" s="9" t="str">
-        <f>'کارنامه فردی'!C11</f>
-        <v>b10</v>
-      </c>
-      <c r="E11" s="8">
-        <f>'کارنامه فردی'!G11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <f>'کارنامه فردی'!P11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <f>'کارنامه فردی'!Y11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <f>'کارنامه فردی'!AH11</f>
-        <v>-33.33</v>
-      </c>
-      <c r="I11" s="8">
-        <f>'کارنامه فردی'!AQ11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <f>'کارنامه فردی'!AZ11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <f>'کارنامه فردی'!BI11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <f>'کارنامه فردی'!BR11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <f>'کارنامه فردی'!CA11</f>
-        <v>-4.17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <f>'کارنامه فردی'!A12</f>
-        <v>1011</v>
-      </c>
-      <c r="B12" s="23">
-        <f>'کارنامه فردی'!CD12</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f>'کارنامه فردی'!B12</f>
-        <v>a11</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f>'کارنامه فردی'!C12</f>
-        <v>b11</v>
-      </c>
-      <c r="E12" s="8">
-        <f>'کارنامه فردی'!G12</f>
-        <v>46.67</v>
-      </c>
-      <c r="F12" s="8">
-        <f>'کارنامه فردی'!P12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <f>'کارنامه فردی'!Y12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <f>'کارنامه فردی'!AH12</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <f>'کارنامه فردی'!AQ12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <f>'کارنامه فردی'!AZ12</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <f>'کارنامه فردی'!BI12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <f>'کارنامه فردی'!BR12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <f>'کارنامه فردی'!CA12</f>
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <f>'کارنامه فردی'!A13</f>
-        <v>1012</v>
-      </c>
-      <c r="B13" s="23">
-        <f>'کارنامه فردی'!CD13</f>
-        <v>10</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f>'کارنامه فردی'!B13</f>
-        <v>a12</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f>'کارنامه فردی'!C13</f>
-        <v>b12</v>
-      </c>
-      <c r="E13" s="8">
-        <f>'کارنامه فردی'!G13</f>
-        <v>20</v>
-      </c>
-      <c r="F13" s="8">
-        <f>'کارنامه فردی'!P13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f>'کارنامه فردی'!Y13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <f>'کارنامه فردی'!AH13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <f>'کارنامه فردی'!AQ13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <f>'کارنامه فردی'!AZ13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <f>'کارنامه فردی'!BI13</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <f>'کارنامه فردی'!BR13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <f>'کارنامه فردی'!CA13</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <f>'کارنامه فردی'!A14</f>
-        <v>1013</v>
-      </c>
-      <c r="B14" s="23">
-        <f>'کارنامه فردی'!CD14</f>
-        <v>11</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f>'کارنامه فردی'!B14</f>
-        <v>a13</v>
-      </c>
-      <c r="D14" s="9" t="str">
-        <f>'کارنامه فردی'!C14</f>
-        <v>b13</v>
-      </c>
-      <c r="E14" s="8">
-        <f>'کارنامه فردی'!G14</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <f>'کارنامه فردی'!P14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <f>'کارنامه فردی'!Y14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <f>'کارنامه فردی'!AH14</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <f>'کارنامه فردی'!AQ14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <f>'کارنامه فردی'!AZ14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <f>'کارنامه فردی'!BI14</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <f>'کارنامه فردی'!BR14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <f>'کارنامه فردی'!CA14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <f>'کارنامه فردی'!A15</f>
-        <v>1014</v>
-      </c>
-      <c r="B15" s="23">
-        <f>'کارنامه فردی'!CD15</f>
-        <v>11</v>
-      </c>
-      <c r="C15" s="9" t="str">
-        <f>'کارنامه فردی'!B15</f>
-        <v>a14</v>
-      </c>
-      <c r="D15" s="9" t="str">
-        <f>'کارنامه فردی'!C15</f>
-        <v>b14</v>
-      </c>
-      <c r="E15" s="8">
-        <f>'کارنامه فردی'!G15</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <f>'کارنامه فردی'!P15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <f>'کارنامه فردی'!Y15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <f>'کارنامه فردی'!AH15</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <f>'کارنامه فردی'!AQ15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <f>'کارنامه فردی'!AZ15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <f>'کارنامه فردی'!BI15</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <f>'کارنامه فردی'!BR15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f>'کارنامه فردی'!CA15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <f>'کارنامه فردی'!A16</f>
-        <v>1015</v>
-      </c>
-      <c r="B16" s="23">
-        <f>'کارنامه فردی'!CD16</f>
-        <v>11</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f>'کارنامه فردی'!B16</f>
-        <v>a15</v>
-      </c>
-      <c r="D16" s="9" t="str">
-        <f>'کارنامه فردی'!C16</f>
-        <v>b15</v>
-      </c>
-      <c r="E16" s="8">
-        <f>'کارنامه فردی'!G16</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <f>'کارنامه فردی'!P16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <f>'کارنامه فردی'!Y16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <f>'کارنامه فردی'!AH16</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <f>'کارنامه فردی'!AQ16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <f>'کارنامه فردی'!AZ16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <f>'کارنامه فردی'!BI16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <f>'کارنامه فردی'!BR16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="8">
-        <f>'کارنامه فردی'!CA16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <f>'کارنامه فردی'!A17</f>
-        <v>1016</v>
-      </c>
-      <c r="B17" s="23">
-        <f>'کارنامه فردی'!CD17</f>
-        <v>11</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f>'کارنامه فردی'!B17</f>
-        <v>a16</v>
-      </c>
-      <c r="D17" s="9" t="str">
-        <f>'کارنامه فردی'!C17</f>
-        <v>b16</v>
-      </c>
-      <c r="E17" s="8">
-        <f>'کارنامه فردی'!G17</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <f>'کارنامه فردی'!P17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <f>'کارنامه فردی'!Y17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <f>'کارنامه فردی'!AH17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <f>'کارنامه فردی'!AQ17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <f>'کارنامه فردی'!AZ17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <f>'کارنامه فردی'!BI17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <f>'کارنامه فردی'!BR17</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="8">
-        <f>'کارنامه فردی'!CA17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <f>'کارنامه فردی'!A18</f>
-        <v>1017</v>
-      </c>
-      <c r="B18" s="23">
-        <f>'کارنامه فردی'!CD18</f>
-        <v>11</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f>'کارنامه فردی'!B18</f>
-        <v>a17</v>
-      </c>
-      <c r="D18" s="9" t="str">
-        <f>'کارنامه فردی'!C18</f>
-        <v>b17</v>
-      </c>
-      <c r="E18" s="8">
-        <f>'کارنامه فردی'!G18</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <f>'کارنامه فردی'!P18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <f>'کارنامه فردی'!Y18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <f>'کارنامه فردی'!AH18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <f>'کارنامه فردی'!AQ18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <f>'کارنامه فردی'!AZ18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <f>'کارنامه فردی'!BI18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <f>'کارنامه فردی'!BR18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="8">
-        <f>'کارنامه فردی'!CA18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <f>'کارنامه فردی'!A19</f>
-        <v>1018</v>
-      </c>
-      <c r="B19" s="23">
-        <f>'کارنامه فردی'!CD19</f>
-        <v>11</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f>'کارنامه فردی'!B19</f>
-        <v>a18</v>
-      </c>
-      <c r="D19" s="9" t="str">
-        <f>'کارنامه فردی'!C19</f>
-        <v>b18</v>
-      </c>
-      <c r="E19" s="8">
-        <f>'کارنامه فردی'!G19</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <f>'کارنامه فردی'!P19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <f>'کارنامه فردی'!Y19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <f>'کارنامه فردی'!AH19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <f>'کارنامه فردی'!AQ19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <f>'کارنامه فردی'!AZ19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <f>'کارنامه فردی'!BI19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <f>'کارنامه فردی'!BR19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <f>'کارنامه فردی'!CA19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <f>'کارنامه فردی'!A20</f>
-        <v>1019</v>
-      </c>
-      <c r="B20" s="23">
-        <f>'کارنامه فردی'!CD20</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f>'کارنامه فردی'!B20</f>
-        <v>a19</v>
-      </c>
-      <c r="D20" s="9" t="str">
-        <f>'کارنامه فردی'!C20</f>
-        <v>b19</v>
-      </c>
-      <c r="E20" s="8">
-        <f>'کارنامه فردی'!G20</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <f>'کارنامه فردی'!P20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <f>'کارنامه فردی'!Y20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <f>'کارنامه فردی'!AH20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <f>'کارنامه فردی'!AQ20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <f>'کارنامه فردی'!AZ20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <f>'کارنامه فردی'!BI20</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <f>'کارنامه فردی'!BR20</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
-        <f>'کارنامه فردی'!CA20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <f>'کارنامه فردی'!A21</f>
-        <v>1020</v>
-      </c>
-      <c r="B21" s="23">
-        <f>'کارنامه فردی'!CD21</f>
-        <v>6</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f>'کارنامه فردی'!B21</f>
-        <v>a20</v>
-      </c>
-      <c r="D21" s="9" t="str">
-        <f>'کارنامه فردی'!C21</f>
-        <v>b20</v>
-      </c>
-      <c r="E21" s="8">
-        <f>'کارنامه فردی'!G21</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <f>'کارنامه فردی'!P21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <f>'کارنامه فردی'!Y21</f>
-        <v>100</v>
-      </c>
-      <c r="H21" s="8">
-        <f>'کارنامه فردی'!AH21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <f>'کارنامه فردی'!AQ21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <f>'کارنامه فردی'!AZ21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <f>'کارنامه فردی'!BI21</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <f>'کارنامه فردی'!BR21</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
-        <f>'کارنامه فردی'!CA21</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <f>'کارنامه فردی'!A22</f>
-        <v>1021</v>
-      </c>
-      <c r="B22" s="23">
-        <f>'کارنامه فردی'!CD22</f>
-        <v>6</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f>'کارنامه فردی'!B22</f>
-        <v>a21</v>
-      </c>
-      <c r="D22" s="9" t="str">
-        <f>'کارنامه فردی'!C22</f>
-        <v>b21</v>
-      </c>
-      <c r="E22" s="8">
-        <f>'کارنامه فردی'!G22</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <f>'کارنامه فردی'!P22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <f>'کارنامه فردی'!Y22</f>
-        <v>100</v>
-      </c>
-      <c r="H22" s="8">
-        <f>'کارنامه فردی'!AH22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <f>'کارنامه فردی'!AQ22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <f>'کارنامه فردی'!AZ22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <f>'کارنامه فردی'!BI22</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <f>'کارنامه فردی'!BR22</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
-        <f>'کارنامه فردی'!CA22</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <f>'کارنامه فردی'!A23</f>
-        <v>1022</v>
-      </c>
-      <c r="B23" s="23">
-        <f>'کارنامه فردی'!CD23</f>
-        <v>18</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f>'کارنامه فردی'!B23</f>
-        <v>a22</v>
-      </c>
-      <c r="D23" s="9" t="str">
-        <f>'کارنامه فردی'!C23</f>
-        <v>b22</v>
-      </c>
-      <c r="E23" s="8">
-        <f>'کارنامه فردی'!G23</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <f>'کارنامه فردی'!P23</f>
-        <v>-33.33</v>
-      </c>
-      <c r="G23" s="8">
-        <f>'کارنامه فردی'!Y23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <f>'کارنامه فردی'!AH23</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <f>'کارنامه فردی'!AQ23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <f>'کارنامه فردی'!AZ23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <f>'کارنامه فردی'!BI23</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <f>'کارنامه فردی'!BR23</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
-        <f>'کارنامه فردی'!CA23</f>
-        <v>-4.17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <f>'کارنامه فردی'!A24</f>
-        <v>1023</v>
-      </c>
-      <c r="B24" s="23">
-        <f>'کارنامه فردی'!CD24</f>
-        <v>24</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f>'کارنامه فردی'!B24</f>
-        <v>a23</v>
-      </c>
-      <c r="D24" s="9" t="str">
-        <f>'کارنامه فردی'!C24</f>
-        <v>b23</v>
-      </c>
-      <c r="E24" s="8">
-        <f>'کارنامه فردی'!G24</f>
-        <v>-6.67</v>
-      </c>
-      <c r="F24" s="8">
-        <f>'کارنامه فردی'!P24</f>
-        <v>-33.33</v>
-      </c>
-      <c r="G24" s="8">
-        <f>'کارنامه فردی'!Y24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <f>'کارنامه فردی'!AH24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <f>'کارنامه فردی'!AQ24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <f>'کارنامه فردی'!AZ24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <f>'کارنامه فردی'!BI24</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <f>'کارنامه فردی'!BR24</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
-        <f>'کارنامه فردی'!CA24</f>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <f>'کارنامه فردی'!A25</f>
-        <v>1024</v>
-      </c>
-      <c r="B25" s="23">
-        <f>'کارنامه فردی'!CD25</f>
-        <v>25</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f>'کارنامه فردی'!B25</f>
-        <v>a24</v>
-      </c>
-      <c r="D25" s="9" t="str">
-        <f>'کارنامه فردی'!C25</f>
-        <v>b24</v>
-      </c>
-      <c r="E25" s="8">
-        <f>'کارنامه فردی'!G25</f>
-        <v>-33.33</v>
-      </c>
-      <c r="F25" s="8">
-        <f>'کارنامه فردی'!P25</f>
-        <v>-33.33</v>
-      </c>
-      <c r="G25" s="8">
-        <f>'کارنامه فردی'!Y25</f>
-        <v>-33.33</v>
-      </c>
-      <c r="H25" s="8">
-        <f>'کارنامه فردی'!AH25</f>
-        <v>-33.33</v>
-      </c>
-      <c r="I25" s="8">
-        <f>'کارنامه فردی'!AQ25</f>
-        <v>-33.33</v>
-      </c>
-      <c r="J25" s="8">
-        <f>'کارنامه فردی'!AZ25</f>
-        <v>-33.33</v>
-      </c>
-      <c r="K25" s="8">
-        <f>'کارنامه فردی'!BI25</f>
-        <v>-33.33</v>
-      </c>
-      <c r="L25" s="8">
-        <f>'کارنامه فردی'!BR25</f>
-        <v>-33.33</v>
-      </c>
-      <c r="M25" s="8">
-        <f>'کارنامه فردی'!CA25</f>
-        <v>-33.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <f>'کارنامه فردی'!A26</f>
-        <v>1025</v>
-      </c>
-      <c r="B26" s="23">
-        <f>'کارنامه فردی'!CD26</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="9" t="str">
-        <f>'کارنامه فردی'!B26</f>
-        <v>a25</v>
-      </c>
-      <c r="D26" s="9" t="str">
-        <f>'کارنامه فردی'!C26</f>
-        <v>b25</v>
-      </c>
-      <c r="E26" s="8">
-        <f>'کارنامه فردی'!G26</f>
-        <v>100</v>
-      </c>
-      <c r="F26" s="8">
-        <f>'کارنامه فردی'!P26</f>
-        <v>100</v>
-      </c>
-      <c r="G26" s="8">
-        <f>'کارنامه فردی'!Y26</f>
-        <v>100</v>
-      </c>
-      <c r="H26" s="8">
-        <f>'کارنامه فردی'!AH26</f>
-        <v>100</v>
-      </c>
-      <c r="I26" s="8">
-        <f>'کارنامه فردی'!AQ26</f>
-        <v>100</v>
-      </c>
-      <c r="J26" s="8">
-        <f>'کارنامه فردی'!AZ26</f>
-        <v>100</v>
-      </c>
-      <c r="K26" s="8">
-        <f>'کارنامه فردی'!BI26</f>
-        <v>100</v>
-      </c>
-      <c r="L26" s="8">
-        <f>'کارنامه فردی'!BR26</f>
-        <v>100</v>
-      </c>
-      <c r="M26" s="8">
-        <f>'کارنامه فردی'!CA26</f>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4859F7-3FEE-4A79-B583-A9172FA23DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D88EA-63E6-44DB-BA6E-1C0E4155FBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,17 +986,17 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1099,27 +1099,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3955,7 +3934,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5376,7 +5355,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5588,21 +5567,21 @@
         <v>69</v>
       </c>
       <c r="B7" s="21">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
@@ -6059,7 +6038,7 @@
   <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12630,7 +12609,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12714,7 +12693,7 @@
       </c>
       <c r="H5" s="7">
         <f>INDEX('کارنامه فردی'!L2:L26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -12748,7 +12727,7 @@
       </c>
       <c r="H6" s="7">
         <f>INDEX('کارنامه فردی'!U2:U26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -12782,7 +12761,7 @@
       </c>
       <c r="H7" s="7">
         <f>INDEX('کارنامه فردی'!AD2:AD26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -12816,7 +12795,7 @@
       </c>
       <c r="H8" s="7">
         <f>INDEX('کارنامه فردی'!AM2:AM26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -12850,7 +12829,7 @@
       </c>
       <c r="H9" s="7">
         <f>INDEX('کارنامه فردی'!AV2:AV26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -12884,7 +12863,7 @@
       </c>
       <c r="H10" s="7">
         <f>INDEX('کارنامه فردی'!BE2:BE26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -12918,7 +12897,7 @@
       </c>
       <c r="H11" s="7">
         <f>INDEX('کارنامه فردی'!BN2:BN26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -12952,7 +12931,7 @@
       </c>
       <c r="H12" s="7">
         <f>INDEX('کارنامه فردی'!BW2:BW26,MATCH('نتیجه فردی'!$B$1,'کارنامه فردی'!$A$2:$A$26,0))</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -13010,7 +12989,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13054,7 +13033,7 @@
       </c>
       <c r="J1" s="1" t="str">
         <f>_xlfn.CONCAT("  میانگین  ",D31,"  نفر برتر")</f>
-        <v xml:space="preserve">  میانگین  3  نفر برتر</v>
+        <v xml:space="preserve">  میانگین  10  نفر برتر</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13096,7 +13075,7 @@
       </c>
       <c r="J2" s="6">
         <f>AVERAGEIF($A$2:$A$26,_xlfn.CONCAT("&lt;=",$D$31),$H$2:$H$26)</f>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -13138,7 +13117,7 @@
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J26" si="3">AVERAGEIF($A$2:$A$26,_xlfn.CONCAT("&lt;=",$D$31),$H$2:$H$26)</f>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -13180,7 +13159,7 @@
       </c>
       <c r="J4" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -13222,7 +13201,7 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -13264,7 +13243,7 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -13306,7 +13285,7 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -13348,7 +13327,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -13390,7 +13369,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -13432,7 +13411,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -13474,7 +13453,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -13516,7 +13495,7 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -13558,7 +13537,7 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -13600,7 +13579,7 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -13642,7 +13621,7 @@
       </c>
       <c r="J15" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -13684,7 +13663,7 @@
       </c>
       <c r="J16" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -13726,7 +13705,7 @@
       </c>
       <c r="J17" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -13768,7 +13747,7 @@
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -13810,7 +13789,7 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -13852,7 +13831,7 @@
       </c>
       <c r="J20" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -13894,7 +13873,7 @@
       </c>
       <c r="J21" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -13936,7 +13915,7 @@
       </c>
       <c r="J22" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -13978,7 +13957,7 @@
       </c>
       <c r="J23" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -14020,7 +13999,7 @@
       </c>
       <c r="J24" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -14062,7 +14041,7 @@
       </c>
       <c r="J25" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -14104,7 +14083,7 @@
       </c>
       <c r="J26" s="6">
         <f t="shared" si="3"/>
-        <v>73.333333333333329</v>
+        <v>14.242424242424242</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -14139,7 +14118,7 @@
       </c>
       <c r="D31" s="2">
         <f>تنظیمات!B7</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -14176,7 +14155,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14237,1270 +14216,1270 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
-        <f>ورودی!A2</f>
+      <c r="A2" s="44">
+        <f>'کارنامه فردی'!A2</f>
         <v>1001</v>
       </c>
-      <c r="B2" s="45" t="str">
-        <f>ورودی!B2</f>
+      <c r="B2" s="44" t="str">
+        <f>'کارنامه فردی'!B2</f>
         <v>a1</v>
       </c>
-      <c r="C2" s="45" t="str">
-        <f>ورودی!C2</f>
+      <c r="C2" s="44" t="str">
+        <f>'کارنامه فردی'!C2</f>
         <v>b1</v>
       </c>
-      <c r="D2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="E2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="H2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="H2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L2" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L2" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
-        <f>ورودی!A3</f>
+      <c r="A3" s="44">
+        <f>'کارنامه فردی'!A3</f>
         <v>1002</v>
       </c>
-      <c r="B3" s="45" t="str">
-        <f>ورودی!B3</f>
+      <c r="B3" s="44" t="str">
+        <f>'کارنامه فردی'!B3</f>
         <v>a2</v>
       </c>
-      <c r="C3" s="45" t="str">
-        <f>ورودی!C3</f>
+      <c r="C3" s="44" t="str">
+        <f>'کارنامه فردی'!C3</f>
         <v>b2</v>
       </c>
-      <c r="D3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="F3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>9</v>
+      </c>
+      <c r="G3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-3.33</v>
+      </c>
+      <c r="H3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="H3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>100</v>
-      </c>
-      <c r="I3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>-33.33</v>
-      </c>
-      <c r="J3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="J3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>24</v>
       </c>
-      <c r="K3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L3" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="K3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L3" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
-        <f>ورودی!A4</f>
+      <c r="A4" s="44">
+        <f>'کارنامه فردی'!A4</f>
         <v>1003</v>
       </c>
-      <c r="B4" s="45" t="str">
-        <f>ورودی!B4</f>
+      <c r="B4" s="44" t="str">
+        <f>'کارنامه فردی'!B4</f>
         <v>a3</v>
       </c>
-      <c r="C4" s="45" t="str">
-        <f>ورودی!C4</f>
+      <c r="C4" s="44" t="str">
+        <f>'کارنامه فردی'!C4</f>
         <v>b3</v>
       </c>
-      <c r="D4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>46.67</v>
-      </c>
-      <c r="H4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="K4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L4" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L4" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="45">
-        <f>ورودی!A5</f>
+      <c r="A5" s="44">
+        <f>'کارنامه فردی'!A5</f>
         <v>1004</v>
       </c>
-      <c r="B5" s="45" t="str">
-        <f>ورودی!B5</f>
+      <c r="B5" s="44" t="str">
+        <f>'کارنامه فردی'!B5</f>
         <v>a4</v>
       </c>
-      <c r="C5" s="45" t="str">
-        <f>ورودی!C5</f>
+      <c r="C5" s="44" t="str">
+        <f>'کارنامه فردی'!C5</f>
         <v>b4</v>
       </c>
-      <c r="D5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L5" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L5" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="45">
-        <f>ورودی!A6</f>
+      <c r="A6" s="44">
+        <f>'کارنامه فردی'!A6</f>
         <v>1005</v>
       </c>
-      <c r="B6" s="45" t="str">
-        <f>ورودی!B6</f>
+      <c r="B6" s="44" t="str">
+        <f>'کارنامه فردی'!B6</f>
         <v>a5</v>
       </c>
-      <c r="C6" s="45" t="str">
-        <f>ورودی!C6</f>
+      <c r="C6" s="44" t="str">
+        <f>'کارنامه فردی'!C6</f>
         <v>b5</v>
       </c>
-      <c r="D6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L6" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L6" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="45">
-        <f>ورودی!A7</f>
+      <c r="A7" s="44">
+        <f>'کارنامه فردی'!A7</f>
         <v>1006</v>
       </c>
-      <c r="B7" s="45" t="str">
-        <f>ورودی!B7</f>
+      <c r="B7" s="44" t="str">
+        <f>'کارنامه فردی'!B7</f>
         <v>a6</v>
       </c>
-      <c r="C7" s="45" t="str">
-        <f>ورودی!C7</f>
+      <c r="C7" s="44" t="str">
+        <f>'کارنامه فردی'!C7</f>
         <v>b6</v>
       </c>
-      <c r="D7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L7" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L7" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
-        <f>ورودی!A8</f>
+      <c r="A8" s="44">
+        <f>'کارنامه فردی'!A8</f>
         <v>1007</v>
       </c>
-      <c r="B8" s="45" t="str">
-        <f>ورودی!B8</f>
+      <c r="B8" s="44" t="str">
+        <f>'کارنامه فردی'!B8</f>
         <v>a7</v>
       </c>
-      <c r="C8" s="45" t="str">
-        <f>ورودی!C8</f>
+      <c r="C8" s="44" t="str">
+        <f>'کارنامه فردی'!C8</f>
         <v>b7</v>
       </c>
-      <c r="D8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L8" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L8" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
-        <f>ورودی!A9</f>
+      <c r="A9" s="44">
+        <f>'کارنامه فردی'!A9</f>
         <v>1008</v>
       </c>
-      <c r="B9" s="45" t="str">
-        <f>ورودی!B9</f>
+      <c r="B9" s="44" t="str">
+        <f>'کارنامه فردی'!B9</f>
         <v>a8</v>
       </c>
-      <c r="C9" s="45" t="str">
-        <f>ورودی!C9</f>
+      <c r="C9" s="44" t="str">
+        <f>'کارنامه فردی'!C9</f>
         <v>b8</v>
       </c>
-      <c r="D9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="E9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>50</v>
+      </c>
+      <c r="H9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L9" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>3</v>
+      </c>
+      <c r="K9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L9" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="45">
-        <f>ورودی!A10</f>
+      <c r="A10" s="44">
+        <f>'کارنامه فردی'!A10</f>
         <v>1009</v>
       </c>
-      <c r="B10" s="45" t="str">
-        <f>ورودی!B10</f>
+      <c r="B10" s="44" t="str">
+        <f>'کارنامه فردی'!B10</f>
         <v>a9</v>
       </c>
-      <c r="C10" s="45" t="str">
-        <f>ورودی!C10</f>
+      <c r="C10" s="44" t="str">
+        <f>'کارنامه فردی'!C10</f>
         <v>b9</v>
       </c>
-      <c r="D10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L10" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L10" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="45">
-        <f>ورودی!A11</f>
+      <c r="A11" s="44">
+        <f>'کارنامه فردی'!A11</f>
         <v>1010</v>
       </c>
-      <c r="B11" s="45" t="str">
-        <f>ورودی!B11</f>
+      <c r="B11" s="44" t="str">
+        <f>'کارنامه فردی'!B11</f>
         <v>a10</v>
       </c>
-      <c r="C11" s="45" t="str">
-        <f>ورودی!C11</f>
+      <c r="C11" s="44" t="str">
+        <f>'کارنامه فردی'!C11</f>
         <v>b10</v>
       </c>
-      <c r="D11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L11" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L11" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="45">
-        <f>ورودی!A12</f>
+      <c r="A12" s="44">
+        <f>'کارنامه فردی'!A12</f>
         <v>1011</v>
       </c>
-      <c r="B12" s="45" t="str">
-        <f>ورودی!B12</f>
+      <c r="B12" s="44" t="str">
+        <f>'کارنامه فردی'!B12</f>
         <v>a11</v>
       </c>
-      <c r="C12" s="45" t="str">
-        <f>ورودی!C12</f>
+      <c r="C12" s="44" t="str">
+        <f>'کارنامه فردی'!C12</f>
         <v>b11</v>
       </c>
-      <c r="D12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="E12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>46.67</v>
-      </c>
-      <c r="H12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="K12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L12" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L12" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
-        <f>ورودی!A13</f>
+      <c r="A13" s="44">
+        <f>'کارنامه فردی'!A13</f>
         <v>1012</v>
       </c>
-      <c r="B13" s="45" t="str">
-        <f>ورودی!B13</f>
+      <c r="B13" s="44" t="str">
+        <f>'کارنامه فردی'!B13</f>
         <v>a12</v>
       </c>
-      <c r="C13" s="45" t="str">
-        <f>ورودی!C13</f>
+      <c r="C13" s="44" t="str">
+        <f>'کارنامه فردی'!C13</f>
         <v>b12</v>
       </c>
-      <c r="D13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>3</v>
-      </c>
-      <c r="F13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>20</v>
-      </c>
-      <c r="H13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="K13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L13" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L13" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="45">
-        <f>ورودی!A14</f>
+      <c r="A14" s="44">
+        <f>'کارنامه فردی'!A14</f>
         <v>1013</v>
       </c>
-      <c r="B14" s="45" t="str">
-        <f>ورودی!B14</f>
+      <c r="B14" s="44" t="str">
+        <f>'کارنامه فردی'!B14</f>
         <v>a13</v>
       </c>
-      <c r="C14" s="45" t="str">
-        <f>ورودی!C14</f>
+      <c r="C14" s="44" t="str">
+        <f>'کارنامه فردی'!C14</f>
         <v>b13</v>
       </c>
-      <c r="D14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L14" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L14" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="45">
-        <f>ورودی!A15</f>
+      <c r="A15" s="44">
+        <f>'کارنامه فردی'!A15</f>
         <v>1014</v>
       </c>
-      <c r="B15" s="45" t="str">
-        <f>ورودی!B15</f>
+      <c r="B15" s="44" t="str">
+        <f>'کارنامه فردی'!B15</f>
         <v>a14</v>
       </c>
-      <c r="C15" s="45" t="str">
-        <f>ورودی!C15</f>
+      <c r="C15" s="44" t="str">
+        <f>'کارنامه فردی'!C15</f>
         <v>b14</v>
       </c>
-      <c r="D15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L15" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L15" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="45">
-        <f>ورودی!A16</f>
+      <c r="A16" s="44">
+        <f>'کارنامه فردی'!A16</f>
         <v>1015</v>
       </c>
-      <c r="B16" s="45" t="str">
-        <f>ورودی!B16</f>
+      <c r="B16" s="44" t="str">
+        <f>'کارنامه فردی'!B16</f>
         <v>a15</v>
       </c>
-      <c r="C16" s="45" t="str">
-        <f>ورودی!C16</f>
+      <c r="C16" s="44" t="str">
+        <f>'کارنامه فردی'!C16</f>
         <v>b15</v>
       </c>
-      <c r="D16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L16" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L16" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
-        <f>ورودی!A17</f>
+      <c r="A17" s="44">
+        <f>'کارنامه فردی'!A17</f>
         <v>1016</v>
       </c>
-      <c r="B17" s="45" t="str">
-        <f>ورودی!B17</f>
+      <c r="B17" s="44" t="str">
+        <f>'کارنامه فردی'!B17</f>
         <v>a16</v>
       </c>
-      <c r="C17" s="45" t="str">
-        <f>ورودی!C17</f>
+      <c r="C17" s="44" t="str">
+        <f>'کارنامه فردی'!C17</f>
         <v>b16</v>
       </c>
-      <c r="D17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L17" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L17" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="45">
-        <f>ورودی!A18</f>
+      <c r="A18" s="44">
+        <f>'کارنامه فردی'!A18</f>
         <v>1017</v>
       </c>
-      <c r="B18" s="45" t="str">
-        <f>ورودی!B18</f>
+      <c r="B18" s="44" t="str">
+        <f>'کارنامه فردی'!B18</f>
         <v>a17</v>
       </c>
-      <c r="C18" s="45" t="str">
-        <f>ورودی!C18</f>
+      <c r="C18" s="44" t="str">
+        <f>'کارنامه فردی'!C18</f>
         <v>b17</v>
       </c>
-      <c r="D18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L18" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L18" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="45">
-        <f>ورودی!A19</f>
+      <c r="A19" s="44">
+        <f>'کارنامه فردی'!A19</f>
         <v>1018</v>
       </c>
-      <c r="B19" s="45" t="str">
-        <f>ورودی!B19</f>
+      <c r="B19" s="44" t="str">
+        <f>'کارنامه فردی'!B19</f>
         <v>a18</v>
       </c>
-      <c r="C19" s="45" t="str">
-        <f>ورودی!C19</f>
+      <c r="C19" s="44" t="str">
+        <f>'کارنامه فردی'!C19</f>
         <v>b18</v>
       </c>
-      <c r="D19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L19" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L19" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="45">
-        <f>ورودی!A20</f>
+      <c r="A20" s="44">
+        <f>'کارنامه فردی'!A20</f>
         <v>1019</v>
       </c>
-      <c r="B20" s="45" t="str">
-        <f>ورودی!B20</f>
+      <c r="B20" s="44" t="str">
+        <f>'کارنامه فردی'!B20</f>
         <v>a19</v>
       </c>
-      <c r="C20" s="45" t="str">
-        <f>ورودی!C20</f>
+      <c r="C20" s="44" t="str">
+        <f>'کارنامه فردی'!C20</f>
         <v>b19</v>
       </c>
-      <c r="D20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L20" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L20" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="45">
-        <f>ورودی!A21</f>
+      <c r="A21" s="44">
+        <f>'کارنامه فردی'!A21</f>
         <v>1020</v>
       </c>
-      <c r="B21" s="45" t="str">
-        <f>ورودی!B21</f>
+      <c r="B21" s="44" t="str">
+        <f>'کارنامه فردی'!B21</f>
         <v>a20</v>
       </c>
-      <c r="C21" s="45" t="str">
-        <f>ورودی!C21</f>
+      <c r="C21" s="44" t="str">
+        <f>'کارنامه فردی'!C21</f>
         <v>b20</v>
       </c>
-      <c r="D21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L21" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L21" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="45">
-        <f>ورودی!A22</f>
+      <c r="A22" s="44">
+        <f>'کارنامه فردی'!A22</f>
         <v>1021</v>
       </c>
-      <c r="B22" s="45" t="str">
-        <f>ورودی!B22</f>
+      <c r="B22" s="44" t="str">
+        <f>'کارنامه فردی'!B22</f>
         <v>a21</v>
       </c>
-      <c r="C22" s="45" t="str">
-        <f>ورودی!C22</f>
+      <c r="C22" s="44" t="str">
+        <f>'کارنامه فردی'!C22</f>
         <v>b21</v>
       </c>
-      <c r="D22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L22" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L22" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="45">
-        <f>ورودی!A23</f>
+      <c r="A23" s="44">
+        <f>'کارنامه فردی'!A23</f>
         <v>1022</v>
       </c>
-      <c r="B23" s="45" t="str">
-        <f>ورودی!B23</f>
+      <c r="B23" s="44" t="str">
+        <f>'کارنامه فردی'!B23</f>
         <v>a22</v>
       </c>
-      <c r="C23" s="45" t="str">
-        <f>ورودی!C23</f>
+      <c r="C23" s="44" t="str">
+        <f>'کارنامه فردی'!C23</f>
         <v>b22</v>
       </c>
-      <c r="D23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>6</v>
-      </c>
-      <c r="K23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L23" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L23" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="45">
-        <f>ورودی!A24</f>
+      <c r="A24" s="44">
+        <f>'کارنامه فردی'!A24</f>
         <v>1023</v>
       </c>
-      <c r="B24" s="45" t="str">
-        <f>ورودی!B24</f>
+      <c r="B24" s="44" t="str">
+        <f>'کارنامه فردی'!B24</f>
         <v>a23</v>
       </c>
-      <c r="C24" s="45" t="str">
-        <f>ورودی!C24</f>
+      <c r="C24" s="44" t="str">
+        <f>'کارنامه فردی'!C24</f>
         <v>b23</v>
       </c>
-      <c r="D24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="G24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>100</v>
+      </c>
+      <c r="I24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>-33.33</v>
+      </c>
+      <c r="J24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>4</v>
       </c>
-      <c r="G24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>-6.67</v>
-      </c>
-      <c r="H24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>100</v>
-      </c>
-      <c r="I24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>-33.33</v>
-      </c>
-      <c r="J24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>23</v>
-      </c>
-      <c r="K24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L24" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="K24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L24" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="45">
-        <f>ورودی!A25</f>
+      <c r="A25" s="44">
+        <f>'کارنامه فردی'!A25</f>
         <v>1024</v>
       </c>
-      <c r="B25" s="45" t="str">
-        <f>ورودی!B25</f>
+      <c r="B25" s="44" t="str">
+        <f>'کارنامه فردی'!B25</f>
         <v>a24</v>
       </c>
-      <c r="C25" s="45" t="str">
-        <f>ورودی!C25</f>
+      <c r="C25" s="44" t="str">
+        <f>'کارنامه فردی'!C25</f>
         <v>b24</v>
       </c>
-      <c r="D25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="F25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="F25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="H25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="H25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>24</v>
-      </c>
-      <c r="K25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L25" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
+      </c>
+      <c r="K25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L25" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="45">
-        <f>ورودی!A26</f>
+      <c r="A26" s="44">
+        <f>'کارنامه فردی'!A26</f>
         <v>1025</v>
       </c>
-      <c r="B26" s="45" t="str">
-        <f>ورودی!B26</f>
+      <c r="B26" s="44" t="str">
+        <f>'کارنامه فردی'!B26</f>
         <v>a25</v>
       </c>
-      <c r="C26" s="45" t="str">
-        <f>ورودی!C26</f>
+      <c r="C26" s="44" t="str">
+        <f>'کارنامه فردی'!C26</f>
         <v>b25</v>
       </c>
-      <c r="D26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>5</v>
-      </c>
-      <c r="E26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="D26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>10</v>
+      </c>
+      <c r="E26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="H26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="H26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+      <c r="I26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="K26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>9.6</v>
-      </c>
-      <c r="L26" s="45">
-        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('نتیجه درسی جدید'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
-        <v>66.67</v>
+      <c r="J26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L26" s="44">
+        <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="45" t="s">
-        <v>59</v>
+      <c r="C28" s="44" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="44">
         <f>تنظیمات!B7</f>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -15537,7 +15516,7 @@
   <dimension ref="A1:GV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="CA32" sqref="CA32"/>
+      <selection activeCell="BM31" sqref="BM31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16323,7 +16302,7 @@
       </c>
       <c r="L2" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M2" s="9">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16359,7 +16338,7 @@
       </c>
       <c r="U2" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V2" s="10">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16395,7 +16374,7 @@
       </c>
       <c r="AD2" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE2" s="11">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16431,7 +16410,7 @@
       </c>
       <c r="AM2" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN2" s="12">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16467,7 +16446,7 @@
       </c>
       <c r="AV2" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW2" s="24">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16503,7 +16482,7 @@
       </c>
       <c r="BE2" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF2" s="13">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16539,7 +16518,7 @@
       </c>
       <c r="BN2" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO2" s="14">
         <f>COUNTIF(INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D2:BK2,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -16575,7 +16554,7 @@
       </c>
       <c r="BW2" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX2" s="15">
         <f t="shared" ref="BX2:BX26" si="2">SUM(BO2,BF2,AN2,AE2,V2,M2,D2)</f>
@@ -17141,7 +17120,7 @@
       </c>
       <c r="L3" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M3" s="9">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17177,7 +17156,7 @@
       </c>
       <c r="U3" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V3" s="10">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17213,7 +17192,7 @@
       </c>
       <c r="AD3" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE3" s="11">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17249,7 +17228,7 @@
       </c>
       <c r="AM3" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN3" s="12">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17285,7 +17264,7 @@
       </c>
       <c r="AV3" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW3" s="24">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17321,7 +17300,7 @@
       </c>
       <c r="BE3" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF3" s="13">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17357,7 +17336,7 @@
       </c>
       <c r="BN3" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO3" s="14">
         <f>COUNTIF(INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D3:BK3,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17393,7 +17372,7 @@
       </c>
       <c r="BW3" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX3" s="15">
         <f t="shared" si="2"/>
@@ -17959,7 +17938,7 @@
       </c>
       <c r="L4" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M4" s="9">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -17995,7 +17974,7 @@
       </c>
       <c r="U4" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V4" s="10">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18031,7 +18010,7 @@
       </c>
       <c r="AD4" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE4" s="11">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18067,7 +18046,7 @@
       </c>
       <c r="AM4" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN4" s="12">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18103,7 +18082,7 @@
       </c>
       <c r="AV4" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW4" s="24">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18139,7 +18118,7 @@
       </c>
       <c r="BE4" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF4" s="13">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18175,7 +18154,7 @@
       </c>
       <c r="BN4" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO4" s="14">
         <f>COUNTIF(INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D4:BK4,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18211,7 +18190,7 @@
       </c>
       <c r="BW4" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX4" s="15">
         <f t="shared" si="2"/>
@@ -18777,7 +18756,7 @@
       </c>
       <c r="L5" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M5" s="9">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18813,7 +18792,7 @@
       </c>
       <c r="U5" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V5" s="10">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18849,7 +18828,7 @@
       </c>
       <c r="AD5" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE5" s="11">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18885,7 +18864,7 @@
       </c>
       <c r="AM5" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN5" s="12">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18921,7 +18900,7 @@
       </c>
       <c r="AV5" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW5" s="24">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18957,7 +18936,7 @@
       </c>
       <c r="BE5" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF5" s="13">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -18993,7 +18972,7 @@
       </c>
       <c r="BN5" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO5" s="14">
         <f>COUNTIF(INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D5:BK5,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19029,7 +19008,7 @@
       </c>
       <c r="BW5" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX5" s="15">
         <f t="shared" si="2"/>
@@ -19595,7 +19574,7 @@
       </c>
       <c r="L6" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M6" s="9">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19631,7 +19610,7 @@
       </c>
       <c r="U6" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V6" s="10">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19667,7 +19646,7 @@
       </c>
       <c r="AD6" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE6" s="11">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19703,7 +19682,7 @@
       </c>
       <c r="AM6" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN6" s="12">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19739,7 +19718,7 @@
       </c>
       <c r="AV6" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW6" s="24">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19775,7 +19754,7 @@
       </c>
       <c r="BE6" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF6" s="13">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19811,7 +19790,7 @@
       </c>
       <c r="BN6" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO6" s="14">
         <f>COUNTIF(INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D6:BK6,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -19847,7 +19826,7 @@
       </c>
       <c r="BW6" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX6" s="15">
         <f t="shared" si="2"/>
@@ -20413,7 +20392,7 @@
       </c>
       <c r="L7" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M7" s="9">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20449,7 +20428,7 @@
       </c>
       <c r="U7" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V7" s="10">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20485,7 +20464,7 @@
       </c>
       <c r="AD7" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE7" s="11">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20521,7 +20500,7 @@
       </c>
       <c r="AM7" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN7" s="12">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20557,7 +20536,7 @@
       </c>
       <c r="AV7" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW7" s="24">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20593,7 +20572,7 @@
       </c>
       <c r="BE7" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF7" s="13">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20629,7 +20608,7 @@
       </c>
       <c r="BN7" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO7" s="14">
         <f>COUNTIF(INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D7:BK7,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -20665,7 +20644,7 @@
       </c>
       <c r="BW7" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX7" s="15">
         <f t="shared" si="2"/>
@@ -21231,7 +21210,7 @@
       </c>
       <c r="L8" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M8" s="9">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21267,7 +21246,7 @@
       </c>
       <c r="U8" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V8" s="10">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21303,7 +21282,7 @@
       </c>
       <c r="AD8" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE8" s="11">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21339,7 +21318,7 @@
       </c>
       <c r="AM8" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN8" s="12">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21375,7 +21354,7 @@
       </c>
       <c r="AV8" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW8" s="24">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21411,7 +21390,7 @@
       </c>
       <c r="BE8" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF8" s="13">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21447,7 +21426,7 @@
       </c>
       <c r="BN8" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO8" s="14">
         <f>COUNTIF(INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D8:BK8,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -21483,7 +21462,7 @@
       </c>
       <c r="BW8" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX8" s="15">
         <f t="shared" si="2"/>
@@ -22049,7 +22028,7 @@
       </c>
       <c r="L9" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M9" s="9">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22085,7 +22064,7 @@
       </c>
       <c r="U9" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V9" s="10">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22121,7 +22100,7 @@
       </c>
       <c r="AD9" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE9" s="11">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22157,7 +22136,7 @@
       </c>
       <c r="AM9" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN9" s="12">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22193,7 +22172,7 @@
       </c>
       <c r="AV9" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW9" s="24">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22229,7 +22208,7 @@
       </c>
       <c r="BE9" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF9" s="13">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22265,7 +22244,7 @@
       </c>
       <c r="BN9" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO9" s="14">
         <f>COUNTIF(INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D9:BK9,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22301,7 +22280,7 @@
       </c>
       <c r="BW9" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX9" s="15">
         <f t="shared" si="2"/>
@@ -22867,7 +22846,7 @@
       </c>
       <c r="L10" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M10" s="9">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22903,7 +22882,7 @@
       </c>
       <c r="U10" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V10" s="10">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22939,7 +22918,7 @@
       </c>
       <c r="AD10" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE10" s="11">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -22975,7 +22954,7 @@
       </c>
       <c r="AM10" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN10" s="12">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23011,7 +22990,7 @@
       </c>
       <c r="AV10" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW10" s="24">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23047,7 +23026,7 @@
       </c>
       <c r="BE10" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF10" s="13">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23083,7 +23062,7 @@
       </c>
       <c r="BN10" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO10" s="14">
         <f>COUNTIF(INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D10:BK10,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23119,7 +23098,7 @@
       </c>
       <c r="BW10" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX10" s="15">
         <f t="shared" si="2"/>
@@ -23685,7 +23664,7 @@
       </c>
       <c r="L11" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M11" s="9">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23721,7 +23700,7 @@
       </c>
       <c r="U11" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V11" s="10">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23757,7 +23736,7 @@
       </c>
       <c r="AD11" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE11" s="11">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23793,7 +23772,7 @@
       </c>
       <c r="AM11" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN11" s="12">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23829,7 +23808,7 @@
       </c>
       <c r="AV11" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW11" s="24">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23865,7 +23844,7 @@
       </c>
       <c r="BE11" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF11" s="13">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23901,7 +23880,7 @@
       </c>
       <c r="BN11" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO11" s="14">
         <f>COUNTIF(INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D11:BK11,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -23937,7 +23916,7 @@
       </c>
       <c r="BW11" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX11" s="15">
         <f t="shared" si="2"/>
@@ -24503,7 +24482,7 @@
       </c>
       <c r="L12" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M12" s="9">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24539,7 +24518,7 @@
       </c>
       <c r="U12" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V12" s="10">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24575,7 +24554,7 @@
       </c>
       <c r="AD12" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE12" s="11">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24611,7 +24590,7 @@
       </c>
       <c r="AM12" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN12" s="12">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24647,7 +24626,7 @@
       </c>
       <c r="AV12" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW12" s="24">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24683,7 +24662,7 @@
       </c>
       <c r="BE12" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF12" s="13">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24719,7 +24698,7 @@
       </c>
       <c r="BN12" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO12" s="14">
         <f>COUNTIF(INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D12:BK12,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -24755,7 +24734,7 @@
       </c>
       <c r="BW12" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX12" s="15">
         <f t="shared" si="2"/>
@@ -25321,7 +25300,7 @@
       </c>
       <c r="L13" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M13" s="9">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25357,7 +25336,7 @@
       </c>
       <c r="U13" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V13" s="10">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25393,7 +25372,7 @@
       </c>
       <c r="AD13" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE13" s="11">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25429,7 +25408,7 @@
       </c>
       <c r="AM13" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN13" s="12">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25465,7 +25444,7 @@
       </c>
       <c r="AV13" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW13" s="24">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25501,7 +25480,7 @@
       </c>
       <c r="BE13" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF13" s="13">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25537,7 +25516,7 @@
       </c>
       <c r="BN13" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO13" s="14">
         <f>COUNTIF(INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D13:BK13,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -25573,7 +25552,7 @@
       </c>
       <c r="BW13" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX13" s="15">
         <f t="shared" si="2"/>
@@ -26139,7 +26118,7 @@
       </c>
       <c r="L14" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M14" s="9">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26175,7 +26154,7 @@
       </c>
       <c r="U14" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V14" s="10">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26211,7 +26190,7 @@
       </c>
       <c r="AD14" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE14" s="11">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26247,7 +26226,7 @@
       </c>
       <c r="AM14" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN14" s="12">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26283,7 +26262,7 @@
       </c>
       <c r="AV14" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW14" s="24">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26319,7 +26298,7 @@
       </c>
       <c r="BE14" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF14" s="13">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26355,7 +26334,7 @@
       </c>
       <c r="BN14" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO14" s="14">
         <f>COUNTIF(INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D14:BK14,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26391,7 +26370,7 @@
       </c>
       <c r="BW14" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX14" s="15">
         <f t="shared" si="2"/>
@@ -26957,7 +26936,7 @@
       </c>
       <c r="L15" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M15" s="9">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -26993,7 +26972,7 @@
       </c>
       <c r="U15" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V15" s="10">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27029,7 +27008,7 @@
       </c>
       <c r="AD15" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE15" s="11">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27065,7 +27044,7 @@
       </c>
       <c r="AM15" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN15" s="12">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27101,7 +27080,7 @@
       </c>
       <c r="AV15" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW15" s="24">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27137,7 +27116,7 @@
       </c>
       <c r="BE15" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF15" s="13">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27173,7 +27152,7 @@
       </c>
       <c r="BN15" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO15" s="14">
         <f>COUNTIF(INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D15:BK15,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27209,7 +27188,7 @@
       </c>
       <c r="BW15" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX15" s="15">
         <f t="shared" si="2"/>
@@ -27775,7 +27754,7 @@
       </c>
       <c r="L16" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M16" s="9">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27811,7 +27790,7 @@
       </c>
       <c r="U16" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V16" s="10">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27847,7 +27826,7 @@
       </c>
       <c r="AD16" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE16" s="11">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27883,7 +27862,7 @@
       </c>
       <c r="AM16" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN16" s="12">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27919,7 +27898,7 @@
       </c>
       <c r="AV16" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW16" s="24">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27955,7 +27934,7 @@
       </c>
       <c r="BE16" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF16" s="13">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -27991,7 +27970,7 @@
       </c>
       <c r="BN16" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO16" s="14">
         <f>COUNTIF(INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D16:BK16,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28027,7 +28006,7 @@
       </c>
       <c r="BW16" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX16" s="15">
         <f t="shared" si="2"/>
@@ -28593,7 +28572,7 @@
       </c>
       <c r="L17" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M17" s="9">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28629,7 +28608,7 @@
       </c>
       <c r="U17" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V17" s="10">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28665,7 +28644,7 @@
       </c>
       <c r="AD17" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE17" s="11">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28701,7 +28680,7 @@
       </c>
       <c r="AM17" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN17" s="12">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28737,7 +28716,7 @@
       </c>
       <c r="AV17" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW17" s="24">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28773,7 +28752,7 @@
       </c>
       <c r="BE17" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF17" s="13">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28809,7 +28788,7 @@
       </c>
       <c r="BN17" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO17" s="14">
         <f>COUNTIF(INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D17:BK17,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -28845,7 +28824,7 @@
       </c>
       <c r="BW17" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX17" s="15">
         <f t="shared" si="2"/>
@@ -29411,7 +29390,7 @@
       </c>
       <c r="L18" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M18" s="9">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29447,7 +29426,7 @@
       </c>
       <c r="U18" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V18" s="10">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29483,7 +29462,7 @@
       </c>
       <c r="AD18" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE18" s="11">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29519,7 +29498,7 @@
       </c>
       <c r="AM18" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN18" s="12">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29555,7 +29534,7 @@
       </c>
       <c r="AV18" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW18" s="24">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29591,7 +29570,7 @@
       </c>
       <c r="BE18" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF18" s="13">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29627,7 +29606,7 @@
       </c>
       <c r="BN18" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO18" s="14">
         <f>COUNTIF(INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D18:BK18,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -29663,7 +29642,7 @@
       </c>
       <c r="BW18" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX18" s="15">
         <f t="shared" si="2"/>
@@ -30229,7 +30208,7 @@
       </c>
       <c r="L19" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M19" s="9">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30265,7 +30244,7 @@
       </c>
       <c r="U19" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V19" s="10">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30301,7 +30280,7 @@
       </c>
       <c r="AD19" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE19" s="11">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30337,7 +30316,7 @@
       </c>
       <c r="AM19" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN19" s="12">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30373,7 +30352,7 @@
       </c>
       <c r="AV19" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW19" s="24">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30409,7 +30388,7 @@
       </c>
       <c r="BE19" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF19" s="13">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30445,7 +30424,7 @@
       </c>
       <c r="BN19" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO19" s="14">
         <f>COUNTIF(INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D19:BK19,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -30481,7 +30460,7 @@
       </c>
       <c r="BW19" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX19" s="15">
         <f t="shared" si="2"/>
@@ -31047,7 +31026,7 @@
       </c>
       <c r="L20" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M20" s="9">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31083,7 +31062,7 @@
       </c>
       <c r="U20" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V20" s="10">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31119,7 +31098,7 @@
       </c>
       <c r="AD20" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE20" s="11">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31155,7 +31134,7 @@
       </c>
       <c r="AM20" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN20" s="12">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31191,7 +31170,7 @@
       </c>
       <c r="AV20" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW20" s="24">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31227,7 +31206,7 @@
       </c>
       <c r="BE20" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF20" s="13">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31263,7 +31242,7 @@
       </c>
       <c r="BN20" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO20" s="14">
         <f>COUNTIF(INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D20:BK20,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31299,7 +31278,7 @@
       </c>
       <c r="BW20" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX20" s="15">
         <f t="shared" si="2"/>
@@ -31865,7 +31844,7 @@
       </c>
       <c r="L21" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M21" s="9">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31901,7 +31880,7 @@
       </c>
       <c r="U21" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V21" s="10">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31937,7 +31916,7 @@
       </c>
       <c r="AD21" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE21" s="11">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -31973,7 +31952,7 @@
       </c>
       <c r="AM21" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN21" s="12">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32009,7 +31988,7 @@
       </c>
       <c r="AV21" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW21" s="24">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32045,7 +32024,7 @@
       </c>
       <c r="BE21" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF21" s="13">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32081,7 +32060,7 @@
       </c>
       <c r="BN21" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO21" s="14">
         <f>COUNTIF(INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D21:BK21,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32117,7 +32096,7 @@
       </c>
       <c r="BW21" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX21" s="15">
         <f t="shared" si="2"/>
@@ -32683,7 +32662,7 @@
       </c>
       <c r="L22" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M22" s="9">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32719,7 +32698,7 @@
       </c>
       <c r="U22" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V22" s="10">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32755,7 +32734,7 @@
       </c>
       <c r="AD22" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE22" s="11">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32791,7 +32770,7 @@
       </c>
       <c r="AM22" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN22" s="12">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32827,7 +32806,7 @@
       </c>
       <c r="AV22" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW22" s="24">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32863,7 +32842,7 @@
       </c>
       <c r="BE22" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF22" s="13">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32899,7 +32878,7 @@
       </c>
       <c r="BN22" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO22" s="14">
         <f>COUNTIF(INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D22:BK22,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -32935,7 +32914,7 @@
       </c>
       <c r="BW22" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX22" s="15">
         <f t="shared" si="2"/>
@@ -33501,7 +33480,7 @@
       </c>
       <c r="L23" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M23" s="9">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33537,7 +33516,7 @@
       </c>
       <c r="U23" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V23" s="10">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33573,7 +33552,7 @@
       </c>
       <c r="AD23" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE23" s="11">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33609,7 +33588,7 @@
       </c>
       <c r="AM23" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN23" s="12">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33645,7 +33624,7 @@
       </c>
       <c r="AV23" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW23" s="24">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33681,7 +33660,7 @@
       </c>
       <c r="BE23" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF23" s="13">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33717,7 +33696,7 @@
       </c>
       <c r="BN23" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO23" s="14">
         <f>COUNTIF(INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D23:BK23,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -33753,7 +33732,7 @@
       </c>
       <c r="BW23" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX23" s="15">
         <f t="shared" si="2"/>
@@ -34319,7 +34298,7 @@
       </c>
       <c r="L24" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M24" s="9">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34355,7 +34334,7 @@
       </c>
       <c r="U24" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V24" s="10">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34391,7 +34370,7 @@
       </c>
       <c r="AD24" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE24" s="11">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34427,7 +34406,7 @@
       </c>
       <c r="AM24" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN24" s="12">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34463,7 +34442,7 @@
       </c>
       <c r="AV24" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW24" s="24">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34499,7 +34478,7 @@
       </c>
       <c r="BE24" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF24" s="13">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34535,7 +34514,7 @@
       </c>
       <c r="BN24" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO24" s="14">
         <f>COUNTIF(INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D24:BK24,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -34571,7 +34550,7 @@
       </c>
       <c r="BW24" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX24" s="15">
         <f t="shared" si="2"/>
@@ -35137,7 +35116,7 @@
       </c>
       <c r="L25" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M25" s="9">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -35173,7 +35152,7 @@
       </c>
       <c r="U25" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V25" s="10">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -35209,7 +35188,7 @@
       </c>
       <c r="AD25" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE25" s="11">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -35245,7 +35224,7 @@
       </c>
       <c r="AM25" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN25" s="12">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -35281,7 +35260,7 @@
       </c>
       <c r="AV25" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW25" s="24">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -35317,7 +35296,7 @@
       </c>
       <c r="BE25" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF25" s="13">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -35353,7 +35332,7 @@
       </c>
       <c r="BN25" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO25" s="14">
         <f>COUNTIF(INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D25:BK25,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -35389,7 +35368,7 @@
       </c>
       <c r="BW25" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX25" s="15">
         <f t="shared" si="2"/>
@@ -35955,7 +35934,7 @@
       </c>
       <c r="L26" s="38">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
-        <v>66.67</v>
+        <v>31.33</v>
       </c>
       <c r="M26" s="9">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$C$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$C$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -35991,7 +35970,7 @@
       </c>
       <c r="U26" s="39">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="V26" s="10">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$D$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$D$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -36027,7 +36006,7 @@
       </c>
       <c r="AD26" s="40">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
-        <v>66.67</v>
+        <v>40</v>
       </c>
       <c r="AE26" s="11">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$E$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$E$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -36063,7 +36042,7 @@
       </c>
       <c r="AM26" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AN26" s="12">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$F$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$F$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -36099,7 +36078,7 @@
       </c>
       <c r="AV26" s="41">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
-        <v>66.67</v>
+        <v>25</v>
       </c>
       <c r="AW26" s="24">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$G$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$G$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -36135,7 +36114,7 @@
       </c>
       <c r="BE26" s="24">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
-        <v>77.78</v>
+        <v>23.33</v>
       </c>
       <c r="BF26" s="13">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$H$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$H$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -36171,7 +36150,7 @@
       </c>
       <c r="BN26" s="42">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
-        <v>83.33</v>
+        <v>25</v>
       </c>
       <c r="BO26" s="14">
         <f>COUNTIF(INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$I$3,خروجی!$D$1:$BK$1)):INDEX(خروجی!D26:BK26,MATCH(تنظیمات!$I$4,خروجی!$D$1:$BK$1)),3)</f>
@@ -36207,7 +36186,7 @@
       </c>
       <c r="BW26" s="43">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
-        <v>66.67</v>
+        <v>20</v>
       </c>
       <c r="BX26" s="15">
         <f t="shared" si="2"/>
@@ -36747,7 +36726,7 @@
   <dimension ref="A1:BI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BF13" sqref="BF13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37729,7 +37708,7 @@
   <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BH17" sqref="BH17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/quiz.xlsx
+++ b/quiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Persons\Soroosh\Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CAF8B1-451A-42A8-ADFB-FEAF26BA223C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F2C0A2-6367-4BFD-951E-7D38ED194038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -923,22 +923,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4084,17 +4072,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -11563,1268 +11551,1268 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="36">
         <f>'کارنامه فردی'!A2</f>
         <v>1001</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="36" t="str">
         <f>'کارنامه فردی'!B2</f>
         <v>a1</v>
       </c>
-      <c r="C2" s="40" t="str">
+      <c r="C2" s="36" t="str">
         <f>'کارنامه فردی'!C2</f>
         <v>b1</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>1</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A2,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="36">
         <f>'کارنامه فردی'!A3</f>
         <v>1002</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="36" t="str">
         <f>'کارنامه فردی'!B3</f>
         <v>a2</v>
       </c>
-      <c r="C3" s="40" t="str">
+      <c r="C3" s="36" t="str">
         <f>'کارنامه فردی'!C3</f>
         <v>b2</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>24</v>
       </c>
-      <c r="K3" s="40">
+      <c r="K3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A3,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="36">
         <f>'کارنامه فردی'!A4</f>
         <v>1003</v>
       </c>
-      <c r="B4" s="40" t="str">
+      <c r="B4" s="36" t="str">
         <f>'کارنامه فردی'!B4</f>
         <v>a3</v>
       </c>
-      <c r="C4" s="40" t="str">
+      <c r="C4" s="36" t="str">
         <f>'کارنامه فردی'!C4</f>
         <v>b3</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>3</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>2</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>46.67</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>3</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L4" s="40">
+      <c r="L4" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A4,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="36">
         <f>'کارنامه فردی'!A5</f>
         <v>1004</v>
       </c>
-      <c r="B5" s="40" t="str">
+      <c r="B5" s="36" t="str">
         <f>'کارنامه فردی'!B5</f>
         <v>a4</v>
       </c>
-      <c r="C5" s="40" t="str">
+      <c r="C5" s="36" t="str">
         <f>'کارنامه فردی'!C5</f>
         <v>b4</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H5" s="40">
+      <c r="H5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A5,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="36">
         <f>'کارنامه فردی'!A6</f>
         <v>1005</v>
       </c>
-      <c r="B6" s="40" t="str">
+      <c r="B6" s="36" t="str">
         <f>'کارنامه فردی'!B6</f>
         <v>a5</v>
       </c>
-      <c r="C6" s="40" t="str">
+      <c r="C6" s="36" t="str">
         <f>'کارنامه فردی'!C6</f>
         <v>b5</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G6" s="40">
+      <c r="G6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H6" s="40">
+      <c r="H6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A6,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="36">
         <f>'کارنامه فردی'!A7</f>
         <v>1006</v>
       </c>
-      <c r="B7" s="40" t="str">
+      <c r="B7" s="36" t="str">
         <f>'کارنامه فردی'!B7</f>
         <v>a6</v>
       </c>
-      <c r="C7" s="40" t="str">
+      <c r="C7" s="36" t="str">
         <f>'کارنامه فردی'!C7</f>
         <v>b6</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A7,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="36">
         <f>'کارنامه فردی'!A8</f>
         <v>1007</v>
       </c>
-      <c r="B8" s="40" t="str">
+      <c r="B8" s="36" t="str">
         <f>'کارنامه فردی'!B8</f>
         <v>a7</v>
       </c>
-      <c r="C8" s="40" t="str">
+      <c r="C8" s="36" t="str">
         <f>'کارنامه فردی'!C8</f>
         <v>b7</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A8,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="36">
         <f>'کارنامه فردی'!A9</f>
         <v>1008</v>
       </c>
-      <c r="B9" s="40" t="str">
+      <c r="B9" s="36" t="str">
         <f>'کارنامه فردی'!B9</f>
         <v>a8</v>
       </c>
-      <c r="C9" s="40" t="str">
+      <c r="C9" s="36" t="str">
         <f>'کارنامه فردی'!C9</f>
         <v>b8</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A9,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="36">
         <f>'کارنامه فردی'!A10</f>
         <v>1009</v>
       </c>
-      <c r="B10" s="40" t="str">
+      <c r="B10" s="36" t="str">
         <f>'کارنامه فردی'!B10</f>
         <v>a9</v>
       </c>
-      <c r="C10" s="40" t="str">
+      <c r="C10" s="36" t="str">
         <f>'کارنامه فردی'!C10</f>
         <v>b9</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G10" s="40">
+      <c r="G10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A10,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="36">
         <f>'کارنامه فردی'!A11</f>
         <v>1010</v>
       </c>
-      <c r="B11" s="40" t="str">
+      <c r="B11" s="36" t="str">
         <f>'کارنامه فردی'!B11</f>
         <v>a10</v>
       </c>
-      <c r="C11" s="40" t="str">
+      <c r="C11" s="36" t="str">
         <f>'کارنامه فردی'!C11</f>
         <v>b10</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L11" s="40">
+      <c r="L11" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A11,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="36">
         <f>'کارنامه فردی'!A12</f>
         <v>1011</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="36" t="str">
         <f>'کارنامه فردی'!B12</f>
         <v>a11</v>
       </c>
-      <c r="C12" s="40" t="str">
+      <c r="C12" s="36" t="str">
         <f>'کارنامه فردی'!C12</f>
         <v>b11</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>3</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>2</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>46.67</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J12" s="40">
+      <c r="J12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>3</v>
       </c>
-      <c r="K12" s="40">
+      <c r="K12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A12,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="36">
         <f>'کارنامه فردی'!A13</f>
         <v>1012</v>
       </c>
-      <c r="B13" s="40" t="str">
+      <c r="B13" s="36" t="str">
         <f>'کارنامه فردی'!B13</f>
         <v>a12</v>
       </c>
-      <c r="C13" s="40" t="str">
+      <c r="C13" s="36" t="str">
         <f>'کارنامه فردی'!C13</f>
         <v>b12</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>2</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>3</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>20</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L13" s="40">
+      <c r="L13" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A13,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="A14" s="36">
         <f>'کارنامه فردی'!A14</f>
         <v>1013</v>
       </c>
-      <c r="B14" s="40" t="str">
+      <c r="B14" s="36" t="str">
         <f>'کارنامه فردی'!B14</f>
         <v>a13</v>
       </c>
-      <c r="C14" s="40" t="str">
+      <c r="C14" s="36" t="str">
         <f>'کارنامه فردی'!C14</f>
         <v>b13</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A14,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="36">
         <f>'کارنامه فردی'!A15</f>
         <v>1014</v>
       </c>
-      <c r="B15" s="40" t="str">
+      <c r="B15" s="36" t="str">
         <f>'کارنامه فردی'!B15</f>
         <v>a14</v>
       </c>
-      <c r="C15" s="40" t="str">
+      <c r="C15" s="36" t="str">
         <f>'کارنامه فردی'!C15</f>
         <v>b14</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J15" s="40">
+      <c r="J15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K15" s="40">
+      <c r="K15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L15" s="40">
+      <c r="L15" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A15,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="36">
         <f>'کارنامه فردی'!A16</f>
         <v>1015</v>
       </c>
-      <c r="B16" s="40" t="str">
+      <c r="B16" s="36" t="str">
         <f>'کارنامه فردی'!B16</f>
         <v>a15</v>
       </c>
-      <c r="C16" s="40" t="str">
+      <c r="C16" s="36" t="str">
         <f>'کارنامه فردی'!C16</f>
         <v>b15</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J16" s="40">
+      <c r="J16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K16" s="40">
+      <c r="K16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A16,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="A17" s="36">
         <f>'کارنامه فردی'!A17</f>
         <v>1016</v>
       </c>
-      <c r="B17" s="40" t="str">
+      <c r="B17" s="36" t="str">
         <f>'کارنامه فردی'!B17</f>
         <v>a16</v>
       </c>
-      <c r="C17" s="40" t="str">
+      <c r="C17" s="36" t="str">
         <f>'کارنامه فردی'!C17</f>
         <v>b16</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H17" s="40">
+      <c r="H17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J17" s="40">
+      <c r="J17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K17" s="40">
+      <c r="K17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L17" s="40">
+      <c r="L17" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A17,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="36">
         <f>'کارنامه فردی'!A18</f>
         <v>1017</v>
       </c>
-      <c r="B18" s="40" t="str">
+      <c r="B18" s="36" t="str">
         <f>'کارنامه فردی'!B18</f>
         <v>a17</v>
       </c>
-      <c r="C18" s="40" t="str">
+      <c r="C18" s="36" t="str">
         <f>'کارنامه فردی'!C18</f>
         <v>b17</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J18" s="40">
+      <c r="J18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K18" s="40">
+      <c r="K18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A18,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+      <c r="A19" s="36">
         <f>'کارنامه فردی'!A19</f>
         <v>1018</v>
       </c>
-      <c r="B19" s="40" t="str">
+      <c r="B19" s="36" t="str">
         <f>'کارنامه فردی'!B19</f>
         <v>a18</v>
       </c>
-      <c r="C19" s="40" t="str">
+      <c r="C19" s="36" t="str">
         <f>'کارنامه فردی'!C19</f>
         <v>b18</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A19,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="36">
         <f>'کارنامه فردی'!A20</f>
         <v>1019</v>
       </c>
-      <c r="B20" s="40" t="str">
+      <c r="B20" s="36" t="str">
         <f>'کارنامه فردی'!B20</f>
         <v>a19</v>
       </c>
-      <c r="C20" s="40" t="str">
+      <c r="C20" s="36" t="str">
         <f>'کارنامه فردی'!C20</f>
         <v>b19</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K20" s="40">
+      <c r="K20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A20,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="A21" s="36">
         <f>'کارنامه فردی'!A21</f>
         <v>1020</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="36" t="str">
         <f>'کارنامه فردی'!B21</f>
         <v>a20</v>
       </c>
-      <c r="C21" s="40" t="str">
+      <c r="C21" s="36" t="str">
         <f>'کارنامه فردی'!C21</f>
         <v>b20</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H21" s="40">
+      <c r="H21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A21,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="A22" s="36">
         <f>'کارنامه فردی'!A22</f>
         <v>1021</v>
       </c>
-      <c r="B22" s="40" t="str">
+      <c r="B22" s="36" t="str">
         <f>'کارنامه فردی'!B22</f>
         <v>a21</v>
       </c>
-      <c r="C22" s="40" t="str">
+      <c r="C22" s="36" t="str">
         <f>'کارنامه فردی'!C22</f>
         <v>b21</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F22" s="40">
+      <c r="F22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H22" s="40">
+      <c r="H22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K22" s="40">
+      <c r="K22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A22,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="36">
         <f>'کارنامه فردی'!A23</f>
         <v>1022</v>
       </c>
-      <c r="B23" s="40" t="str">
+      <c r="B23" s="36" t="str">
         <f>'کارنامه فردی'!B23</f>
         <v>a22</v>
       </c>
-      <c r="C23" s="40" t="str">
+      <c r="C23" s="36" t="str">
         <f>'کارنامه فردی'!C23</f>
         <v>b22</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="H23" s="40">
+      <c r="H23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>6</v>
       </c>
-      <c r="K23" s="40">
+      <c r="K23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L23" s="40">
+      <c r="L23" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A23,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="36">
         <f>'کارنامه فردی'!A24</f>
         <v>1023</v>
       </c>
-      <c r="B24" s="40" t="str">
+      <c r="B24" s="36" t="str">
         <f>'کارنامه فردی'!B24</f>
         <v>a23</v>
       </c>
-      <c r="C24" s="40" t="str">
+      <c r="C24" s="36" t="str">
         <f>'کارنامه فردی'!C24</f>
         <v>b23</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>1</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>4</v>
       </c>
-      <c r="G24" s="40">
+      <c r="G24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-6.67</v>
       </c>
-      <c r="H24" s="40">
+      <c r="H24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>23</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A24,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="36">
         <f>'کارنامه فردی'!A25</f>
         <v>1024</v>
       </c>
-      <c r="B25" s="40" t="str">
+      <c r="B25" s="36" t="str">
         <f>'کارنامه فردی'!B25</f>
         <v>a24</v>
       </c>
-      <c r="C25" s="40" t="str">
+      <c r="C25" s="36" t="str">
         <f>'کارنامه فردی'!C25</f>
         <v>b24</v>
       </c>
-      <c r="D25" s="40">
+      <c r="D25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="E25" s="40">
+      <c r="E25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="H25" s="40">
+      <c r="H25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J25" s="40">
+      <c r="J25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>24</v>
       </c>
-      <c r="K25" s="40">
+      <c r="K25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L25" s="40">
+      <c r="L25" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A25,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="36">
         <f>'کارنامه فردی'!A26</f>
         <v>1025</v>
       </c>
-      <c r="B26" s="40" t="str">
+      <c r="B26" s="36" t="str">
         <f>'کارنامه فردی'!B26</f>
         <v>a25</v>
       </c>
-      <c r="C26" s="40" t="str">
+      <c r="C26" s="36" t="str">
         <f>'کارنامه فردی'!C26</f>
         <v>b25</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(D$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>5</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(E$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="F26" s="40">
+      <c r="F26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(F$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>0</v>
       </c>
-      <c r="G26" s="40">
+      <c r="G26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(G$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="H26" s="40">
+      <c r="H26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(H$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>100</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(I$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>-33.33</v>
       </c>
-      <c r="J26" s="40">
+      <c r="J26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(J$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>1</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(K$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>9.6</v>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="36">
         <f>INDEX('کارنامه فردی'!$D$2:$BW$26,MATCH('کارنامه فردی'!$A26,'کارنامه فردی'!$A$2:$A$26,0),MATCH(_xlfn.CONCAT(L$1," ",$C$28),'کارنامه فردی'!$D$1:$BW$1,0))</f>
         <v>31.33</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="36">
         <f>تنظیمات!B7</f>
         <v>10</v>
       </c>
@@ -13845,7 +13833,7 @@
   <dimension ref="A1:GV30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14629,7 +14617,7 @@
         <f>ROUND(AVERAGE($G$2:$G$26),2)</f>
         <v>9.6</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -14665,7 +14653,7 @@
         <f>ROUND(AVERAGE($P$2:$P$26),2)</f>
         <v>12</v>
       </c>
-      <c r="U2" s="35">
+      <c r="U2" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -14701,7 +14689,7 @@
         <f>ROUND(AVERAGE($Y$2:$Y$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AD2" s="36">
+      <c r="AD2" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -14737,7 +14725,7 @@
         <f>ROUND(AVERAGE($AH$2:$AH$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AM2" s="20">
+      <c r="AM2" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -14773,7 +14761,7 @@
         <f>ROUND(AVERAGE($AQ$2:$AQ$26),2)</f>
         <v>8.67</v>
       </c>
-      <c r="AV2" s="37">
+      <c r="AV2" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -14809,7 +14797,7 @@
         <f>ROUND(AVERAGE($AZ$2:$AZ$26),2)</f>
         <v>8</v>
       </c>
-      <c r="BE2" s="20">
+      <c r="BE2" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -14845,7 +14833,7 @@
         <f>ROUND(AVERAGE($BI$2:$BI$26),2)</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN2" s="38">
+      <c r="BN2" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -14881,7 +14869,7 @@
         <f>ROUND( AVERAGE($BR$2:$BR$26),2)</f>
         <v>6.67</v>
       </c>
-      <c r="BW2" s="39">
+      <c r="BW2" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -15447,7 +15435,7 @@
         <f t="shared" ref="K3:K26" si="8">ROUND(AVERAGE($G$2:$G$26),2)</f>
         <v>9.6</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -15483,7 +15471,7 @@
         <f t="shared" ref="T3:T26" si="11">ROUND(AVERAGE($P$2:$P$26),2)</f>
         <v>12</v>
       </c>
-      <c r="U3" s="35">
+      <c r="U3" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -15519,7 +15507,7 @@
         <f t="shared" ref="AC3:AC26" si="16">ROUND(AVERAGE($Y$2:$Y$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AD3" s="36">
+      <c r="AD3" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -15555,7 +15543,7 @@
         <f t="shared" ref="AL3:AL26" si="21">ROUND(AVERAGE($AH$2:$AH$26),2)</f>
         <v>12</v>
       </c>
-      <c r="AM3" s="20">
+      <c r="AM3" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -15591,7 +15579,7 @@
         <f t="shared" ref="AU3:AU26" si="26">ROUND(AVERAGE($AQ$2:$AQ$26),2)</f>
         <v>8.67</v>
       </c>
-      <c r="AV3" s="37">
+      <c r="AV3" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -15627,7 +15615,7 @@
         <f t="shared" ref="BD3:BD26" si="31">ROUND(AVERAGE($AZ$2:$AZ$26),2)</f>
         <v>8</v>
       </c>
-      <c r="BE3" s="20">
+      <c r="BE3" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -15663,7 +15651,7 @@
         <f t="shared" ref="BM3:BM26" si="36">ROUND(AVERAGE($BI$2:$BI$26),2)</f>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN3" s="38">
+      <c r="BN3" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -15699,7 +15687,7 @@
         <f t="shared" ref="BV3:BV26" si="41">ROUND( AVERAGE($BR$2:$BR$26),2)</f>
         <v>6.67</v>
       </c>
-      <c r="BW3" s="39">
+      <c r="BW3" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -16265,7 +16253,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -16301,7 +16289,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U4" s="35">
+      <c r="U4" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -16337,7 +16325,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD4" s="36">
+      <c r="AD4" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -16373,7 +16361,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM4" s="20">
+      <c r="AM4" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -16409,7 +16397,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV4" s="37">
+      <c r="AV4" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -16445,7 +16433,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE4" s="20">
+      <c r="BE4" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -16481,7 +16469,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN4" s="38">
+      <c r="BN4" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -16517,7 +16505,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW4" s="39">
+      <c r="BW4" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -17083,7 +17071,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -17119,7 +17107,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -17155,7 +17143,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD5" s="36">
+      <c r="AD5" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -17191,7 +17179,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM5" s="20">
+      <c r="AM5" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -17227,7 +17215,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV5" s="37">
+      <c r="AV5" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -17263,7 +17251,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE5" s="20">
+      <c r="BE5" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -17299,7 +17287,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN5" s="38">
+      <c r="BN5" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -17335,7 +17323,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW5" s="39">
+      <c r="BW5" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -17901,7 +17889,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L6" s="34">
+      <c r="L6" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -17937,7 +17925,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U6" s="35">
+      <c r="U6" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -17973,7 +17961,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD6" s="36">
+      <c r="AD6" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -18009,7 +17997,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM6" s="20">
+      <c r="AM6" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -18045,7 +18033,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV6" s="37">
+      <c r="AV6" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -18081,7 +18069,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE6" s="20">
+      <c r="BE6" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -18117,7 +18105,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN6" s="38">
+      <c r="BN6" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -18153,7 +18141,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW6" s="39">
+      <c r="BW6" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -18719,7 +18707,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L7" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -18755,7 +18743,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U7" s="35">
+      <c r="U7" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -18791,7 +18779,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD7" s="36">
+      <c r="AD7" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -18827,7 +18815,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM7" s="20">
+      <c r="AM7" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -18863,7 +18851,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV7" s="37">
+      <c r="AV7" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -18899,7 +18887,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE7" s="20">
+      <c r="BE7" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -18935,7 +18923,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN7" s="38">
+      <c r="BN7" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -18971,7 +18959,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW7" s="39">
+      <c r="BW7" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -19537,7 +19525,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -19573,7 +19561,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -19609,7 +19597,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD8" s="36">
+      <c r="AD8" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -19645,7 +19633,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM8" s="20">
+      <c r="AM8" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -19681,7 +19669,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV8" s="37">
+      <c r="AV8" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -19717,7 +19705,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE8" s="20">
+      <c r="BE8" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -19753,7 +19741,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN8" s="38">
+      <c r="BN8" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -19789,7 +19777,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW8" s="39">
+      <c r="BW8" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -20355,7 +20343,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -20391,7 +20379,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U9" s="35">
+      <c r="U9" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -20427,7 +20415,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD9" s="36">
+      <c r="AD9" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -20463,7 +20451,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM9" s="20">
+      <c r="AM9" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -20499,7 +20487,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV9" s="37">
+      <c r="AV9" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -20535,7 +20523,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE9" s="20">
+      <c r="BE9" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -20571,7 +20559,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN9" s="38">
+      <c r="BN9" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -20607,7 +20595,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW9" s="39">
+      <c r="BW9" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -21173,7 +21161,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L10" s="34">
+      <c r="L10" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -21209,7 +21197,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U10" s="35">
+      <c r="U10" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -21245,7 +21233,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD10" s="36">
+      <c r="AD10" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -21281,7 +21269,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM10" s="20">
+      <c r="AM10" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -21317,7 +21305,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV10" s="37">
+      <c r="AV10" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -21353,7 +21341,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE10" s="20">
+      <c r="BE10" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -21389,7 +21377,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN10" s="38">
+      <c r="BN10" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -21425,7 +21413,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW10" s="39">
+      <c r="BW10" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -21991,7 +21979,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L11" s="34">
+      <c r="L11" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -22027,7 +22015,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U11" s="35">
+      <c r="U11" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -22063,7 +22051,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD11" s="36">
+      <c r="AD11" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -22099,7 +22087,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM11" s="20">
+      <c r="AM11" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -22135,7 +22123,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV11" s="37">
+      <c r="AV11" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -22171,7 +22159,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE11" s="20">
+      <c r="BE11" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -22207,7 +22195,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN11" s="38">
+      <c r="BN11" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -22243,7 +22231,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW11" s="39">
+      <c r="BW11" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -22809,7 +22797,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -22845,7 +22833,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U12" s="35">
+      <c r="U12" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -22881,7 +22869,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD12" s="36">
+      <c r="AD12" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -22917,7 +22905,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM12" s="20">
+      <c r="AM12" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -22953,7 +22941,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV12" s="37">
+      <c r="AV12" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -22989,7 +22977,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE12" s="20">
+      <c r="BE12" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -23025,7 +23013,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN12" s="38">
+      <c r="BN12" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -23061,7 +23049,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW12" s="39">
+      <c r="BW12" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -23627,7 +23615,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L13" s="34">
+      <c r="L13" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -23663,7 +23651,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U13" s="35">
+      <c r="U13" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -23699,7 +23687,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD13" s="36">
+      <c r="AD13" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -23735,7 +23723,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM13" s="20">
+      <c r="AM13" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -23771,7 +23759,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV13" s="37">
+      <c r="AV13" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -23807,7 +23795,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE13" s="20">
+      <c r="BE13" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -23843,7 +23831,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN13" s="38">
+      <c r="BN13" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -23879,7 +23867,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW13" s="39">
+      <c r="BW13" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -24445,7 +24433,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L14" s="34">
+      <c r="L14" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -24481,7 +24469,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U14" s="35">
+      <c r="U14" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -24517,7 +24505,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD14" s="36">
+      <c r="AD14" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -24553,7 +24541,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM14" s="20">
+      <c r="AM14" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -24589,7 +24577,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV14" s="37">
+      <c r="AV14" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -24625,7 +24613,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE14" s="20">
+      <c r="BE14" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -24661,7 +24649,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN14" s="38">
+      <c r="BN14" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -24697,7 +24685,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW14" s="39">
+      <c r="BW14" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -25263,7 +25251,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -25299,7 +25287,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U15" s="35">
+      <c r="U15" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -25335,7 +25323,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD15" s="36">
+      <c r="AD15" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -25371,7 +25359,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM15" s="20">
+      <c r="AM15" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -25407,7 +25395,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV15" s="37">
+      <c r="AV15" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -25443,7 +25431,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE15" s="20">
+      <c r="BE15" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -25479,7 +25467,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN15" s="38">
+      <c r="BN15" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -25515,7 +25503,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW15" s="39">
+      <c r="BW15" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -26081,7 +26069,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L16" s="34">
+      <c r="L16" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -26117,7 +26105,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U16" s="35">
+      <c r="U16" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -26153,7 +26141,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD16" s="36">
+      <c r="AD16" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -26189,7 +26177,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM16" s="20">
+      <c r="AM16" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -26225,7 +26213,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV16" s="37">
+      <c r="AV16" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -26261,7 +26249,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE16" s="20">
+      <c r="BE16" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -26297,7 +26285,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN16" s="38">
+      <c r="BN16" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -26333,7 +26321,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW16" s="39">
+      <c r="BW16" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -26899,7 +26887,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -26935,7 +26923,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U17" s="35">
+      <c r="U17" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -26971,7 +26959,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD17" s="36">
+      <c r="AD17" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -27007,7 +26995,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM17" s="20">
+      <c r="AM17" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -27043,7 +27031,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV17" s="37">
+      <c r="AV17" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -27079,7 +27067,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE17" s="20">
+      <c r="BE17" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -27115,7 +27103,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN17" s="38">
+      <c r="BN17" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -27151,7 +27139,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW17" s="39">
+      <c r="BW17" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -27717,7 +27705,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L18" s="34">
+      <c r="L18" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -27753,7 +27741,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U18" s="35">
+      <c r="U18" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -27789,7 +27777,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD18" s="36">
+      <c r="AD18" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -27825,7 +27813,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM18" s="20">
+      <c r="AM18" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -27861,7 +27849,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV18" s="37">
+      <c r="AV18" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -27897,7 +27885,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE18" s="20">
+      <c r="BE18" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -27933,7 +27921,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN18" s="38">
+      <c r="BN18" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -27969,7 +27957,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW18" s="39">
+      <c r="BW18" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -28535,7 +28523,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L19" s="34">
+      <c r="L19" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -28571,7 +28559,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U19" s="35">
+      <c r="U19" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -28607,7 +28595,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD19" s="36">
+      <c r="AD19" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -28643,7 +28631,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM19" s="20">
+      <c r="AM19" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -28679,7 +28667,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV19" s="37">
+      <c r="AV19" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -28715,7 +28703,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE19" s="20">
+      <c r="BE19" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -28751,7 +28739,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN19" s="38">
+      <c r="BN19" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -28787,7 +28775,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW19" s="39">
+      <c r="BW19" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -29353,7 +29341,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L20" s="34">
+      <c r="L20" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -29389,7 +29377,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U20" s="35">
+      <c r="U20" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -29425,7 +29413,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD20" s="36">
+      <c r="AD20" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -29461,7 +29449,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM20" s="20">
+      <c r="AM20" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -29497,7 +29485,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV20" s="37">
+      <c r="AV20" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -29533,7 +29521,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE20" s="20">
+      <c r="BE20" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -29569,7 +29557,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN20" s="38">
+      <c r="BN20" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -29605,7 +29593,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW20" s="39">
+      <c r="BW20" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -30171,7 +30159,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -30207,7 +30195,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U21" s="35">
+      <c r="U21" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -30243,7 +30231,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD21" s="36">
+      <c r="AD21" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -30279,7 +30267,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM21" s="20">
+      <c r="AM21" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -30315,7 +30303,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV21" s="37">
+      <c r="AV21" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -30351,7 +30339,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE21" s="20">
+      <c r="BE21" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -30387,7 +30375,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN21" s="38">
+      <c r="BN21" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -30423,7 +30411,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW21" s="39">
+      <c r="BW21" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -30989,7 +30977,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -31025,7 +31013,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U22" s="35">
+      <c r="U22" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -31061,7 +31049,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD22" s="36">
+      <c r="AD22" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -31097,7 +31085,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM22" s="20">
+      <c r="AM22" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -31133,7 +31121,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV22" s="37">
+      <c r="AV22" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -31169,7 +31157,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE22" s="20">
+      <c r="BE22" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -31205,7 +31193,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN22" s="38">
+      <c r="BN22" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -31241,7 +31229,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW22" s="39">
+      <c r="BW22" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -31807,7 +31795,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -31843,7 +31831,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U23" s="35">
+      <c r="U23" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -31879,7 +31867,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD23" s="36">
+      <c r="AD23" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -31915,7 +31903,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM23" s="20">
+      <c r="AM23" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -31951,7 +31939,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV23" s="37">
+      <c r="AV23" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -31987,7 +31975,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE23" s="20">
+      <c r="BE23" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -32023,7 +32011,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN23" s="38">
+      <c r="BN23" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -32059,7 +32047,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW23" s="39">
+      <c r="BW23" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -32625,7 +32613,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L24" s="34">
+      <c r="L24" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -32661,7 +32649,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U24" s="35">
+      <c r="U24" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -32697,7 +32685,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD24" s="36">
+      <c r="AD24" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -32733,7 +32721,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM24" s="20">
+      <c r="AM24" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -32769,7 +32757,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV24" s="37">
+      <c r="AV24" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -32805,7 +32793,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE24" s="20">
+      <c r="BE24" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -32841,7 +32829,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN24" s="38">
+      <c r="BN24" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -32877,7 +32865,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW24" s="39">
+      <c r="BW24" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -33443,7 +33431,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L25" s="34">
+      <c r="L25" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -33479,7 +33467,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U25" s="35">
+      <c r="U25" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -33515,7 +33503,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD25" s="36">
+      <c r="AD25" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -33551,7 +33539,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM25" s="20">
+      <c r="AM25" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -33587,7 +33575,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV25" s="37">
+      <c r="AV25" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -33623,7 +33611,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE25" s="20">
+      <c r="BE25" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -33659,7 +33647,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN25" s="38">
+      <c r="BN25" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -33695,7 +33683,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW25" s="39">
+      <c r="BW25" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
@@ -34261,7 +34249,7 @@
         <f t="shared" si="8"/>
         <v>9.6</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="23">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$G$2:$G$26),2)</f>
         <v>31.33</v>
       </c>
@@ -34297,7 +34285,7 @@
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="U26" s="35">
+      <c r="U26" s="34">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$P$2:$P$26),2)</f>
         <v>40</v>
       </c>
@@ -34333,7 +34321,7 @@
         <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="AD26" s="36">
+      <c r="AD26" s="25">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$Y$2:$Y$26),2)</f>
         <v>40</v>
       </c>
@@ -34369,7 +34357,7 @@
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="AM26" s="20">
+      <c r="AM26" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AH$2:$AH$26),2)</f>
         <v>40</v>
       </c>
@@ -34405,7 +34393,7 @@
         <f t="shared" si="26"/>
         <v>8.67</v>
       </c>
-      <c r="AV26" s="37">
+      <c r="AV26" s="27">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AQ$2:$AQ$26),2)</f>
         <v>25</v>
       </c>
@@ -34441,7 +34429,7 @@
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="BE26" s="20">
+      <c r="BE26" s="26">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$AZ$2:$AZ$26),2)</f>
         <v>23.33</v>
       </c>
@@ -34477,7 +34465,7 @@
         <f t="shared" si="36"/>
         <v>8.5299999999999994</v>
       </c>
-      <c r="BN26" s="38">
+      <c r="BN26" s="35">
         <f>ROUND(AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BI$2:$BI$26),2)</f>
         <v>25</v>
       </c>
@@ -34513,7 +34501,7 @@
         <f t="shared" si="41"/>
         <v>6.67</v>
       </c>
-      <c r="BW26" s="39">
+      <c r="BW26" s="29">
         <f>ROUND( AVERAGEIF($CD$2:$CD$26,_xlfn.CONCAT("&lt;=",تنظیمات!$B$7),$BR$2:$BR$26),2)</f>
         <v>20</v>
       </c>
